--- a/SimulationStudyData/Model5/SimCase32_Yobs_SimRun5.xlsx
+++ b/SimulationStudyData/Model5/SimCase32_Yobs_SimRun5.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.35364508788517</v>
+        <v>9.44212759162309</v>
       </c>
       <c r="B2" t="n">
-        <v>3.48206521902041</v>
+        <v>11.4899692227573</v>
       </c>
       <c r="C2" t="n">
-        <v>3.22678140084558</v>
+        <v>12.1243479086124</v>
       </c>
       <c r="D2" t="n">
-        <v>3.66281391525759</v>
+        <v>13.0387093614152</v>
       </c>
       <c r="E2" t="n">
-        <v>4.11298816390656</v>
+        <v>14.9448779953434</v>
       </c>
       <c r="F2" t="n">
-        <v>5.03669657749336</v>
+        <v>14.9411386918364</v>
       </c>
       <c r="G2" t="n">
-        <v>6.21798846673963</v>
+        <v>15.830624010854</v>
       </c>
       <c r="H2" t="n">
-        <v>6.20296216507721</v>
+        <v>16.8386980895548</v>
       </c>
       <c r="I2" t="n">
-        <v>6.56901996142481</v>
+        <v>16.3256925260735</v>
       </c>
       <c r="J2" t="n">
-        <v>5.74023228948107</v>
+        <v>19.9904528928114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.36385038649801</v>
+        <v>10.5120870445968</v>
       </c>
       <c r="B3" t="n">
-        <v>10.419639204965</v>
+        <v>11.5507987234729</v>
       </c>
       <c r="C3" t="n">
-        <v>11.6545340987977</v>
+        <v>11.5362353075137</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7424212170169</v>
+        <v>13.4063065535338</v>
       </c>
       <c r="E3" t="n">
-        <v>13.9153998360152</v>
+        <v>14.1842577277197</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0432130910586</v>
+        <v>15.3317911244039</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5460557049184</v>
+        <v>15.342872227415</v>
       </c>
       <c r="H3" t="n">
-        <v>18.4119614141746</v>
+        <v>5.92396604991662</v>
       </c>
       <c r="I3" t="n">
-        <v>18.1591123316926</v>
+        <v>6.52184187724917</v>
       </c>
       <c r="J3" t="n">
-        <v>18.5261376270458</v>
+        <v>7.06282296079245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.88856319834123</v>
+        <v>-5.05337799665887</v>
       </c>
       <c r="B4" t="n">
-        <v>11.807594142634</v>
+        <v>-5.26090595386652</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4650206771856</v>
+        <v>-5.87028327060702</v>
       </c>
       <c r="D4" t="n">
-        <v>13.251526459417</v>
+        <v>-6.62838108670859</v>
       </c>
       <c r="E4" t="n">
-        <v>14.7432752710386</v>
+        <v>-6.6680307520073</v>
       </c>
       <c r="F4" t="n">
-        <v>16.2308746603224</v>
+        <v>-8.08418622598773</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0764273491042</v>
+        <v>-8.0268152200015</v>
       </c>
       <c r="H4" t="n">
-        <v>17.1039472721386</v>
+        <v>-8.57358957349128</v>
       </c>
       <c r="I4" t="n">
-        <v>-8.9284940276467</v>
+        <v>-9.07600077431132</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.87238118667716</v>
+        <v>-9.24549141521055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.78999343339421</v>
+        <v>9.40148328689484</v>
       </c>
       <c r="B5" t="n">
-        <v>12.110244671675</v>
+        <v>10.9292219362527</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6402359845583</v>
+        <v>11.7526860101097</v>
       </c>
       <c r="D5" t="n">
-        <v>3.64070300313158</v>
+        <v>13.8258196460052</v>
       </c>
       <c r="E5" t="n">
-        <v>4.58756196152145</v>
+        <v>14.5230031992306</v>
       </c>
       <c r="F5" t="n">
-        <v>4.78891814011346</v>
+        <v>15.5457829153644</v>
       </c>
       <c r="G5" t="n">
-        <v>6.50761366751638</v>
+        <v>16.9709026129169</v>
       </c>
       <c r="H5" t="n">
-        <v>5.46756472608974</v>
+        <v>16.2448180541124</v>
       </c>
       <c r="I5" t="n">
-        <v>6.98574675197852</v>
+        <v>17.555981121734</v>
       </c>
       <c r="J5" t="n">
-        <v>6.60273687821791</v>
+        <v>20.1039531075676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.69973879168437</v>
+        <v>10.3436089176503</v>
       </c>
       <c r="B6" t="n">
-        <v>11.282162478066</v>
+        <v>12.2341274517422</v>
       </c>
       <c r="C6" t="n">
-        <v>2.97948527594151</v>
+        <v>12.2083964557575</v>
       </c>
       <c r="D6" t="n">
-        <v>3.98517146135231</v>
+        <v>12.9517332386394</v>
       </c>
       <c r="E6" t="n">
-        <v>4.20837115552162</v>
+        <v>13.8152019046116</v>
       </c>
       <c r="F6" t="n">
-        <v>4.24278972002577</v>
+        <v>14.6560966550681</v>
       </c>
       <c r="G6" t="n">
-        <v>6.31754864794841</v>
+        <v>14.9605596513007</v>
       </c>
       <c r="H6" t="n">
-        <v>6.68821643018175</v>
+        <v>16.7710465760088</v>
       </c>
       <c r="I6" t="n">
-        <v>5.35710144706903</v>
+        <v>18.3387588209902</v>
       </c>
       <c r="J6" t="n">
-        <v>7.06645939014789</v>
+        <v>17.6210058047282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.4179342106407</v>
+        <v>3.2304367383367</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.41861582579514</v>
+        <v>2.91119664685407</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.03242044276284</v>
+        <v>3.53156721710829</v>
       </c>
       <c r="D7" t="n">
-        <v>12.2113862314232</v>
+        <v>3.29186565749315</v>
       </c>
       <c r="E7" t="n">
-        <v>3.711641206089</v>
+        <v>4.46992709296136</v>
       </c>
       <c r="F7" t="n">
-        <v>4.62459350069991</v>
+        <v>4.72074229193731</v>
       </c>
       <c r="G7" t="n">
-        <v>5.15191603895892</v>
+        <v>6.01161782580966</v>
       </c>
       <c r="H7" t="n">
-        <v>5.45364302776751</v>
+        <v>5.26658463237439</v>
       </c>
       <c r="I7" t="n">
-        <v>5.18020203901453</v>
+        <v>6.6418469851728</v>
       </c>
       <c r="J7" t="n">
-        <v>7.22149397366586</v>
+        <v>7.04527262692061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.63235416374433</v>
+        <v>11.270777826886</v>
       </c>
       <c r="B8" t="n">
-        <v>10.6849099348636</v>
+        <v>10.947537529343</v>
       </c>
       <c r="C8" t="n">
-        <v>11.0185620440409</v>
+        <v>11.6468558848123</v>
       </c>
       <c r="D8" t="n">
-        <v>13.2345705604916</v>
+        <v>11.2359791576746</v>
       </c>
       <c r="E8" t="n">
-        <v>14.4054456752478</v>
+        <v>13.8600530412645</v>
       </c>
       <c r="F8" t="n">
-        <v>15.3586241221821</v>
+        <v>15.2219631580394</v>
       </c>
       <c r="G8" t="n">
-        <v>16.9969648510805</v>
+        <v>15.7039209211386</v>
       </c>
       <c r="H8" t="n">
-        <v>18.3536763228974</v>
+        <v>18.3018461532371</v>
       </c>
       <c r="I8" t="n">
-        <v>6.94180104438026</v>
+        <v>16.6686265370794</v>
       </c>
       <c r="J8" t="n">
-        <v>7.70482707233317</v>
+        <v>18.9453166565875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.95056176127395</v>
+        <v>12.828347852106</v>
       </c>
       <c r="B9" t="n">
-        <v>9.90249887749724</v>
+        <v>10.4787725648146</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8160170281727</v>
+        <v>11.8250091874739</v>
       </c>
       <c r="D9" t="n">
-        <v>12.6167723978985</v>
+        <v>12.0334164961116</v>
       </c>
       <c r="E9" t="n">
-        <v>14.7837054868751</v>
+        <v>13.9104252677258</v>
       </c>
       <c r="F9" t="n">
-        <v>14.9679291167634</v>
+        <v>15.5220657157064</v>
       </c>
       <c r="G9" t="n">
-        <v>16.4537075245613</v>
+        <v>16.5901203615755</v>
       </c>
       <c r="H9" t="n">
-        <v>17.5468678920461</v>
+        <v>16.9735176732269</v>
       </c>
       <c r="I9" t="n">
-        <v>18.5054796583804</v>
+        <v>17.5528993722895</v>
       </c>
       <c r="J9" t="n">
-        <v>7.07206109140202</v>
+        <v>20.0231739773381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.20673908515739</v>
+        <v>9.98525933061901</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3160381147097</v>
+        <v>11.826926187844</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4100519976073</v>
+        <v>12.6850794787336</v>
       </c>
       <c r="D10" t="n">
-        <v>13.3694596832841</v>
+        <v>13.1734407905504</v>
       </c>
       <c r="E10" t="n">
-        <v>14.6746333924995</v>
+        <v>13.5681404578728</v>
       </c>
       <c r="F10" t="n">
-        <v>13.3779259463425</v>
+        <v>13.7006957422172</v>
       </c>
       <c r="G10" t="n">
-        <v>16.6681330313605</v>
+        <v>15.7312586942175</v>
       </c>
       <c r="H10" t="n">
-        <v>17.211548424462</v>
+        <v>5.79339646742756</v>
       </c>
       <c r="I10" t="n">
-        <v>17.9032870997996</v>
+        <v>6.41496914759699</v>
       </c>
       <c r="J10" t="n">
-        <v>18.6726253925314</v>
+        <v>7.50082788238856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.1608209210691</v>
+        <v>10.3571276919683</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.26109451627937</v>
+        <v>11.0063891571605</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.99847373924945</v>
+        <v>11.7490779459066</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.14750463209967</v>
+        <v>13.1807902367981</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.878951895557</v>
+        <v>15.2085338022395</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.59870592493653</v>
+        <v>16.2627539814052</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.97791576629448</v>
+        <v>15.1728556777707</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.5639897029404</v>
+        <v>17.3491903370086</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.03258157014445</v>
+        <v>16.138846946976</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.73276717252715</v>
+        <v>19.1751642322245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.70400258220171</v>
+        <v>10.9064842242364</v>
       </c>
       <c r="B12" t="n">
-        <v>10.7824348904592</v>
+        <v>10.8356169913875</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3467471671336</v>
+        <v>3.78395851946308</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6604344808325</v>
+        <v>3.55805344641433</v>
       </c>
       <c r="E12" t="n">
-        <v>14.0004023561096</v>
+        <v>4.69883371074982</v>
       </c>
       <c r="F12" t="n">
-        <v>14.6645065068781</v>
+        <v>5.45216316379493</v>
       </c>
       <c r="G12" t="n">
-        <v>16.3939174930798</v>
+        <v>5.56608813212335</v>
       </c>
       <c r="H12" t="n">
-        <v>17.753538253779</v>
+        <v>6.43343671014048</v>
       </c>
       <c r="I12" t="n">
-        <v>18.634610096651</v>
+        <v>6.46183650567488</v>
       </c>
       <c r="J12" t="n">
-        <v>17.7039428497048</v>
+        <v>7.22430667905717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.5533116752954</v>
+        <v>-4.80628175583759</v>
       </c>
       <c r="B13" t="n">
-        <v>12.09711298472</v>
+        <v>-5.80596922969606</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5584213511884</v>
+        <v>-5.71682867477602</v>
       </c>
       <c r="D13" t="n">
-        <v>13.0348924901265</v>
+        <v>-6.19075013100822</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0229080475557</v>
+        <v>-6.8383090302856</v>
       </c>
       <c r="F13" t="n">
-        <v>14.0604506380254</v>
+        <v>-7.29734744733402</v>
       </c>
       <c r="G13" t="n">
-        <v>15.7495328990331</v>
+        <v>-7.89460889762356</v>
       </c>
       <c r="H13" t="n">
-        <v>6.0668516281267</v>
+        <v>-8.27723148097111</v>
       </c>
       <c r="I13" t="n">
-        <v>6.60702342529139</v>
+        <v>-9.63561102650394</v>
       </c>
       <c r="J13" t="n">
-        <v>7.00562985158476</v>
+        <v>-9.29324682170797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.12657783172085</v>
+        <v>-4.73035766398003</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.53342816006838</v>
+        <v>-5.39570168813137</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.9790284777255</v>
+        <v>-6.26396387737952</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.56542460305211</v>
+        <v>-6.57050746080271</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.63819956685218</v>
+        <v>-7.14399885193383</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.88730271134272</v>
+        <v>-7.83867453210201</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.27248297485631</v>
+        <v>-8.17001405255339</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.50762003116207</v>
+        <v>-8.77892501283906</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.12498148811895</v>
+        <v>-9.58181171563981</v>
       </c>
       <c r="J14" t="n">
-        <v>-9.81055136908477</v>
+        <v>-9.35264882226511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.51746724344319</v>
+        <v>-5.06229540417709</v>
       </c>
       <c r="B15" t="n">
-        <v>2.89552968416068</v>
+        <v>-5.34061113768421</v>
       </c>
       <c r="C15" t="n">
-        <v>3.05622681348856</v>
+        <v>-5.8920271351518</v>
       </c>
       <c r="D15" t="n">
-        <v>4.84194638287058</v>
+        <v>-6.58579693663546</v>
       </c>
       <c r="E15" t="n">
-        <v>4.25460812486367</v>
+        <v>-6.78629729942825</v>
       </c>
       <c r="F15" t="n">
-        <v>5.36432257253524</v>
+        <v>-7.34597375901396</v>
       </c>
       <c r="G15" t="n">
-        <v>5.92268960428729</v>
+        <v>-7.39106503128002</v>
       </c>
       <c r="H15" t="n">
-        <v>5.82681258947436</v>
+        <v>-8.44816979823731</v>
       </c>
       <c r="I15" t="n">
-        <v>5.99460880380108</v>
+        <v>-9.24218295060576</v>
       </c>
       <c r="J15" t="n">
-        <v>6.37555663413099</v>
+        <v>-9.63487486615167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.8988139087315</v>
+        <v>2.42401628204843</v>
       </c>
       <c r="B16" t="n">
-        <v>11.3368074510825</v>
+        <v>1.66121689644697</v>
       </c>
       <c r="C16" t="n">
-        <v>11.8601575354389</v>
+        <v>3.56238058227547</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7381705227899</v>
+        <v>3.78158950150988</v>
       </c>
       <c r="E16" t="n">
-        <v>15.1055700672699</v>
+        <v>4.97269883391696</v>
       </c>
       <c r="F16" t="n">
-        <v>15.4227186412991</v>
+        <v>5.50471610148277</v>
       </c>
       <c r="G16" t="n">
-        <v>5.51581773067896</v>
+        <v>5.54630534244545</v>
       </c>
       <c r="H16" t="n">
-        <v>6.03145662451906</v>
+        <v>5.37286843672649</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2099417120377</v>
+        <v>6.82584869718024</v>
       </c>
       <c r="J16" t="n">
-        <v>7.7727957770695</v>
+        <v>6.86613669435573</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.9761691156707</v>
+        <v>-5.1218916097082</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8744401146265</v>
+        <v>-5.67690273947527</v>
       </c>
       <c r="C17" t="n">
-        <v>11.9200044145006</v>
+        <v>-5.78319974255679</v>
       </c>
       <c r="D17" t="n">
-        <v>12.4637511694099</v>
+        <v>-6.56004482750235</v>
       </c>
       <c r="E17" t="n">
-        <v>13.1017801922813</v>
+        <v>-7.01127170456972</v>
       </c>
       <c r="F17" t="n">
-        <v>14.6596157464172</v>
+        <v>-7.79990009812432</v>
       </c>
       <c r="G17" t="n">
-        <v>15.4382052860391</v>
+        <v>-8.1584328865738</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.93733192839711</v>
+        <v>-8.49752448109119</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.881392746191</v>
+        <v>-9.45395395014038</v>
       </c>
       <c r="J17" t="n">
-        <v>-9.47456844866877</v>
+        <v>-9.80586463188649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.497191924028</v>
+        <v>-5.07080427851532</v>
       </c>
       <c r="B18" t="n">
-        <v>10.9779272354745</v>
+        <v>-5.40292327594825</v>
       </c>
       <c r="C18" t="n">
-        <v>12.7309937110795</v>
+        <v>-6.33173245430113</v>
       </c>
       <c r="D18" t="n">
-        <v>13.1561110219788</v>
+        <v>-6.49948082387586</v>
       </c>
       <c r="E18" t="n">
-        <v>14.9088778511779</v>
+        <v>-7.10228895426563</v>
       </c>
       <c r="F18" t="n">
-        <v>14.9014077534214</v>
+        <v>-7.78424795575611</v>
       </c>
       <c r="G18" t="n">
-        <v>14.3872806540709</v>
+        <v>-8.18717198654406</v>
       </c>
       <c r="H18" t="n">
-        <v>16.2711299928763</v>
+        <v>-8.35315087544104</v>
       </c>
       <c r="I18" t="n">
-        <v>5.40518173496777</v>
+        <v>-9.58188973192918</v>
       </c>
       <c r="J18" t="n">
-        <v>6.7887884114277</v>
+        <v>-9.66300975865214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.6101131978685</v>
+        <v>-5.24553611721583</v>
       </c>
       <c r="B19" t="n">
-        <v>10.6189795003204</v>
+        <v>-5.61368330545046</v>
       </c>
       <c r="C19" t="n">
-        <v>11.9297990052685</v>
+        <v>-6.31633772328548</v>
       </c>
       <c r="D19" t="n">
-        <v>14.097512560072</v>
+        <v>-7.05893921997427</v>
       </c>
       <c r="E19" t="n">
-        <v>14.2543181046151</v>
+        <v>-6.95788018178566</v>
       </c>
       <c r="F19" t="n">
-        <v>15.3664174861647</v>
+        <v>-7.08644568229353</v>
       </c>
       <c r="G19" t="n">
-        <v>5.13651064974093</v>
+        <v>-7.79692150204988</v>
       </c>
       <c r="H19" t="n">
-        <v>5.29901145567861</v>
+        <v>-8.55777605624816</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25063721976801</v>
+        <v>-8.87469941758717</v>
       </c>
       <c r="J19" t="n">
-        <v>6.97380933212751</v>
+        <v>-9.53423403828021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.62023797699725</v>
+        <v>10.9931636990723</v>
       </c>
       <c r="B20" t="n">
-        <v>9.45413197038699</v>
+        <v>11.1477851291178</v>
       </c>
       <c r="C20" t="n">
-        <v>12.516045599046</v>
+        <v>11.6561669310558</v>
       </c>
       <c r="D20" t="n">
-        <v>13.1150741393331</v>
+        <v>11.9622597676011</v>
       </c>
       <c r="E20" t="n">
-        <v>14.2189976973487</v>
+        <v>12.9147074254671</v>
       </c>
       <c r="F20" t="n">
-        <v>14.6800041339388</v>
+        <v>15.244641811054</v>
       </c>
       <c r="G20" t="n">
-        <v>15.2358179704432</v>
+        <v>15.7567619357816</v>
       </c>
       <c r="H20" t="n">
-        <v>17.7691433945129</v>
+        <v>17.1194632683867</v>
       </c>
       <c r="I20" t="n">
-        <v>17.4616327853503</v>
+        <v>18.1475177885456</v>
       </c>
       <c r="J20" t="n">
-        <v>18.4368263498736</v>
+        <v>18.9296337575217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.0572258424712</v>
+        <v>2.44141461277372</v>
       </c>
       <c r="B21" t="n">
-        <v>12.2739668368605</v>
+        <v>3.29882809385479</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4751342785988</v>
+        <v>3.42577361059904</v>
       </c>
       <c r="D21" t="n">
-        <v>13.4629872466739</v>
+        <v>3.65032540992994</v>
       </c>
       <c r="E21" t="n">
-        <v>14.3255486334277</v>
+        <v>4.05548274015261</v>
       </c>
       <c r="F21" t="n">
-        <v>15.1542216059299</v>
+        <v>4.48356530459285</v>
       </c>
       <c r="G21" t="n">
-        <v>14.1509191957478</v>
+        <v>5.63338080696055</v>
       </c>
       <c r="H21" t="n">
-        <v>16.6969806532544</v>
+        <v>5.60239579562388</v>
       </c>
       <c r="I21" t="n">
-        <v>16.7092160799347</v>
+        <v>6.49139155330961</v>
       </c>
       <c r="J21" t="n">
-        <v>19.2709685222348</v>
+        <v>7.45644958736301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.8960595177785</v>
+        <v>11.2152233346674</v>
       </c>
       <c r="B22" t="n">
-        <v>11.1754988352074</v>
+        <v>12.0221897652831</v>
       </c>
       <c r="C22" t="n">
-        <v>12.1050059887732</v>
+        <v>11.2148322478988</v>
       </c>
       <c r="D22" t="n">
-        <v>14.4958743733955</v>
+        <v>12.4478218663553</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5163992100156</v>
+        <v>13.5309421541144</v>
       </c>
       <c r="F22" t="n">
-        <v>14.8371614672527</v>
+        <v>16.4489432054365</v>
       </c>
       <c r="G22" t="n">
-        <v>15.3996639248772</v>
+        <v>15.074157067397</v>
       </c>
       <c r="H22" t="n">
-        <v>16.8629743874703</v>
+        <v>15.7387417060618</v>
       </c>
       <c r="I22" t="n">
-        <v>6.36601280180463</v>
+        <v>18.5498545667798</v>
       </c>
       <c r="J22" t="n">
-        <v>7.29086887575163</v>
+        <v>19.1481502573817</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11.0425122322409</v>
+        <v>9.81246791811976</v>
       </c>
       <c r="B23" t="n">
-        <v>11.5148696695661</v>
+        <v>10.7751862891186</v>
       </c>
       <c r="C23" t="n">
-        <v>12.3752071046385</v>
+        <v>10.6603255432921</v>
       </c>
       <c r="D23" t="n">
-        <v>3.40455326519474</v>
+        <v>12.2949414754441</v>
       </c>
       <c r="E23" t="n">
-        <v>4.41593049853801</v>
+        <v>13.6211806696792</v>
       </c>
       <c r="F23" t="n">
-        <v>5.64945869762998</v>
+        <v>14.7462488866748</v>
       </c>
       <c r="G23" t="n">
-        <v>5.43602827850622</v>
+        <v>16.3394603830693</v>
       </c>
       <c r="H23" t="n">
-        <v>5.78327750391517</v>
+        <v>17.8557771861253</v>
       </c>
       <c r="I23" t="n">
-        <v>6.40397049539464</v>
+        <v>18.8603536414136</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4260947643637</v>
+        <v>19.4274158060907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.314740389515</v>
+        <v>-4.89532944122876</v>
       </c>
       <c r="B24" t="n">
-        <v>11.5234817758061</v>
+        <v>-5.23706708372083</v>
       </c>
       <c r="C24" t="n">
-        <v>10.997561252995</v>
+        <v>12.3610549188953</v>
       </c>
       <c r="D24" t="n">
-        <v>12.4704891710186</v>
+        <v>13.0968774914557</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.79277270097164</v>
+        <v>13.8049681786958</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.41004266247157</v>
+        <v>16.1536167461729</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.91458808885178</v>
+        <v>6.41772100602126</v>
       </c>
       <c r="H24" t="n">
-        <v>17.252831235031</v>
+        <v>5.99029866597144</v>
       </c>
       <c r="I24" t="n">
-        <v>18.4323535828878</v>
+        <v>6.55162519768534</v>
       </c>
       <c r="J24" t="n">
-        <v>19.3532185203525</v>
+        <v>6.83012341637892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.74505744873167</v>
+        <v>2.34202986732231</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.79468132788022</v>
+        <v>2.49967275880666</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.1399672178715</v>
+        <v>3.79423773744521</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.21773633516853</v>
+        <v>4.83197961612945</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.1812719258695</v>
+        <v>3.58231213796489</v>
       </c>
       <c r="F25" t="n">
-        <v>15.1638570307839</v>
+        <v>4.87139349650735</v>
       </c>
       <c r="G25" t="n">
-        <v>14.9827313079536</v>
+        <v>6.35089463361124</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.50723799549378</v>
+        <v>6.3258010965475</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.5901064899773</v>
+        <v>5.8896618989171</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.1484523871224</v>
+        <v>7.81532539633827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.4828357876869</v>
+        <v>9.38052356095674</v>
       </c>
       <c r="B26" t="n">
-        <v>10.439280101552</v>
+        <v>10.7026873777344</v>
       </c>
       <c r="C26" t="n">
-        <v>11.4772378205728</v>
+        <v>13.1299423970965</v>
       </c>
       <c r="D26" t="n">
-        <v>12.8622519496295</v>
+        <v>13.5052368401938</v>
       </c>
       <c r="E26" t="n">
-        <v>14.2475487162202</v>
+        <v>14.6225131896437</v>
       </c>
       <c r="F26" t="n">
-        <v>14.6618366391517</v>
+        <v>14.8555243255678</v>
       </c>
       <c r="G26" t="n">
-        <v>17.1230605746085</v>
+        <v>-8.29830707930089</v>
       </c>
       <c r="H26" t="n">
-        <v>6.06921979297098</v>
+        <v>-8.53830094080595</v>
       </c>
       <c r="I26" t="n">
-        <v>6.43589337481246</v>
+        <v>-8.69161602527466</v>
       </c>
       <c r="J26" t="n">
-        <v>7.36425876179154</v>
+        <v>-9.88678701564463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.89893079840595</v>
+        <v>-4.99315044989242</v>
       </c>
       <c r="B27" t="n">
-        <v>12.1883282587469</v>
+        <v>9.53927467542921</v>
       </c>
       <c r="C27" t="n">
-        <v>11.2869853191879</v>
+        <v>12.2400872924569</v>
       </c>
       <c r="D27" t="n">
-        <v>13.7160033517537</v>
+        <v>12.3194288940617</v>
       </c>
       <c r="E27" t="n">
-        <v>13.0211506163994</v>
+        <v>13.9721960042065</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.61895375349068</v>
+        <v>16.0741393599673</v>
       </c>
       <c r="G27" t="n">
-        <v>16.0600356432834</v>
+        <v>16.3776571548189</v>
       </c>
       <c r="H27" t="n">
-        <v>17.4830019807958</v>
+        <v>15.4568593280686</v>
       </c>
       <c r="I27" t="n">
-        <v>18.4987798042554</v>
+        <v>17.7862872221931</v>
       </c>
       <c r="J27" t="n">
-        <v>7.58511456210446</v>
+        <v>18.2805757879107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-4.89728398949036</v>
+        <v>10.0475677057669</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.05342113679189</v>
+        <v>10.7538323808804</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.9159566450657</v>
+        <v>10.9757391434512</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.62272519612368</v>
+        <v>12.7648192420631</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.8166548576004</v>
+        <v>13.3407974355732</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.30205769067049</v>
+        <v>15.5964340717292</v>
       </c>
       <c r="G28" t="n">
-        <v>17.2256197247826</v>
+        <v>14.9457176547826</v>
       </c>
       <c r="H28" t="n">
-        <v>15.3541812915413</v>
+        <v>17.3875715229343</v>
       </c>
       <c r="I28" t="n">
-        <v>18.1214336189292</v>
+        <v>6.66693496352042</v>
       </c>
       <c r="J28" t="n">
-        <v>18.8779274416234</v>
+        <v>6.90083832772102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-4.470337987895</v>
+        <v>-5.08196693879371</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.12277944458612</v>
+        <v>-5.37169701585085</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.22633230770206</v>
+        <v>-5.71906431945693</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.47708346405647</v>
+        <v>-6.48987787409335</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.53461444769771</v>
+        <v>-6.94894555255174</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.88582738110713</v>
+        <v>-7.29081658013803</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.00918976233985</v>
+        <v>-7.64303218709054</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.50997404079175</v>
+        <v>-8.48061477436011</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.44224729046271</v>
+        <v>-9.26055634747254</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.44345184019929</v>
+        <v>-9.401340393479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.85757916189228</v>
+        <v>-4.65432291276823</v>
       </c>
       <c r="B30" t="n">
-        <v>10.5661354481443</v>
+        <v>-5.44412471965752</v>
       </c>
       <c r="C30" t="n">
-        <v>12.2650388452226</v>
+        <v>-5.84482628710118</v>
       </c>
       <c r="D30" t="n">
-        <v>11.8388484204255</v>
+        <v>-6.39764174997287</v>
       </c>
       <c r="E30" t="n">
-        <v>14.3519821833515</v>
+        <v>5.41896923724977</v>
       </c>
       <c r="F30" t="n">
-        <v>4.77373313276764</v>
+        <v>4.55182778212911</v>
       </c>
       <c r="G30" t="n">
-        <v>5.19926805941222</v>
+        <v>5.74784679106888</v>
       </c>
       <c r="H30" t="n">
-        <v>5.67153230440391</v>
+        <v>17.3725320478412</v>
       </c>
       <c r="I30" t="n">
-        <v>6.55359434867173</v>
+        <v>17.2019188943755</v>
       </c>
       <c r="J30" t="n">
-        <v>7.20102518542892</v>
+        <v>19.7863200292417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.37694844999386</v>
+        <v>9.17315598343865</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.822775600843</v>
+        <v>10.56480791633</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.32054301144718</v>
+        <v>12.6225567527239</v>
       </c>
       <c r="D31" t="n">
-        <v>14.1287556030003</v>
+        <v>14.0265883385715</v>
       </c>
       <c r="E31" t="n">
-        <v>13.6527922592211</v>
+        <v>13.3838108681184</v>
       </c>
       <c r="F31" t="n">
-        <v>14.8786741673703</v>
+        <v>15.2296617851074</v>
       </c>
       <c r="G31" t="n">
-        <v>16.7126435301524</v>
+        <v>-8.06700553554832</v>
       </c>
       <c r="H31" t="n">
-        <v>16.518157374965</v>
+        <v>-8.58487212068367</v>
       </c>
       <c r="I31" t="n">
-        <v>18.3363373830048</v>
+        <v>-8.92092747340075</v>
       </c>
       <c r="J31" t="n">
-        <v>20.7996578297147</v>
+        <v>-9.73926148701952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.96281210384164</v>
+        <v>9.85650246988128</v>
       </c>
       <c r="B32" t="n">
-        <v>2.97172620880481</v>
+        <v>11.4037020397198</v>
       </c>
       <c r="C32" t="n">
-        <v>3.41850244802728</v>
+        <v>12.4200691577173</v>
       </c>
       <c r="D32" t="n">
-        <v>4.02236139277611</v>
+        <v>12.9564915105097</v>
       </c>
       <c r="E32" t="n">
-        <v>4.44383431142153</v>
+        <v>13.7151807618194</v>
       </c>
       <c r="F32" t="n">
-        <v>5.14641095185744</v>
+        <v>15.7007356103605</v>
       </c>
       <c r="G32" t="n">
-        <v>5.73052237078264</v>
+        <v>14.9785586855457</v>
       </c>
       <c r="H32" t="n">
-        <v>5.53253089737578</v>
+        <v>16.3377813014669</v>
       </c>
       <c r="I32" t="n">
-        <v>6.28757951684845</v>
+        <v>17.2646274017488</v>
       </c>
       <c r="J32" t="n">
-        <v>6.86206017518526</v>
+        <v>19.2245204580692</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-4.60233160863521</v>
+        <v>10.7369920761967</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.649439839236</v>
+        <v>10.5072803888675</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.24312563581549</v>
+        <v>12.3304327380417</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.17995697394494</v>
+        <v>13.3275948380874</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.19107994584998</v>
+        <v>4.55838484283171</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.18256196643406</v>
+        <v>4.88463861586912</v>
       </c>
       <c r="G33" t="n">
-        <v>16.2039400201306</v>
+        <v>5.6150267413137</v>
       </c>
       <c r="H33" t="n">
-        <v>15.3905090726868</v>
+        <v>7.33915082213018</v>
       </c>
       <c r="I33" t="n">
-        <v>19.0539593552286</v>
+        <v>7.61535105719822</v>
       </c>
       <c r="J33" t="n">
-        <v>19.6534845959658</v>
+        <v>6.58992902390324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.30521161939436</v>
+        <v>9.56552627786276</v>
       </c>
       <c r="B34" t="n">
-        <v>3.17517430914866</v>
+        <v>11.1464702945903</v>
       </c>
       <c r="C34" t="n">
-        <v>3.62118004880053</v>
+        <v>11.9119216270386</v>
       </c>
       <c r="D34" t="n">
-        <v>3.79023952770324</v>
+        <v>12.7678993446296</v>
       </c>
       <c r="E34" t="n">
-        <v>4.17597475118441</v>
+        <v>15.1501624128787</v>
       </c>
       <c r="F34" t="n">
-        <v>4.55252530622813</v>
+        <v>14.924636083872</v>
       </c>
       <c r="G34" t="n">
-        <v>5.36549971946374</v>
+        <v>15.8607839430785</v>
       </c>
       <c r="H34" t="n">
-        <v>6.51323642578181</v>
+        <v>17.0551458705241</v>
       </c>
       <c r="I34" t="n">
-        <v>6.01454488506691</v>
+        <v>18.7815928985229</v>
       </c>
       <c r="J34" t="n">
-        <v>6.96261592508</v>
+        <v>19.5565872900851</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.74942270893912</v>
+        <v>8.56554260528221</v>
       </c>
       <c r="B35" t="n">
-        <v>10.5002921636108</v>
+        <v>12.6639936622352</v>
       </c>
       <c r="C35" t="n">
-        <v>12.5416144670242</v>
+        <v>12.0932856538758</v>
       </c>
       <c r="D35" t="n">
-        <v>13.8933995502965</v>
+        <v>11.2973563474049</v>
       </c>
       <c r="E35" t="n">
-        <v>13.6725724594784</v>
+        <v>14.2427387557035</v>
       </c>
       <c r="F35" t="n">
-        <v>15.7180898093078</v>
+        <v>13.0462187788129</v>
       </c>
       <c r="G35" t="n">
-        <v>14.0244164227923</v>
+        <v>16.239988144723</v>
       </c>
       <c r="H35" t="n">
-        <v>16.1566285349548</v>
+        <v>16.5989089401747</v>
       </c>
       <c r="I35" t="n">
-        <v>18.6767490255217</v>
+        <v>17.7277159276037</v>
       </c>
       <c r="J35" t="n">
-        <v>18.8771932895248</v>
+        <v>20.163888505667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.40737593266397</v>
+        <v>10.2716633617967</v>
       </c>
       <c r="B36" t="n">
-        <v>3.2043152367316</v>
+        <v>10.2797621300596</v>
       </c>
       <c r="C36" t="n">
-        <v>3.68816120724586</v>
+        <v>11.3971955772541</v>
       </c>
       <c r="D36" t="n">
-        <v>3.35470285093004</v>
+        <v>11.9655867991786</v>
       </c>
       <c r="E36" t="n">
-        <v>4.18006883629626</v>
+        <v>14.2161458712897</v>
       </c>
       <c r="F36" t="n">
-        <v>5.12903301767984</v>
+        <v>15.7958991372499</v>
       </c>
       <c r="G36" t="n">
-        <v>6.08571910968622</v>
+        <v>14.9709608798756</v>
       </c>
       <c r="H36" t="n">
-        <v>6.21545621130251</v>
+        <v>16.3669152418208</v>
       </c>
       <c r="I36" t="n">
-        <v>7.1591948048009</v>
+        <v>18.5205656162625</v>
       </c>
       <c r="J36" t="n">
-        <v>7.57008584231189</v>
+        <v>17.5197391220473</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.4831034966716</v>
+        <v>8.90390722814007</v>
       </c>
       <c r="B37" t="n">
-        <v>9.93841062262508</v>
+        <v>11.6947878845827</v>
       </c>
       <c r="C37" t="n">
-        <v>3.14341697749477</v>
+        <v>11.5948473319547</v>
       </c>
       <c r="D37" t="n">
-        <v>3.90481252873634</v>
+        <v>12.7266834811899</v>
       </c>
       <c r="E37" t="n">
-        <v>4.45474956522339</v>
+        <v>13.9400617349891</v>
       </c>
       <c r="F37" t="n">
-        <v>5.44602670446169</v>
+        <v>14.5764384691323</v>
       </c>
       <c r="G37" t="n">
-        <v>5.10909036874335</v>
+        <v>14.6653995168995</v>
       </c>
       <c r="H37" t="n">
-        <v>6.18505161943654</v>
+        <v>17.4273948519704</v>
       </c>
       <c r="I37" t="n">
-        <v>6.45074762839653</v>
+        <v>17.7656629225867</v>
       </c>
       <c r="J37" t="n">
-        <v>6.65783009295103</v>
+        <v>6.9750863571878</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.0535827809338</v>
+        <v>-5.45743056029078</v>
       </c>
       <c r="B38" t="n">
-        <v>10.2953712110671</v>
+        <v>-5.0468927945094</v>
       </c>
       <c r="C38" t="n">
-        <v>11.9879199459347</v>
+        <v>-5.8960771046379</v>
       </c>
       <c r="D38" t="n">
-        <v>12.253721668775</v>
+        <v>-6.73003231735765</v>
       </c>
       <c r="E38" t="n">
-        <v>12.8854968892987</v>
+        <v>-6.6253439557983</v>
       </c>
       <c r="F38" t="n">
-        <v>14.5469011260376</v>
+        <v>-7.74632641713708</v>
       </c>
       <c r="G38" t="n">
-        <v>16.5430424724199</v>
+        <v>-7.7385857690003</v>
       </c>
       <c r="H38" t="n">
-        <v>16.9028889064044</v>
+        <v>-8.88629816343302</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.06528556973314</v>
+        <v>-9.35952731502736</v>
       </c>
       <c r="J38" t="n">
-        <v>-9.42984502356391</v>
+        <v>-9.1755956598739</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.32627221572332</v>
+        <v>-4.73771576875083</v>
       </c>
       <c r="B39" t="n">
-        <v>3.59974549509527</v>
+        <v>-5.48626187936177</v>
       </c>
       <c r="C39" t="n">
-        <v>5.05081650202797</v>
+        <v>-6.11826609277632</v>
       </c>
       <c r="D39" t="n">
-        <v>3.45542078499596</v>
+        <v>-6.66447654344588</v>
       </c>
       <c r="E39" t="n">
-        <v>3.45592699375671</v>
+        <v>-7.06638780867815</v>
       </c>
       <c r="F39" t="n">
-        <v>5.14095440027499</v>
+        <v>-7.45578362216281</v>
       </c>
       <c r="G39" t="n">
-        <v>6.0949042928905</v>
+        <v>-8.21810362064361</v>
       </c>
       <c r="H39" t="n">
-        <v>7.10357798872934</v>
+        <v>17.731024651807</v>
       </c>
       <c r="I39" t="n">
-        <v>7.65885618020596</v>
+        <v>18.1507863383301</v>
       </c>
       <c r="J39" t="n">
-        <v>6.6820783240402</v>
+        <v>18.3147251793622</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.8580576233782</v>
+        <v>3.73154463238516</v>
       </c>
       <c r="B40" t="n">
-        <v>11.4390521389032</v>
+        <v>2.80802915692763</v>
       </c>
       <c r="C40" t="n">
-        <v>10.3805966572033</v>
+        <v>3.73423919235021</v>
       </c>
       <c r="D40" t="n">
-        <v>14.0312393401022</v>
+        <v>3.67327426152961</v>
       </c>
       <c r="E40" t="n">
-        <v>5.46767226597869</v>
+        <v>4.08143776291593</v>
       </c>
       <c r="F40" t="n">
-        <v>5.50241261762901</v>
+        <v>4.82811606320795</v>
       </c>
       <c r="G40" t="n">
-        <v>5.98911279204726</v>
+        <v>5.94905567987103</v>
       </c>
       <c r="H40" t="n">
-        <v>6.67092727544277</v>
+        <v>6.16839684282092</v>
       </c>
       <c r="I40" t="n">
-        <v>6.69199887327606</v>
+        <v>7.96933174026366</v>
       </c>
       <c r="J40" t="n">
-        <v>6.199083222134</v>
+        <v>6.90079209244179</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-4.88725829086751</v>
+        <v>-4.88922410175338</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.51254572926492</v>
+        <v>-5.35064560160327</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.11539434907856</v>
+        <v>-6.63430238764962</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.5216264743461</v>
+        <v>-6.77400393954938</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.9528008092295</v>
+        <v>-6.85543792713815</v>
       </c>
       <c r="F41" t="n">
-        <v>14.8723631250535</v>
+        <v>-7.47113823400943</v>
       </c>
       <c r="G41" t="n">
-        <v>15.609570496887</v>
+        <v>-8.03415469930382</v>
       </c>
       <c r="H41" t="n">
-        <v>17.1642590035829</v>
+        <v>-8.09645737370919</v>
       </c>
       <c r="I41" t="n">
-        <v>18.0731399004408</v>
+        <v>-8.71536606421105</v>
       </c>
       <c r="J41" t="n">
-        <v>18.4976874281184</v>
+        <v>-9.17218481215206</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.8533572854383</v>
+        <v>11.032993722084</v>
       </c>
       <c r="B42" t="n">
-        <v>11.7372824852703</v>
+        <v>9.800996530318</v>
       </c>
       <c r="C42" t="n">
-        <v>11.8963739655707</v>
+        <v>12.3098608766211</v>
       </c>
       <c r="D42" t="n">
-        <v>13.7730119972371</v>
+        <v>13.2299044469687</v>
       </c>
       <c r="E42" t="n">
-        <v>13.6245134554904</v>
+        <v>15.0141645057683</v>
       </c>
       <c r="F42" t="n">
-        <v>15.7360219010725</v>
+        <v>5.70324103099384</v>
       </c>
       <c r="G42" t="n">
-        <v>16.1698292101345</v>
+        <v>6.16844589843503</v>
       </c>
       <c r="H42" t="n">
-        <v>16.1734965249587</v>
+        <v>5.15626768144184</v>
       </c>
       <c r="I42" t="n">
-        <v>17.8563450710919</v>
+        <v>6.47992647906418</v>
       </c>
       <c r="J42" t="n">
-        <v>18.3785260764284</v>
+        <v>6.03275756574156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.86696613376636</v>
+        <v>2.92807437875155</v>
       </c>
       <c r="B43" t="n">
-        <v>9.56464554531624</v>
+        <v>2.15147709707013</v>
       </c>
       <c r="C43" t="n">
-        <v>11.7699489868574</v>
+        <v>2.62417261233422</v>
       </c>
       <c r="D43" t="n">
-        <v>13.0431784064074</v>
+        <v>4.28946461660622</v>
       </c>
       <c r="E43" t="n">
-        <v>15.7509645937649</v>
+        <v>4.8833389480254</v>
       </c>
       <c r="F43" t="n">
-        <v>14.5620063814701</v>
+        <v>5.99235949466276</v>
       </c>
       <c r="G43" t="n">
-        <v>15.6208793285781</v>
+        <v>5.2029027658343</v>
       </c>
       <c r="H43" t="n">
-        <v>16.0560558055953</v>
+        <v>5.92331037368357</v>
       </c>
       <c r="I43" t="n">
-        <v>17.2038790520107</v>
+        <v>5.89585360569981</v>
       </c>
       <c r="J43" t="n">
-        <v>19.2334774342968</v>
+        <v>6.02629922061484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-4.71092380548174</v>
+        <v>-4.85829588900089</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.56784550492638</v>
+        <v>-5.37977039231919</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.19196033964695</v>
+        <v>-6.22807379359865</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.61764038866473</v>
+        <v>-6.46893010187991</v>
       </c>
       <c r="E44" t="n">
-        <v>13.9593312511207</v>
+        <v>-6.67972426798277</v>
       </c>
       <c r="F44" t="n">
-        <v>14.7635726323463</v>
+        <v>-7.38072273295306</v>
       </c>
       <c r="G44" t="n">
-        <v>16.4942398141082</v>
+        <v>-8.07807795998721</v>
       </c>
       <c r="H44" t="n">
-        <v>17.0431007061539</v>
+        <v>-8.41380255949852</v>
       </c>
       <c r="I44" t="n">
-        <v>17.6994622946033</v>
+        <v>-8.77866583204683</v>
       </c>
       <c r="J44" t="n">
-        <v>18.6774482458773</v>
+        <v>-9.39981811286209</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.59198898279539</v>
+        <v>9.69342970302576</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0563554574347</v>
+        <v>10.6784488428701</v>
       </c>
       <c r="C45" t="n">
-        <v>11.6026287993378</v>
+        <v>11.1562720534204</v>
       </c>
       <c r="D45" t="n">
-        <v>14.6811597139497</v>
+        <v>13.4373709782565</v>
       </c>
       <c r="E45" t="n">
-        <v>15.0048208495575</v>
+        <v>13.7727829708969</v>
       </c>
       <c r="F45" t="n">
-        <v>14.4106030899833</v>
+        <v>15.2487359232849</v>
       </c>
       <c r="G45" t="n">
-        <v>15.5394701883148</v>
+        <v>15.595413951178</v>
       </c>
       <c r="H45" t="n">
-        <v>16.0609695444092</v>
+        <v>17.2299940212807</v>
       </c>
       <c r="I45" t="n">
-        <v>17.8376557364628</v>
+        <v>19.5041029894597</v>
       </c>
       <c r="J45" t="n">
-        <v>-9.23329257187708</v>
+        <v>19.1159618382381</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.16035782840157</v>
+        <v>10.0060096364318</v>
       </c>
       <c r="B46" t="n">
-        <v>11.0749826038305</v>
+        <v>10.969994544476</v>
       </c>
       <c r="C46" t="n">
-        <v>10.8089707426185</v>
+        <v>12.0657862861998</v>
       </c>
       <c r="D46" t="n">
-        <v>13.4895951701238</v>
+        <v>13.962473463753</v>
       </c>
       <c r="E46" t="n">
-        <v>12.6839888022685</v>
+        <v>14.3907270257477</v>
       </c>
       <c r="F46" t="n">
-        <v>14.3627655557224</v>
+        <v>13.7106638482467</v>
       </c>
       <c r="G46" t="n">
-        <v>16.2711548884967</v>
+        <v>14.3588417938507</v>
       </c>
       <c r="H46" t="n">
-        <v>17.1037256368951</v>
+        <v>17.4441999065692</v>
       </c>
       <c r="I46" t="n">
-        <v>19.3638288235487</v>
+        <v>17.381593603324</v>
       </c>
       <c r="J46" t="n">
-        <v>20.037520783495</v>
+        <v>18.439492531114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8.39364003341251</v>
+        <v>10.3517720013927</v>
       </c>
       <c r="B47" t="n">
-        <v>11.2181844231819</v>
+        <v>11.2185851343359</v>
       </c>
       <c r="C47" t="n">
-        <v>12.1647662147821</v>
+        <v>12.3157096070075</v>
       </c>
       <c r="D47" t="n">
-        <v>12.9342788293713</v>
+        <v>12.1014950649101</v>
       </c>
       <c r="E47" t="n">
-        <v>13.9037217182016</v>
+        <v>4.25140809112884</v>
       </c>
       <c r="F47" t="n">
-        <v>14.2640388991877</v>
+        <v>3.88180295579548</v>
       </c>
       <c r="G47" t="n">
-        <v>14.190632112195</v>
+        <v>5.22363714059244</v>
       </c>
       <c r="H47" t="n">
-        <v>6.94373042586166</v>
+        <v>18.8153048441295</v>
       </c>
       <c r="I47" t="n">
-        <v>6.5096353737336</v>
+        <v>18.3162849435542</v>
       </c>
       <c r="J47" t="n">
-        <v>6.61493094582491</v>
+        <v>19.5653987238861</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.6565884187064</v>
+        <v>-5.08104074767828</v>
       </c>
       <c r="B48" t="n">
-        <v>2.03028070230512</v>
+        <v>-5.33849069955016</v>
       </c>
       <c r="C48" t="n">
-        <v>3.50384359368634</v>
+        <v>-6.03232159534181</v>
       </c>
       <c r="D48" t="n">
-        <v>3.53588863682059</v>
+        <v>-6.14447372725882</v>
       </c>
       <c r="E48" t="n">
-        <v>4.35798902771794</v>
+        <v>-6.75855643032587</v>
       </c>
       <c r="F48" t="n">
-        <v>4.23773495302722</v>
+        <v>-7.50451439330919</v>
       </c>
       <c r="G48" t="n">
-        <v>6.32989022285714</v>
+        <v>-8.31766650739477</v>
       </c>
       <c r="H48" t="n">
-        <v>5.77716502223196</v>
+        <v>-8.56036467042209</v>
       </c>
       <c r="I48" t="n">
-        <v>7.16790209921055</v>
+        <v>-8.8827465203637</v>
       </c>
       <c r="J48" t="n">
-        <v>6.89711493793471</v>
+        <v>-9.37808533845373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.0935700777513</v>
+        <v>2.4003088564312</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.78789602300952</v>
+        <v>2.8781034872241</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.44132646149133</v>
+        <v>3.44353709323673</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.46052401900964</v>
+        <v>3.41218542832068</v>
       </c>
       <c r="E49" t="n">
-        <v>-6.91553491284901</v>
+        <v>4.61627821769777</v>
       </c>
       <c r="F49" t="n">
-        <v>-7.55645948784621</v>
+        <v>5.1225134114795</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.96015023976117</v>
+        <v>5.47669390555585</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.56973643759448</v>
+        <v>6.35085675903736</v>
       </c>
       <c r="I49" t="n">
-        <v>-9.02748161308874</v>
+        <v>7.04214560854814</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.68436943062195</v>
+        <v>7.01106440657365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.3014781687892</v>
+        <v>9.95869203025458</v>
       </c>
       <c r="B50" t="n">
-        <v>10.3573817217221</v>
+        <v>11.2822085778062</v>
       </c>
       <c r="C50" t="n">
-        <v>11.3154331229636</v>
+        <v>12.6147639541965</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6691805588366</v>
+        <v>12.6152250843875</v>
       </c>
       <c r="E50" t="n">
-        <v>14.7866575612481</v>
+        <v>13.0688680335193</v>
       </c>
       <c r="F50" t="n">
-        <v>15.520295077932</v>
+        <v>14.4118138091338</v>
       </c>
       <c r="G50" t="n">
-        <v>14.4130277271042</v>
+        <v>14.6378698450676</v>
       </c>
       <c r="H50" t="n">
-        <v>16.8855116800118</v>
+        <v>17.9599347732638</v>
       </c>
       <c r="I50" t="n">
-        <v>18.4847212414284</v>
+        <v>16.7385581243797</v>
       </c>
       <c r="J50" t="n">
-        <v>18.4214526680118</v>
+        <v>19.6283064491225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-4.95238425188415</v>
+        <v>-4.88959200706959</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.5915010118944</v>
+        <v>10.6540092206224</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.24488324806569</v>
+        <v>13.1152168065549</v>
       </c>
       <c r="D51" t="n">
-        <v>4.24519807685815</v>
+        <v>14.3134267751015</v>
       </c>
       <c r="E51" t="n">
-        <v>5.25439372509225</v>
+        <v>13.9197095883683</v>
       </c>
       <c r="F51" t="n">
-        <v>3.94328148637981</v>
+        <v>16.668783716815</v>
       </c>
       <c r="G51" t="n">
-        <v>5.92522860766655</v>
+        <v>15.8009513207241</v>
       </c>
       <c r="H51" t="n">
-        <v>5.27910171734777</v>
+        <v>17.1724814452013</v>
       </c>
       <c r="I51" t="n">
-        <v>6.4667266918404</v>
+        <v>17.4769900083674</v>
       </c>
       <c r="J51" t="n">
-        <v>7.17584006221528</v>
+        <v>18.9865511316027</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-4.6380133880897</v>
+        <v>-5.16735121199265</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.89610515635013</v>
+        <v>-5.20988318616869</v>
       </c>
       <c r="C52" t="n">
-        <v>-5.95035103712716</v>
+        <v>-6.38846965335781</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.09816790490557</v>
+        <v>-6.35895993994786</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.38080654035245</v>
+        <v>-7.07950771919356</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.04803276216458</v>
+        <v>-7.20546419485811</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.71779417019509</v>
+        <v>-8.01663822882337</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.76455026381367</v>
+        <v>-8.80752658667883</v>
       </c>
       <c r="I52" t="n">
-        <v>-8.86799100701545</v>
+        <v>-9.2251517011016</v>
       </c>
       <c r="J52" t="n">
-        <v>-9.61517414008467</v>
+        <v>-9.11266981136965</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-4.67617155073439</v>
+        <v>9.80875059037205</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.79809917154239</v>
+        <v>10.222101139896</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.86376497963753</v>
+        <v>-5.52435760671861</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.56118480946345</v>
+        <v>-6.86479573558232</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.11930741875897</v>
+        <v>-6.82954585413691</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.98363707504729</v>
+        <v>-7.57584274739727</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.60420994998187</v>
+        <v>-7.92537337267346</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.74056197807541</v>
+        <v>-8.69205982881622</v>
       </c>
       <c r="I53" t="n">
-        <v>-9.4143988929289</v>
+        <v>-8.63747248673948</v>
       </c>
       <c r="J53" t="n">
-        <v>-9.61480793636198</v>
+        <v>-9.36705410277868</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.64340857975986</v>
+        <v>-5.19070895812692</v>
       </c>
       <c r="B54" t="n">
-        <v>10.7136905252329</v>
+        <v>-5.6466421942168</v>
       </c>
       <c r="C54" t="n">
-        <v>12.4845403722533</v>
+        <v>-5.87743872389384</v>
       </c>
       <c r="D54" t="n">
-        <v>13.2753361826357</v>
+        <v>-6.39025151084712</v>
       </c>
       <c r="E54" t="n">
-        <v>13.6623087851456</v>
+        <v>-6.75188623141844</v>
       </c>
       <c r="F54" t="n">
-        <v>14.4217653956485</v>
+        <v>-7.28546663764591</v>
       </c>
       <c r="G54" t="n">
-        <v>16.5123692939751</v>
+        <v>-7.79243819093894</v>
       </c>
       <c r="H54" t="n">
-        <v>16.5377659221502</v>
+        <v>-8.36838925380832</v>
       </c>
       <c r="I54" t="n">
-        <v>17.6752450824965</v>
+        <v>-9.03113593095417</v>
       </c>
       <c r="J54" t="n">
-        <v>19.626178298215</v>
+        <v>-9.48807610325103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.79386671316945</v>
+        <v>10.3301692758413</v>
       </c>
       <c r="B55" t="n">
-        <v>2.81601115177912</v>
+        <v>10.9968123323395</v>
       </c>
       <c r="C55" t="n">
-        <v>4.1873299818957</v>
+        <v>12.0282358999301</v>
       </c>
       <c r="D55" t="n">
-        <v>4.37620672002714</v>
+        <v>13.4305582453984</v>
       </c>
       <c r="E55" t="n">
-        <v>3.57494954965294</v>
+        <v>13.7433920992712</v>
       </c>
       <c r="F55" t="n">
-        <v>5.47924322193452</v>
+        <v>15.8813788424682</v>
       </c>
       <c r="G55" t="n">
-        <v>5.83514096043873</v>
+        <v>15.5362699016077</v>
       </c>
       <c r="H55" t="n">
-        <v>5.9128368852332</v>
+        <v>16.3056700858682</v>
       </c>
       <c r="I55" t="n">
-        <v>6.042121939207</v>
+        <v>19.1664466463919</v>
       </c>
       <c r="J55" t="n">
-        <v>7.66131899666751</v>
+        <v>19.8268814454193</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-5.02534579772524</v>
+        <v>10.1318941533368</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.45728979761232</v>
+        <v>11.0136988916056</v>
       </c>
       <c r="C56" t="n">
-        <v>-6.05602179388052</v>
+        <v>12.7050406196345</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.4771609914466</v>
+        <v>12.1703080960887</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.00190822704173</v>
+        <v>4.71627042369836</v>
       </c>
       <c r="F56" t="n">
-        <v>14.5161586555109</v>
+        <v>14.2118192477125</v>
       </c>
       <c r="G56" t="n">
-        <v>17.1893924308438</v>
+        <v>16.4552438800184</v>
       </c>
       <c r="H56" t="n">
-        <v>17.4387179874121</v>
+        <v>17.3592915905712</v>
       </c>
       <c r="I56" t="n">
-        <v>17.2605149479162</v>
+        <v>17.2409665051689</v>
       </c>
       <c r="J56" t="n">
-        <v>20.3008601226652</v>
+        <v>19.8345151623965</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8.3515037056154</v>
+        <v>11.0894261029984</v>
       </c>
       <c r="B57" t="n">
-        <v>11.2816785792632</v>
+        <v>3.09316117446928</v>
       </c>
       <c r="C57" t="n">
-        <v>11.1862777696583</v>
+        <v>3.91209783154856</v>
       </c>
       <c r="D57" t="n">
-        <v>13.1881531012722</v>
+        <v>3.59580100958173</v>
       </c>
       <c r="E57" t="n">
-        <v>13.1718934153795</v>
+        <v>5.63425094777027</v>
       </c>
       <c r="F57" t="n">
-        <v>14.8820481312196</v>
+        <v>5.18386569039378</v>
       </c>
       <c r="G57" t="n">
-        <v>16.1436513260347</v>
+        <v>5.57314358354317</v>
       </c>
       <c r="H57" t="n">
-        <v>17.8455666524125</v>
+        <v>5.93476238790951</v>
       </c>
       <c r="I57" t="n">
-        <v>18.3126816962265</v>
+        <v>6.64942916293315</v>
       </c>
       <c r="J57" t="n">
-        <v>-9.36340632839273</v>
+        <v>6.85849845597174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.7277686319459</v>
+        <v>-4.89560237732136</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6850175498307</v>
+        <v>-5.57382171963966</v>
       </c>
       <c r="C58" t="n">
-        <v>10.8250204607031</v>
+        <v>-6.04190255129736</v>
       </c>
       <c r="D58" t="n">
-        <v>13.3036082502309</v>
+        <v>-6.61832314367545</v>
       </c>
       <c r="E58" t="n">
-        <v>14.1795836279852</v>
+        <v>-6.97822455093976</v>
       </c>
       <c r="F58" t="n">
-        <v>14.7942515645316</v>
+        <v>-7.55468977464399</v>
       </c>
       <c r="G58" t="n">
-        <v>4.51943048819636</v>
+        <v>-7.95887825454279</v>
       </c>
       <c r="H58" t="n">
-        <v>6.06209432523373</v>
+        <v>-8.59345844763203</v>
       </c>
       <c r="I58" t="n">
-        <v>5.82977597007527</v>
+        <v>-8.85490194338398</v>
       </c>
       <c r="J58" t="n">
-        <v>6.52415506452379</v>
+        <v>-9.12706754799469</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-4.874145262468</v>
+        <v>2.51442134849006</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.73566401183868</v>
+        <v>3.09067367734069</v>
       </c>
       <c r="C59" t="n">
-        <v>-6.00629588732789</v>
+        <v>3.05711018728988</v>
       </c>
       <c r="D59" t="n">
-        <v>-6.53065527228035</v>
+        <v>4.72533459447494</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.50777014743217</v>
+        <v>3.74563820748788</v>
       </c>
       <c r="F59" t="n">
-        <v>-7.60664767149822</v>
+        <v>5.997398971563</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.1579683181539</v>
+        <v>16.2399540471852</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.37252256669914</v>
+        <v>17.407991711146</v>
       </c>
       <c r="I59" t="n">
-        <v>-9.07743049773731</v>
+        <v>17.8621954610686</v>
       </c>
       <c r="J59" t="n">
-        <v>-9.26686276559104</v>
+        <v>17.8397462937228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.70865097547973</v>
+        <v>2.82884044567059</v>
       </c>
       <c r="B60" t="n">
-        <v>2.25020853912823</v>
+        <v>3.75106218023399</v>
       </c>
       <c r="C60" t="n">
-        <v>3.39807718186979</v>
+        <v>3.66080080200619</v>
       </c>
       <c r="D60" t="n">
-        <v>4.66473847723511</v>
+        <v>4.21312003033335</v>
       </c>
       <c r="E60" t="n">
-        <v>4.37113784443251</v>
+        <v>4.74427120930341</v>
       </c>
       <c r="F60" t="n">
-        <v>5.63964288719743</v>
+        <v>5.67091003771235</v>
       </c>
       <c r="G60" t="n">
-        <v>4.52824204294641</v>
+        <v>5.14986098568179</v>
       </c>
       <c r="H60" t="n">
-        <v>6.21831563675291</v>
+        <v>6.4077237813017</v>
       </c>
       <c r="I60" t="n">
-        <v>6.81404634344663</v>
+        <v>6.06693542782276</v>
       </c>
       <c r="J60" t="n">
-        <v>7.70310040707201</v>
+        <v>6.82828182918138</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-4.86348197669702</v>
+        <v>8.50254572416508</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.12321948312033</v>
+        <v>3.52882556811896</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.89108687865154</v>
+        <v>3.9399507104262</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.2486412678642</v>
+        <v>4.14825663563527</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.89509524914528</v>
+        <v>3.36643065806765</v>
       </c>
       <c r="F61" t="n">
-        <v>-7.34331594963295</v>
+        <v>4.91146946288125</v>
       </c>
       <c r="G61" t="n">
-        <v>5.99064103040835</v>
+        <v>5.56150288660272</v>
       </c>
       <c r="H61" t="n">
-        <v>5.95085849819512</v>
+        <v>6.79213131753455</v>
       </c>
       <c r="I61" t="n">
-        <v>7.17588214581983</v>
+        <v>7.25428220824949</v>
       </c>
       <c r="J61" t="n">
-        <v>7.46996429617573</v>
+        <v>7.0100405371209</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.6043549707112</v>
+        <v>2.47020726411737</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.43338875820026</v>
+        <v>2.33394314338946</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.16064018816903</v>
+        <v>3.16413108200415</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.43650394959146</v>
+        <v>2.98109595810137</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.82390820503444</v>
+        <v>5.0558852161571</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.76945362277158</v>
+        <v>4.93097276995429</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.91090669191449</v>
+        <v>6.02673586742184</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.35516497254165</v>
+        <v>6.30727228081673</v>
       </c>
       <c r="I62" t="n">
-        <v>-9.00258206499316</v>
+        <v>6.79911560321249</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.53483557948045</v>
+        <v>6.85712359587399</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11.0616126140215</v>
+        <v>10.128607131656</v>
       </c>
       <c r="B63" t="n">
-        <v>11.3790153179186</v>
+        <v>11.1608678181009</v>
       </c>
       <c r="C63" t="n">
-        <v>12.0950451942189</v>
+        <v>12.3025975555522</v>
       </c>
       <c r="D63" t="n">
-        <v>13.630391530838</v>
+        <v>11.9215254443485</v>
       </c>
       <c r="E63" t="n">
-        <v>13.5553891859193</v>
+        <v>4.77988105300293</v>
       </c>
       <c r="F63" t="n">
-        <v>14.4699540807335</v>
+        <v>5.43903949453363</v>
       </c>
       <c r="G63" t="n">
-        <v>5.41527365750769</v>
+        <v>5.97591559776158</v>
       </c>
       <c r="H63" t="n">
-        <v>5.75489167437415</v>
+        <v>5.55467950329518</v>
       </c>
       <c r="I63" t="n">
-        <v>5.92256300129486</v>
+        <v>7.30562222031052</v>
       </c>
       <c r="J63" t="n">
-        <v>6.08923963389322</v>
+        <v>7.61453156077131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.3418876570741</v>
+        <v>10.1772046074727</v>
       </c>
       <c r="B64" t="n">
-        <v>11.0833485318812</v>
+        <v>10.6996857970551</v>
       </c>
       <c r="C64" t="n">
-        <v>12.3045841901262</v>
+        <v>11.3845577254423</v>
       </c>
       <c r="D64" t="n">
-        <v>12.6291860388757</v>
+        <v>13.0075144861355</v>
       </c>
       <c r="E64" t="n">
-        <v>13.8781650818722</v>
+        <v>14.22965975195</v>
       </c>
       <c r="F64" t="n">
-        <v>16.5248479117089</v>
+        <v>15.7952814277059</v>
       </c>
       <c r="G64" t="n">
-        <v>15.9667170616403</v>
+        <v>14.4639370663461</v>
       </c>
       <c r="H64" t="n">
-        <v>18.1926481015971</v>
+        <v>17.949469704373</v>
       </c>
       <c r="I64" t="n">
-        <v>17.9053346505738</v>
+        <v>18.0782627684849</v>
       </c>
       <c r="J64" t="n">
-        <v>18.3571283183631</v>
+        <v>18.8816445298692</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.16939866502248</v>
+        <v>9.39638590167407</v>
       </c>
       <c r="B65" t="n">
-        <v>1.69954758570078</v>
+        <v>1.96043320667588</v>
       </c>
       <c r="C65" t="n">
-        <v>4.16340697678117</v>
+        <v>3.40566120577575</v>
       </c>
       <c r="D65" t="n">
-        <v>3.94042528288493</v>
+        <v>3.43359720489073</v>
       </c>
       <c r="E65" t="n">
-        <v>4.54188718607011</v>
+        <v>4.56656062516287</v>
       </c>
       <c r="F65" t="n">
-        <v>5.06621286436706</v>
+        <v>4.23599244811725</v>
       </c>
       <c r="G65" t="n">
-        <v>4.66043365582139</v>
+        <v>5.62807519016798</v>
       </c>
       <c r="H65" t="n">
-        <v>6.09152968614011</v>
+        <v>6.82914227734382</v>
       </c>
       <c r="I65" t="n">
-        <v>6.74117778662688</v>
+        <v>6.2316272687051</v>
       </c>
       <c r="J65" t="n">
-        <v>7.2252492515016</v>
+        <v>8.50152411147022</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-5.84617167209042</v>
+        <v>-5.14111411648924</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.8154669514388</v>
+        <v>-5.73122411070225</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.11728729791562</v>
+        <v>-5.75388900941198</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.62228910902116</v>
+        <v>-6.42623483360962</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.15323840341843</v>
+        <v>-6.83319360166003</v>
       </c>
       <c r="F66" t="n">
-        <v>-7.33254634215416</v>
+        <v>-7.2668695228256</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.92478156277871</v>
+        <v>-7.92165186389835</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.22202566400877</v>
+        <v>17.868730060339</v>
       </c>
       <c r="I66" t="n">
-        <v>-9.11272190589691</v>
+        <v>18.0338616617649</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.48194539667442</v>
+        <v>18.8127689699153</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-5.07392132590466</v>
+        <v>10.5875114410757</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.23764835173155</v>
+        <v>3.44298939660449</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.91757048614606</v>
+        <v>3.37045978467627</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.01081104308664</v>
+        <v>4.11629263149907</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.69529921269544</v>
+        <v>3.38234716085119</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.24874442051238</v>
+        <v>4.42555846092613</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.67432114276372</v>
+        <v>5.08736334578328</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.51404669021637</v>
+        <v>5.57915888284133</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.13701430489907</v>
+        <v>6.02027928710101</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.09299564327826</v>
+        <v>6.83165065269244</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.4005742404576</v>
+        <v>-5.27770393246265</v>
       </c>
       <c r="B68" t="n">
-        <v>10.9695464292881</v>
+        <v>-5.11152637689866</v>
       </c>
       <c r="C68" t="n">
-        <v>11.8040597242084</v>
+        <v>-5.88051898509021</v>
       </c>
       <c r="D68" t="n">
-        <v>3.70017806915024</v>
+        <v>-6.73528097716852</v>
       </c>
       <c r="E68" t="n">
-        <v>4.21443281270673</v>
+        <v>-6.75800808422142</v>
       </c>
       <c r="F68" t="n">
-        <v>4.37691337327943</v>
+        <v>-7.70863029143765</v>
       </c>
       <c r="G68" t="n">
-        <v>5.39273217786978</v>
+        <v>-8.21634406719688</v>
       </c>
       <c r="H68" t="n">
-        <v>5.85291822280022</v>
+        <v>-8.63726206415366</v>
       </c>
       <c r="I68" t="n">
-        <v>5.90119133174167</v>
+        <v>-9.43965960120287</v>
       </c>
       <c r="J68" t="n">
-        <v>7.24940858127387</v>
+        <v>-9.36546854582569</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-4.98609204685576</v>
+        <v>10.0928491841843</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.59769405903861</v>
+        <v>10.6319733402196</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.97804538886375</v>
+        <v>11.9333441888696</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.21298353143025</v>
+        <v>12.7497693800565</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.93843409929315</v>
+        <v>14.8897505454017</v>
       </c>
       <c r="F69" t="n">
-        <v>-7.34715199580523</v>
+        <v>14.7293281404047</v>
       </c>
       <c r="G69" t="n">
-        <v>6.052938989637</v>
+        <v>14.9797882199382</v>
       </c>
       <c r="H69" t="n">
-        <v>6.05945637804258</v>
+        <v>17.9509013109988</v>
       </c>
       <c r="I69" t="n">
-        <v>5.19685506969833</v>
+        <v>18.7550829938541</v>
       </c>
       <c r="J69" t="n">
-        <v>7.18351205302335</v>
+        <v>19.4775565318203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.8265419680021</v>
+        <v>9.19080848844004</v>
       </c>
       <c r="B70" t="n">
-        <v>10.5023606933192</v>
+        <v>10.3523261189852</v>
       </c>
       <c r="C70" t="n">
-        <v>3.63254501227714</v>
+        <v>11.6253377258624</v>
       </c>
       <c r="D70" t="n">
-        <v>4.55867414987118</v>
+        <v>14.8328353147096</v>
       </c>
       <c r="E70" t="n">
-        <v>4.27694017019874</v>
+        <v>13.4390346575208</v>
       </c>
       <c r="F70" t="n">
-        <v>4.70199354767499</v>
+        <v>15.4366672464419</v>
       </c>
       <c r="G70" t="n">
-        <v>5.74577302921009</v>
+        <v>15.4233671349983</v>
       </c>
       <c r="H70" t="n">
-        <v>5.9945460146425</v>
+        <v>16.778100042808</v>
       </c>
       <c r="I70" t="n">
-        <v>6.73319818237555</v>
+        <v>18.1660935488239</v>
       </c>
       <c r="J70" t="n">
-        <v>7.57397412955398</v>
+        <v>6.32114719374896</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.21960740515427</v>
+        <v>-4.81636253216758</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.00114179857737</v>
+        <v>-5.47620774861281</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.05947691506258</v>
+        <v>-5.74316464251788</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.13833855896221</v>
+        <v>-6.86778765310971</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.07955139056144</v>
+        <v>-6.96205077858291</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.34440303520339</v>
+        <v>-7.58240555187033</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.7032689738249</v>
+        <v>-8.11781103671817</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.01321500561134</v>
+        <v>5.78390324401078</v>
       </c>
       <c r="I71" t="n">
-        <v>-8.67055838384207</v>
+        <v>6.32265330734547</v>
       </c>
       <c r="J71" t="n">
-        <v>-9.72233119962445</v>
+        <v>7.00643790334196</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>11.4435704139213</v>
+        <v>10.0528419075812</v>
       </c>
       <c r="B72" t="n">
-        <v>10.7245926499404</v>
+        <v>10.9699487912406</v>
       </c>
       <c r="C72" t="n">
-        <v>12.3599103650011</v>
+        <v>11.6050920708624</v>
       </c>
       <c r="D72" t="n">
-        <v>12.6470158451155</v>
+        <v>14.3688778334072</v>
       </c>
       <c r="E72" t="n">
-        <v>15.0787987262553</v>
+        <v>12.4429826242739</v>
       </c>
       <c r="F72" t="n">
-        <v>14.3860706475476</v>
+        <v>14.1528547091582</v>
       </c>
       <c r="G72" t="n">
-        <v>5.09685006239986</v>
+        <v>16.638424141513</v>
       </c>
       <c r="H72" t="n">
-        <v>6.7765254274977</v>
+        <v>17.4012026441916</v>
       </c>
       <c r="I72" t="n">
-        <v>6.86675506008445</v>
+        <v>17.4822096606167</v>
       </c>
       <c r="J72" t="n">
-        <v>6.44011934967008</v>
+        <v>18.3065832589078</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11.2017032112892</v>
+        <v>-5.5089774884763</v>
       </c>
       <c r="B73" t="n">
-        <v>10.9985970281658</v>
+        <v>-5.27655868670089</v>
       </c>
       <c r="C73" t="n">
-        <v>12.3269435559589</v>
+        <v>-5.71113821868173</v>
       </c>
       <c r="D73" t="n">
-        <v>12.7782953429836</v>
+        <v>-6.80215373602017</v>
       </c>
       <c r="E73" t="n">
-        <v>13.5355056534826</v>
+        <v>-7.18033830581985</v>
       </c>
       <c r="F73" t="n">
-        <v>15.7849477392024</v>
+        <v>-7.47224829098093</v>
       </c>
       <c r="G73" t="n">
-        <v>16.018810345401</v>
+        <v>-8.19005595768411</v>
       </c>
       <c r="H73" t="n">
-        <v>5.75862125539276</v>
+        <v>-8.66738292410452</v>
       </c>
       <c r="I73" t="n">
-        <v>6.03103152739421</v>
+        <v>-8.69297068648397</v>
       </c>
       <c r="J73" t="n">
-        <v>7.54083825582879</v>
+        <v>-9.69824447042869</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-5.08316145112676</v>
+        <v>9.60048566312949</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.26487025750041</v>
+        <v>10.4556893379442</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.41151128302901</v>
+        <v>12.3457770637394</v>
       </c>
       <c r="D74" t="n">
-        <v>-6.67483072472237</v>
+        <v>14.2363612769339</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.14021971824045</v>
+        <v>13.7073373338052</v>
       </c>
       <c r="F74" t="n">
-        <v>-7.23685203367725</v>
+        <v>13.9103118713241</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.18035136288565</v>
+        <v>15.531629255898</v>
       </c>
       <c r="H74" t="n">
-        <v>-8.46121551277027</v>
+        <v>17.5247124959388</v>
       </c>
       <c r="I74" t="n">
-        <v>-9.56285174251006</v>
+        <v>17.5417956056627</v>
       </c>
       <c r="J74" t="n">
-        <v>-9.81858910159866</v>
+        <v>18.0580237527202</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4.98811558663925</v>
+        <v>10.3577445316922</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.49022062690536</v>
+        <v>10.3544418799118</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.40273633047805</v>
+        <v>3.2620453729841</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.57741654738087</v>
+        <v>4.10791950236095</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.25556161227816</v>
+        <v>4.74716034181632</v>
       </c>
       <c r="F75" t="n">
-        <v>-7.85159764051586</v>
+        <v>5.84183185969177</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.42245586121916</v>
+        <v>4.19431533764614</v>
       </c>
       <c r="H75" t="n">
-        <v>-8.68930331177225</v>
+        <v>6.67439353871045</v>
       </c>
       <c r="I75" t="n">
-        <v>-8.86188372080492</v>
+        <v>7.59574161619033</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.39695962664192</v>
+        <v>6.69796525809978</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.48429894002651</v>
+        <v>-5.08449255416383</v>
       </c>
       <c r="B76" t="n">
-        <v>11.1525710216601</v>
+        <v>-5.59370344681358</v>
       </c>
       <c r="C76" t="n">
-        <v>12.1266802045165</v>
+        <v>-6.01819749297176</v>
       </c>
       <c r="D76" t="n">
-        <v>13.8345825619698</v>
+        <v>-6.97996347161634</v>
       </c>
       <c r="E76" t="n">
-        <v>15.264652432196</v>
+        <v>-6.69375614900091</v>
       </c>
       <c r="F76" t="n">
-        <v>14.841687716131</v>
+        <v>-7.64524165928675</v>
       </c>
       <c r="G76" t="n">
-        <v>16.4350134673151</v>
+        <v>-7.82165119283162</v>
       </c>
       <c r="H76" t="n">
-        <v>17.0246184668663</v>
+        <v>-8.68652145355311</v>
       </c>
       <c r="I76" t="n">
-        <v>18.9269687857026</v>
+        <v>-8.76943925538075</v>
       </c>
       <c r="J76" t="n">
-        <v>19.692910791996</v>
+        <v>-9.11176218840264</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-4.79664809784092</v>
+        <v>2.45582950317238</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.08946979991913</v>
+        <v>2.82878761515131</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.83179495785944</v>
+        <v>3.82464397335363</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.56506803238117</v>
+        <v>3.5556361214661</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.83653279859957</v>
+        <v>4.93990881828591</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.53605720108528</v>
+        <v>4.76781484865727</v>
       </c>
       <c r="G77" t="n">
-        <v>16.382961116961</v>
+        <v>5.57074909962991</v>
       </c>
       <c r="H77" t="n">
-        <v>16.4945976527984</v>
+        <v>5.44316504542865</v>
       </c>
       <c r="I77" t="n">
-        <v>17.6672579529879</v>
+        <v>6.28320792929058</v>
       </c>
       <c r="J77" t="n">
-        <v>18.7932221994449</v>
+        <v>7.91153123650144</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-4.83754782894909</v>
+        <v>2.2528727695024</v>
       </c>
       <c r="B78" t="n">
-        <v>-4.91857626868816</v>
+        <v>3.02551644495633</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.88519961070026</v>
+        <v>3.25731791057427</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.80309301942451</v>
+        <v>4.21412339272581</v>
       </c>
       <c r="E78" t="n">
-        <v>-6.99805176664236</v>
+        <v>4.53611582866075</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.64190064411357</v>
+        <v>5.07979830957713</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.53592579440437</v>
+        <v>5.96212399907216</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.73558869958971</v>
+        <v>5.91330655733629</v>
       </c>
       <c r="I78" t="n">
-        <v>-8.68818845280707</v>
+        <v>6.54930860005589</v>
       </c>
       <c r="J78" t="n">
-        <v>-9.52241272136829</v>
+        <v>6.36273663613265</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.0238843733049</v>
+        <v>-4.90717673362006</v>
       </c>
       <c r="B79" t="n">
-        <v>3.29365152592649</v>
+        <v>-5.35584976361765</v>
       </c>
       <c r="C79" t="n">
-        <v>2.92256249628706</v>
+        <v>-5.70985925881814</v>
       </c>
       <c r="D79" t="n">
-        <v>3.1598033491524</v>
+        <v>-6.68145937521364</v>
       </c>
       <c r="E79" t="n">
-        <v>4.52573182932737</v>
+        <v>-7.21701519507057</v>
       </c>
       <c r="F79" t="n">
-        <v>4.95543007915584</v>
+        <v>-7.7754204940043</v>
       </c>
       <c r="G79" t="n">
-        <v>5.91041871367409</v>
+        <v>-7.25628251198901</v>
       </c>
       <c r="H79" t="n">
-        <v>6.34624811384016</v>
+        <v>-8.68748124952445</v>
       </c>
       <c r="I79" t="n">
-        <v>7.17282093735407</v>
+        <v>-9.10190897867646</v>
       </c>
       <c r="J79" t="n">
-        <v>7.65442214687712</v>
+        <v>-9.38966332633862</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.2090044272657</v>
+        <v>2.58076458353274</v>
       </c>
       <c r="B80" t="n">
-        <v>11.0604610884085</v>
+        <v>2.83793538005469</v>
       </c>
       <c r="C80" t="n">
-        <v>12.36679784996</v>
+        <v>3.83763494896086</v>
       </c>
       <c r="D80" t="n">
-        <v>13.6513295028255</v>
+        <v>4.27015906608448</v>
       </c>
       <c r="E80" t="n">
-        <v>13.6394136156193</v>
+        <v>5.06390932571323</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.04789208346486</v>
+        <v>4.97945757982357</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.27749972308542</v>
+        <v>5.49560803449764</v>
       </c>
       <c r="H80" t="n">
-        <v>-8.40634025005195</v>
+        <v>6.06557587835841</v>
       </c>
       <c r="I80" t="n">
-        <v>6.50110816984213</v>
+        <v>17.86898804835</v>
       </c>
       <c r="J80" t="n">
-        <v>6.5621185907296</v>
+        <v>19.5940159652652</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10.3245988741847</v>
+        <v>9.86211648384371</v>
       </c>
       <c r="B81" t="n">
-        <v>11.6456212409437</v>
+        <v>11.3274072836149</v>
       </c>
       <c r="C81" t="n">
-        <v>12.5241282132322</v>
+        <v>12.5861109827167</v>
       </c>
       <c r="D81" t="n">
-        <v>14.1053693077334</v>
+        <v>12.2621478569808</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.16256869905355</v>
+        <v>14.5363256896165</v>
       </c>
       <c r="F81" t="n">
-        <v>-8.10751101965533</v>
+        <v>14.8280808910422</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.29143699226691</v>
+        <v>15.5092513843392</v>
       </c>
       <c r="H81" t="n">
-        <v>-8.50694178751366</v>
+        <v>18.2891455491589</v>
       </c>
       <c r="I81" t="n">
-        <v>-9.57356364181226</v>
+        <v>17.6617737512767</v>
       </c>
       <c r="J81" t="n">
-        <v>-9.91857724910942</v>
+        <v>19.5124960634015</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-5.08865556088975</v>
+        <v>-4.2756980442679</v>
       </c>
       <c r="B82" t="n">
-        <v>-5.76868913448747</v>
+        <v>-5.40813087421278</v>
       </c>
       <c r="C82" t="n">
-        <v>-6.02865184501263</v>
+        <v>-5.5035887594753</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.66219656270234</v>
+        <v>-6.37913885616203</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.85862570172843</v>
+        <v>-6.99117910042211</v>
       </c>
       <c r="F82" t="n">
-        <v>-7.46928909786582</v>
+        <v>-7.35961804979578</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.78959698077073</v>
+        <v>-7.78843021930007</v>
       </c>
       <c r="H82" t="n">
-        <v>-8.39976845490221</v>
+        <v>-8.82899194422991</v>
       </c>
       <c r="I82" t="n">
-        <v>-8.65371434625531</v>
+        <v>-9.32814828546389</v>
       </c>
       <c r="J82" t="n">
-        <v>-9.65773285595774</v>
+        <v>-9.8935162138706</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.00009812984339</v>
+        <v>9.14755219521154</v>
       </c>
       <c r="B83" t="n">
-        <v>10.7114299318991</v>
+        <v>12.6535902989432</v>
       </c>
       <c r="C83" t="n">
-        <v>11.6274199563218</v>
+        <v>12.0737478407372</v>
       </c>
       <c r="D83" t="n">
-        <v>14.3631747986975</v>
+        <v>12.5821719980552</v>
       </c>
       <c r="E83" t="n">
-        <v>-6.61538574805268</v>
+        <v>12.9858924954964</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.44772821579215</v>
+        <v>15.2395223977157</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.63938217954902</v>
+        <v>16.014500009214</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.6985545177531</v>
+        <v>17.0276905465329</v>
       </c>
       <c r="I83" t="n">
-        <v>-8.91828232182445</v>
+        <v>18.6088837850736</v>
       </c>
       <c r="J83" t="n">
-        <v>-9.6994226522458</v>
+        <v>17.879131649897</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.98766295182212</v>
+        <v>9.42819806980982</v>
       </c>
       <c r="B84" t="n">
-        <v>3.99679951051711</v>
+        <v>9.251313232584</v>
       </c>
       <c r="C84" t="n">
-        <v>3.36668000776505</v>
+        <v>11.1954167234846</v>
       </c>
       <c r="D84" t="n">
-        <v>3.2306355880711</v>
+        <v>12.3622443877179</v>
       </c>
       <c r="E84" t="n">
-        <v>4.67215080157374</v>
+        <v>13.92268477263</v>
       </c>
       <c r="F84" t="n">
-        <v>4.38524032723283</v>
+        <v>14.8391474876128</v>
       </c>
       <c r="G84" t="n">
-        <v>5.93790394975195</v>
+        <v>15.2270306348995</v>
       </c>
       <c r="H84" t="n">
-        <v>6.57999533101096</v>
+        <v>18.7258392788979</v>
       </c>
       <c r="I84" t="n">
-        <v>7.12068032617406</v>
+        <v>17.3038096914059</v>
       </c>
       <c r="J84" t="n">
-        <v>6.71048427741821</v>
+        <v>20.284219610377</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.0306971339882</v>
+        <v>2.74382167355858</v>
       </c>
       <c r="B85" t="n">
-        <v>9.66698394554506</v>
+        <v>3.25633992807866</v>
       </c>
       <c r="C85" t="n">
-        <v>12.2492418218219</v>
+        <v>3.4901695283172</v>
       </c>
       <c r="D85" t="n">
-        <v>14.4534089084114</v>
+        <v>3.24815186155363</v>
       </c>
       <c r="E85" t="n">
-        <v>14.0927520402959</v>
+        <v>5.02781464040148</v>
       </c>
       <c r="F85" t="n">
-        <v>15.9470909103867</v>
+        <v>5.07192384368343</v>
       </c>
       <c r="G85" t="n">
-        <v>15.344813415369</v>
+        <v>5.69715347493381</v>
       </c>
       <c r="H85" t="n">
-        <v>16.4169314900916</v>
+        <v>5.92547950902927</v>
       </c>
       <c r="I85" t="n">
-        <v>7.28385918763586</v>
+        <v>5.48080701882742</v>
       </c>
       <c r="J85" t="n">
-        <v>6.98611391342442</v>
+        <v>6.91806151232669</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.22064921280529</v>
+        <v>-5.43718240530982</v>
       </c>
       <c r="B86" t="n">
-        <v>3.4641655119262</v>
+        <v>-5.64386964501411</v>
       </c>
       <c r="C86" t="n">
-        <v>3.23578757385143</v>
+        <v>-5.97774889452503</v>
       </c>
       <c r="D86" t="n">
-        <v>3.78498089938729</v>
+        <v>-6.77742732758543</v>
       </c>
       <c r="E86" t="n">
-        <v>4.43536370234235</v>
+        <v>-7.20107096126751</v>
       </c>
       <c r="F86" t="n">
-        <v>4.28126926779553</v>
+        <v>5.60730588585376</v>
       </c>
       <c r="G86" t="n">
-        <v>5.43717164321069</v>
+        <v>4.92968222313964</v>
       </c>
       <c r="H86" t="n">
-        <v>5.62325163472162</v>
+        <v>6.43390751056262</v>
       </c>
       <c r="I86" t="n">
-        <v>7.29086311639016</v>
+        <v>6.29935266050905</v>
       </c>
       <c r="J86" t="n">
-        <v>6.79358191631468</v>
+        <v>7.44943290250992</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-4.8629315539838</v>
+        <v>-5.30680790400117</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.22249433549429</v>
+        <v>-5.45038100664587</v>
       </c>
       <c r="C87" t="n">
-        <v>-5.73678582840801</v>
+        <v>-6.61841968357445</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.34710877654611</v>
+        <v>-6.75289600790755</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.91607617442663</v>
+        <v>-6.81512238634793</v>
       </c>
       <c r="F87" t="n">
-        <v>-7.74620437917111</v>
+        <v>-7.58438587828258</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.32536228492683</v>
+        <v>-7.98654570542539</v>
       </c>
       <c r="H87" t="n">
-        <v>-8.42128963617659</v>
+        <v>-8.98847432747523</v>
       </c>
       <c r="I87" t="n">
-        <v>-8.94887392510245</v>
+        <v>-8.76065062324868</v>
       </c>
       <c r="J87" t="n">
-        <v>-9.34431432588771</v>
+        <v>-9.40513281328136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-5.14876211904597</v>
+        <v>9.82016227137543</v>
       </c>
       <c r="B88" t="n">
-        <v>-5.02880847876406</v>
+        <v>11.7813852917002</v>
       </c>
       <c r="C88" t="n">
-        <v>-5.71592262553907</v>
+        <v>10.781672701517</v>
       </c>
       <c r="D88" t="n">
-        <v>-6.76080321726705</v>
+        <v>12.5661025344547</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.49114107349569</v>
+        <v>14.390021981908</v>
       </c>
       <c r="F88" t="n">
-        <v>-7.8664615315849</v>
+        <v>14.4259066616534</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.06560925968222</v>
+        <v>18.0248734031509</v>
       </c>
       <c r="H88" t="n">
-        <v>-8.37974498910522</v>
+        <v>17.1827117846622</v>
       </c>
       <c r="I88" t="n">
-        <v>-9.33633022811052</v>
+        <v>18.2071963508845</v>
       </c>
       <c r="J88" t="n">
-        <v>-9.67114888864819</v>
+        <v>19.0801099383528</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11.349157110059</v>
+        <v>8.85901065410996</v>
       </c>
       <c r="B89" t="n">
-        <v>11.7171145504259</v>
+        <v>11.8504134473251</v>
       </c>
       <c r="C89" t="n">
-        <v>11.0550451032439</v>
+        <v>11.3341686551331</v>
       </c>
       <c r="D89" t="n">
-        <v>12.7069782135846</v>
+        <v>13.6690505705151</v>
       </c>
       <c r="E89" t="n">
-        <v>13.430517127228</v>
+        <v>14.146343043927</v>
       </c>
       <c r="F89" t="n">
-        <v>15.1938328144969</v>
+        <v>16.2334597605079</v>
       </c>
       <c r="G89" t="n">
-        <v>16.5817090465717</v>
+        <v>15.89276025357</v>
       </c>
       <c r="H89" t="n">
-        <v>5.59084029632732</v>
+        <v>17.1268625704426</v>
       </c>
       <c r="I89" t="n">
-        <v>7.0679978057147</v>
+        <v>17.1063726379908</v>
       </c>
       <c r="J89" t="n">
-        <v>7.2982671402371</v>
+        <v>18.8827253448937</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>10.6189395737409</v>
+        <v>-5.13297750318912</v>
       </c>
       <c r="B90" t="n">
-        <v>3.22341097300722</v>
+        <v>-5.57703392644938</v>
       </c>
       <c r="C90" t="n">
-        <v>3.15388901695377</v>
+        <v>-6.1035443073203</v>
       </c>
       <c r="D90" t="n">
-        <v>3.88446749862989</v>
+        <v>-6.26226628116426</v>
       </c>
       <c r="E90" t="n">
-        <v>4.34724618582513</v>
+        <v>-7.0071658640344</v>
       </c>
       <c r="F90" t="n">
-        <v>5.91523839140144</v>
+        <v>-7.80711071726574</v>
       </c>
       <c r="G90" t="n">
-        <v>5.84613435128419</v>
+        <v>-8.21622956442347</v>
       </c>
       <c r="H90" t="n">
-        <v>6.3792550467423</v>
+        <v>-8.38724405839965</v>
       </c>
       <c r="I90" t="n">
-        <v>6.67294257472041</v>
+        <v>-8.89390547915366</v>
       </c>
       <c r="J90" t="n">
-        <v>18.8504212217152</v>
+        <v>-9.67554164940571</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9.93241799115198</v>
+        <v>-5.06580254191609</v>
       </c>
       <c r="B91" t="n">
-        <v>11.4665306615282</v>
+        <v>-5.29600852474221</v>
       </c>
       <c r="C91" t="n">
-        <v>11.8674930176559</v>
+        <v>-5.64128043671631</v>
       </c>
       <c r="D91" t="n">
-        <v>11.6617256886149</v>
+        <v>-6.13200231562239</v>
       </c>
       <c r="E91" t="n">
-        <v>14.9840983166093</v>
+        <v>-6.97697241601154</v>
       </c>
       <c r="F91" t="n">
-        <v>14.9411180616479</v>
+        <v>-7.31026738104032</v>
       </c>
       <c r="G91" t="n">
-        <v>16.2050473110745</v>
+        <v>-8.21227120664653</v>
       </c>
       <c r="H91" t="n">
-        <v>18.5633013793583</v>
+        <v>-8.46826074649576</v>
       </c>
       <c r="I91" t="n">
-        <v>17.6701165388835</v>
+        <v>-9.16915965904308</v>
       </c>
       <c r="J91" t="n">
-        <v>18.5110051546164</v>
+        <v>-9.47100789671671</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10.0523423856262</v>
+        <v>10.2813369622705</v>
       </c>
       <c r="B92" t="n">
-        <v>10.7078172527474</v>
+        <v>10.7538671294185</v>
       </c>
       <c r="C92" t="n">
-        <v>11.1798466379586</v>
+        <v>11.3280694388116</v>
       </c>
       <c r="D92" t="n">
-        <v>12.4412087684931</v>
+        <v>12.8906007331136</v>
       </c>
       <c r="E92" t="n">
-        <v>16.0103616607534</v>
+        <v>14.858932522282</v>
       </c>
       <c r="F92" t="n">
-        <v>15.8931092749501</v>
+        <v>14.9674813474194</v>
       </c>
       <c r="G92" t="n">
-        <v>15.6177922007639</v>
+        <v>15.8691317308318</v>
       </c>
       <c r="H92" t="n">
-        <v>17.4688845864298</v>
+        <v>16.5857876005849</v>
       </c>
       <c r="I92" t="n">
-        <v>19.1887743114286</v>
+        <v>17.6308803649837</v>
       </c>
       <c r="J92" t="n">
-        <v>17.7701986723424</v>
+        <v>17.6604401635384</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-4.73650477245133</v>
+        <v>10.7669744324832</v>
       </c>
       <c r="B93" t="n">
-        <v>-5.79909204841891</v>
+        <v>-5.59165635257088</v>
       </c>
       <c r="C93" t="n">
-        <v>-6.23405686728111</v>
+        <v>-5.95121395387454</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.46535245154797</v>
+        <v>-6.07764261332314</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.38107043907971</v>
+        <v>-7.03657006584019</v>
       </c>
       <c r="F93" t="n">
-        <v>-7.57388698504832</v>
+        <v>-7.72753922766629</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.80193212913904</v>
+        <v>-8.1799868403862</v>
       </c>
       <c r="H93" t="n">
-        <v>-7.86931220074589</v>
+        <v>-8.15685839224354</v>
       </c>
       <c r="I93" t="n">
-        <v>-9.01614495533938</v>
+        <v>-8.9880879688379</v>
       </c>
       <c r="J93" t="n">
-        <v>-9.97271469790569</v>
+        <v>-9.89097063613352</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.1522540160233</v>
+        <v>2.91176167969927</v>
       </c>
       <c r="B94" t="n">
-        <v>10.3078944366181</v>
+        <v>3.11103286148028</v>
       </c>
       <c r="C94" t="n">
-        <v>12.6856486696901</v>
+        <v>4.64142424236951</v>
       </c>
       <c r="D94" t="n">
-        <v>12.8099904287545</v>
+        <v>4.20193305515923</v>
       </c>
       <c r="E94" t="n">
-        <v>15.5336806161991</v>
+        <v>4.40456229637537</v>
       </c>
       <c r="F94" t="n">
-        <v>15.3548348326324</v>
+        <v>4.7457291138199</v>
       </c>
       <c r="G94" t="n">
-        <v>15.4573749136486</v>
+        <v>5.7153058557691</v>
       </c>
       <c r="H94" t="n">
-        <v>16.8835162983654</v>
+        <v>6.2890788020528</v>
       </c>
       <c r="I94" t="n">
-        <v>18.1620350490588</v>
+        <v>7.18376228682631</v>
       </c>
       <c r="J94" t="n">
-        <v>18.9809487423012</v>
+        <v>6.89898875856087</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.26327480110266</v>
+        <v>2.46440536814764</v>
       </c>
       <c r="B95" t="n">
-        <v>2.49087965503749</v>
+        <v>2.80182397154937</v>
       </c>
       <c r="C95" t="n">
-        <v>3.29576513943953</v>
+        <v>3.49117033049675</v>
       </c>
       <c r="D95" t="n">
-        <v>3.82746456899322</v>
+        <v>3.76237817657825</v>
       </c>
       <c r="E95" t="n">
-        <v>4.92755545984167</v>
+        <v>4.64486720111643</v>
       </c>
       <c r="F95" t="n">
-        <v>4.6322548245512</v>
+        <v>4.69944778939686</v>
       </c>
       <c r="G95" t="n">
-        <v>6.16893819293376</v>
+        <v>5.54099667995469</v>
       </c>
       <c r="H95" t="n">
-        <v>5.7117044447498</v>
+        <v>6.26001375871541</v>
       </c>
       <c r="I95" t="n">
-        <v>6.67026350620632</v>
+        <v>6.51750150639905</v>
       </c>
       <c r="J95" t="n">
-        <v>7.11711733412343</v>
+        <v>6.89692263049746</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.42192122283121</v>
+        <v>-5.10454013065296</v>
       </c>
       <c r="B96" t="n">
-        <v>11.5087607238953</v>
+        <v>-5.34306106475174</v>
       </c>
       <c r="C96" t="n">
-        <v>3.46740657818116</v>
+        <v>-6.00099166748712</v>
       </c>
       <c r="D96" t="n">
-        <v>4.23840523161505</v>
+        <v>-6.3546394298112</v>
       </c>
       <c r="E96" t="n">
-        <v>3.95933585177714</v>
+        <v>-7.07944845872413</v>
       </c>
       <c r="F96" t="n">
-        <v>6.34246233332429</v>
+        <v>-7.6655507164817</v>
       </c>
       <c r="G96" t="n">
-        <v>6.10896955665957</v>
+        <v>-8.0657071615894</v>
       </c>
       <c r="H96" t="n">
-        <v>6.58482017942538</v>
+        <v>-8.55532627697759</v>
       </c>
       <c r="I96" t="n">
-        <v>6.88971088124214</v>
+        <v>-8.77224050981005</v>
       </c>
       <c r="J96" t="n">
-        <v>7.53940677052146</v>
+        <v>-9.84649025010393</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10.7385193673927</v>
+        <v>-4.82625548986147</v>
       </c>
       <c r="B97" t="n">
-        <v>10.7923625589559</v>
+        <v>-5.65743096539818</v>
       </c>
       <c r="C97" t="n">
-        <v>12.8831478122467</v>
+        <v>-5.67720981390586</v>
       </c>
       <c r="D97" t="n">
-        <v>11.2844809107318</v>
+        <v>-6.28575502571941</v>
       </c>
       <c r="E97" t="n">
-        <v>15.8122747081002</v>
+        <v>-7.29206660515571</v>
       </c>
       <c r="F97" t="n">
-        <v>15.9823085357523</v>
+        <v>-7.53591162659661</v>
       </c>
       <c r="G97" t="n">
-        <v>4.55670822879984</v>
+        <v>-8.02882119181184</v>
       </c>
       <c r="H97" t="n">
-        <v>7.0944767680093</v>
+        <v>-8.36797491632797</v>
       </c>
       <c r="I97" t="n">
-        <v>6.11607348554356</v>
+        <v>-9.08246181307847</v>
       </c>
       <c r="J97" t="n">
-        <v>7.77695575678545</v>
+        <v>-9.26739730462995</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-4.97552976691151</v>
+        <v>9.73239524663047</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.78763300215807</v>
+        <v>9.92574711844051</v>
       </c>
       <c r="C98" t="n">
-        <v>3.65773782840176</v>
+        <v>12.0718401162094</v>
       </c>
       <c r="D98" t="n">
-        <v>4.20815714952606</v>
+        <v>12.5309067097981</v>
       </c>
       <c r="E98" t="n">
-        <v>4.63014834815446</v>
+        <v>14.9019670937627</v>
       </c>
       <c r="F98" t="n">
-        <v>4.73861120600221</v>
+        <v>15.2653621740623</v>
       </c>
       <c r="G98" t="n">
-        <v>4.79570888471127</v>
+        <v>15.7534698161528</v>
       </c>
       <c r="H98" t="n">
-        <v>5.52703793177988</v>
+        <v>17.6738013139791</v>
       </c>
       <c r="I98" t="n">
-        <v>7.50007418782802</v>
+        <v>17.6017824192738</v>
       </c>
       <c r="J98" t="n">
-        <v>7.50928625349954</v>
+        <v>-9.76457675408799</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.52607761207918</v>
+        <v>10.9640461763437</v>
       </c>
       <c r="B99" t="n">
-        <v>12.0953400299952</v>
+        <v>11.4553704603589</v>
       </c>
       <c r="C99" t="n">
-        <v>11.379789227517</v>
+        <v>11.330580485425</v>
       </c>
       <c r="D99" t="n">
-        <v>13.4146517591949</v>
+        <v>12.49914354453</v>
       </c>
       <c r="E99" t="n">
-        <v>13.7180169177653</v>
+        <v>12.4903306962813</v>
       </c>
       <c r="F99" t="n">
-        <v>13.2955072109818</v>
+        <v>15.779037835894</v>
       </c>
       <c r="G99" t="n">
-        <v>15.6819962395488</v>
+        <v>15.1816443673296</v>
       </c>
       <c r="H99" t="n">
-        <v>16.4888018915447</v>
+        <v>16.1454768972562</v>
       </c>
       <c r="I99" t="n">
-        <v>16.8243256742522</v>
+        <v>17.3554488235349</v>
       </c>
       <c r="J99" t="n">
-        <v>18.734520145469</v>
+        <v>18.7010678633803</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-4.92677518139286</v>
+        <v>11.4072847325641</v>
       </c>
       <c r="B100" t="n">
-        <v>-5.73059487890014</v>
+        <v>11.7372020517171</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.89642607613937</v>
+        <v>12.0780748714159</v>
       </c>
       <c r="D100" t="n">
-        <v>-6.25770782256747</v>
+        <v>14.1531862361646</v>
       </c>
       <c r="E100" t="n">
-        <v>-6.73667665970201</v>
+        <v>13.0379431443148</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.72557572550178</v>
+        <v>15.4499528283846</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.80649073073903</v>
+        <v>15.6507761522838</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.58736788518367</v>
+        <v>15.686012184844</v>
       </c>
       <c r="I100" t="n">
-        <v>-9.20127743473071</v>
+        <v>18.1892213168679</v>
       </c>
       <c r="J100" t="n">
-        <v>-9.47231851213703</v>
+        <v>18.7824576539792</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.7674494131635</v>
+        <v>8.07380027699683</v>
       </c>
       <c r="B101" t="n">
-        <v>3.00874739859254</v>
+        <v>10.6002530509421</v>
       </c>
       <c r="C101" t="n">
-        <v>2.62606021915604</v>
+        <v>13.1299632818239</v>
       </c>
       <c r="D101" t="n">
-        <v>3.78907431239723</v>
+        <v>12.2066728053583</v>
       </c>
       <c r="E101" t="n">
-        <v>4.64077954517351</v>
+        <v>12.8700155821624</v>
       </c>
       <c r="F101" t="n">
-        <v>4.66149988190289</v>
+        <v>15.8271809313218</v>
       </c>
       <c r="G101" t="n">
-        <v>5.62757144577877</v>
+        <v>16.5555000266032</v>
       </c>
       <c r="H101" t="n">
-        <v>5.62055564863159</v>
+        <v>17.710436735336</v>
       </c>
       <c r="I101" t="n">
-        <v>6.42735834386261</v>
+        <v>18.3773532402102</v>
       </c>
       <c r="J101" t="n">
-        <v>6.01999806004448</v>
+        <v>17.0095593818177</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.76050706583299</v>
+        <v>9.34443015783458</v>
       </c>
       <c r="B102" t="n">
-        <v>1.97434953677412</v>
+        <v>10.7103521112193</v>
       </c>
       <c r="C102" t="n">
-        <v>2.67963895679222</v>
+        <v>2.97084881001797</v>
       </c>
       <c r="D102" t="n">
-        <v>4.24263940571987</v>
+        <v>4.47815561381877</v>
       </c>
       <c r="E102" t="n">
-        <v>14.9285479204645</v>
+        <v>4.79017424740407</v>
       </c>
       <c r="F102" t="n">
-        <v>16.2362584966772</v>
+        <v>5.37975044016882</v>
       </c>
       <c r="G102" t="n">
-        <v>16.5509498532862</v>
+        <v>15.6026153359557</v>
       </c>
       <c r="H102" t="n">
-        <v>5.36809039841059</v>
+        <v>17.2847535111769</v>
       </c>
       <c r="I102" t="n">
-        <v>6.29393366207589</v>
+        <v>19.1408079469216</v>
       </c>
       <c r="J102" t="n">
-        <v>8.34813409215007</v>
+        <v>18.4899475462247</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.83683422106491</v>
+        <v>11.6142332997164</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.16330302030634</v>
+        <v>10.5355705794581</v>
       </c>
       <c r="C103" t="n">
-        <v>-6.11588312386675</v>
+        <v>12.205102029728</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.63587643078245</v>
+        <v>10.8394009066772</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.06232707694466</v>
+        <v>14.0359274635984</v>
       </c>
       <c r="F103" t="n">
-        <v>4.62595718016788</v>
+        <v>14.6785579694259</v>
       </c>
       <c r="G103" t="n">
-        <v>5.37134162338114</v>
+        <v>16.4817812777623</v>
       </c>
       <c r="H103" t="n">
-        <v>6.08260713752861</v>
+        <v>15.691589099252</v>
       </c>
       <c r="I103" t="n">
-        <v>6.48529332745978</v>
+        <v>-8.67784811500736</v>
       </c>
       <c r="J103" t="n">
-        <v>6.44219272850536</v>
+        <v>-9.49953238313715</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.73723353744225</v>
+        <v>9.71894689923556</v>
       </c>
       <c r="B104" t="n">
-        <v>10.6287834462356</v>
+        <v>-5.46749496642156</v>
       </c>
       <c r="C104" t="n">
-        <v>12.7449319269996</v>
+        <v>-6.25947700013899</v>
       </c>
       <c r="D104" t="n">
-        <v>12.6708731697817</v>
+        <v>-6.31987393728814</v>
       </c>
       <c r="E104" t="n">
-        <v>13.5390905812197</v>
+        <v>-7.18200719079995</v>
       </c>
       <c r="F104" t="n">
-        <v>14.8151071074701</v>
+        <v>-7.13287049298587</v>
       </c>
       <c r="G104" t="n">
-        <v>17.7186629194362</v>
+        <v>-7.92466392162205</v>
       </c>
       <c r="H104" t="n">
-        <v>17.4135540833014</v>
+        <v>-8.65964535626271</v>
       </c>
       <c r="I104" t="n">
-        <v>18.0294230580338</v>
+        <v>-9.13944756626186</v>
       </c>
       <c r="J104" t="n">
-        <v>19.0537068987085</v>
+        <v>-9.2310718980233</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.57994769617718</v>
+        <v>-4.6367789814221</v>
       </c>
       <c r="B105" t="n">
-        <v>10.4856451191732</v>
+        <v>9.49757610072029</v>
       </c>
       <c r="C105" t="n">
-        <v>11.9755022646216</v>
+        <v>12.0834308715151</v>
       </c>
       <c r="D105" t="n">
-        <v>11.7871623909275</v>
+        <v>12.0557719086601</v>
       </c>
       <c r="E105" t="n">
-        <v>4.91210020701609</v>
+        <v>13.4381966836859</v>
       </c>
       <c r="F105" t="n">
-        <v>5.48889297826486</v>
+        <v>15.9674602702067</v>
       </c>
       <c r="G105" t="n">
-        <v>5.97052920118613</v>
+        <v>14.9961691907371</v>
       </c>
       <c r="H105" t="n">
-        <v>6.30358343451676</v>
+        <v>17.8272971528834</v>
       </c>
       <c r="I105" t="n">
-        <v>5.97702618060559</v>
+        <v>18.1751415236064</v>
       </c>
       <c r="J105" t="n">
-        <v>6.93484439820621</v>
+        <v>18.6496583934103</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-5.06876237776698</v>
+        <v>9.80032223541723</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.49902057537808</v>
+        <v>10.4702695627021</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.76351255433168</v>
+        <v>11.628360549309</v>
       </c>
       <c r="D106" t="n">
-        <v>12.863748996422</v>
+        <v>13.3924651696944</v>
       </c>
       <c r="E106" t="n">
-        <v>12.7926169237681</v>
+        <v>3.33312031776696</v>
       </c>
       <c r="F106" t="n">
-        <v>15.5618107773891</v>
+        <v>4.39177319653507</v>
       </c>
       <c r="G106" t="n">
-        <v>16.2706820435482</v>
+        <v>16.8995537241955</v>
       </c>
       <c r="H106" t="n">
-        <v>17.5011691572823</v>
+        <v>18.3435024023248</v>
       </c>
       <c r="I106" t="n">
-        <v>18.0447462726829</v>
+        <v>17.4878306828633</v>
       </c>
       <c r="J106" t="n">
-        <v>18.7911711789189</v>
+        <v>19.2515520006159</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.01521423646594</v>
+        <v>-5.08481634808627</v>
       </c>
       <c r="B107" t="n">
-        <v>2.61634775369979</v>
+        <v>-5.38098563405117</v>
       </c>
       <c r="C107" t="n">
-        <v>2.75487128659461</v>
+        <v>-6.1157973447522</v>
       </c>
       <c r="D107" t="n">
-        <v>4.02189016581054</v>
+        <v>-6.39446824083084</v>
       </c>
       <c r="E107" t="n">
-        <v>4.54415312327059</v>
+        <v>-6.77385053038837</v>
       </c>
       <c r="F107" t="n">
-        <v>4.53091922238547</v>
+        <v>15.8736107880866</v>
       </c>
       <c r="G107" t="n">
-        <v>6.33248733182252</v>
+        <v>15.1410281076409</v>
       </c>
       <c r="H107" t="n">
-        <v>5.12488536961554</v>
+        <v>16.9853450471344</v>
       </c>
       <c r="I107" t="n">
-        <v>7.12610671842437</v>
+        <v>18.0234295961334</v>
       </c>
       <c r="J107" t="n">
-        <v>7.29481945820423</v>
+        <v>7.00575446704489</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.68728990118719</v>
+        <v>10.9135931001247</v>
       </c>
       <c r="B108" t="n">
-        <v>2.73132185804859</v>
+        <v>2.85380721993076</v>
       </c>
       <c r="C108" t="n">
-        <v>3.4972609134633</v>
+        <v>3.17560221799313</v>
       </c>
       <c r="D108" t="n">
-        <v>11.8074861472075</v>
+        <v>3.18355131780495</v>
       </c>
       <c r="E108" t="n">
-        <v>13.8909142355814</v>
+        <v>4.04531195206277</v>
       </c>
       <c r="F108" t="n">
-        <v>15.3116543804085</v>
+        <v>5.11391275029641</v>
       </c>
       <c r="G108" t="n">
-        <v>15.8542220025981</v>
+        <v>4.68628504929872</v>
       </c>
       <c r="H108" t="n">
-        <v>17.0572820047319</v>
+        <v>6.14959191010441</v>
       </c>
       <c r="I108" t="n">
-        <v>17.8127013804657</v>
+        <v>5.89016570408497</v>
       </c>
       <c r="J108" t="n">
-        <v>19.9029562642065</v>
+        <v>8.03505500970391</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-5.09334972414751</v>
+        <v>-4.81553674027927</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.55639029421068</v>
+        <v>-5.41616099367121</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.47395743775126</v>
+        <v>-5.79634334625326</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.27654905502307</v>
+        <v>-6.28287422377147</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.24043467688494</v>
+        <v>-7.18061946674246</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.76457356258433</v>
+        <v>-7.60898924443062</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.75358985827973</v>
+        <v>-8.76880304293203</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.30442690836242</v>
+        <v>-8.46751616124906</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.78198889934562</v>
+        <v>-8.92312388153291</v>
       </c>
       <c r="J109" t="n">
-        <v>-9.32859740416752</v>
+        <v>-9.54546041503139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-5.00144171635921</v>
+        <v>11.3762461085099</v>
       </c>
       <c r="B110" t="n">
-        <v>11.5596253790845</v>
+        <v>11.02094848412</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.64478169884829</v>
+        <v>12.5022116757136</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.63845214854767</v>
+        <v>-6.38856087258858</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.40259306241354</v>
+        <v>-6.85964132054901</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.46443569169461</v>
+        <v>-7.69667962527106</v>
       </c>
       <c r="G110" t="n">
-        <v>-8.80511238886949</v>
+        <v>-7.76404725925258</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.17312993395802</v>
+        <v>-8.93997095019224</v>
       </c>
       <c r="I110" t="n">
-        <v>-9.34315913763992</v>
+        <v>-8.6697725628453</v>
       </c>
       <c r="J110" t="n">
-        <v>-10.1090575001556</v>
+        <v>-9.8816388156177</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.2928771367064</v>
+        <v>-4.3675605068415</v>
       </c>
       <c r="B111" t="n">
-        <v>11.8530079834364</v>
+        <v>-5.3588140930869</v>
       </c>
       <c r="C111" t="n">
-        <v>11.6037837384981</v>
+        <v>-5.72466767936055</v>
       </c>
       <c r="D111" t="n">
-        <v>4.16439207095696</v>
+        <v>-6.47538282621028</v>
       </c>
       <c r="E111" t="n">
-        <v>4.14655709807962</v>
+        <v>-7.3548609954535</v>
       </c>
       <c r="F111" t="n">
-        <v>5.23845846618605</v>
+        <v>-7.48725805453133</v>
       </c>
       <c r="G111" t="n">
-        <v>4.89147575471494</v>
+        <v>-8.34800193269642</v>
       </c>
       <c r="H111" t="n">
-        <v>6.84834242369586</v>
+        <v>-8.73769436469714</v>
       </c>
       <c r="I111" t="n">
-        <v>6.93252536400421</v>
+        <v>-8.92106003798346</v>
       </c>
       <c r="J111" t="n">
-        <v>6.19125513384873</v>
+        <v>-9.50513462266898</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>11.0622277497047</v>
+        <v>10.4004526148027</v>
       </c>
       <c r="B112" t="n">
-        <v>11.9262242859429</v>
+        <v>10.3837762337921</v>
       </c>
       <c r="C112" t="n">
-        <v>11.2566230684351</v>
+        <v>11.6941064205513</v>
       </c>
       <c r="D112" t="n">
-        <v>4.42023303812556</v>
+        <v>13.5834845827507</v>
       </c>
       <c r="E112" t="n">
-        <v>4.90771595207021</v>
+        <v>13.7300729386252</v>
       </c>
       <c r="F112" t="n">
-        <v>4.26346662360485</v>
+        <v>15.7654745649253</v>
       </c>
       <c r="G112" t="n">
-        <v>4.44171006244871</v>
+        <v>14.6712577297489</v>
       </c>
       <c r="H112" t="n">
-        <v>6.85121889604305</v>
+        <v>19.0958162221202</v>
       </c>
       <c r="I112" t="n">
-        <v>6.50083339267643</v>
+        <v>18.8030251613604</v>
       </c>
       <c r="J112" t="n">
-        <v>7.37442712233725</v>
+        <v>20.4390216592094</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.6849748557609</v>
+        <v>10.0089426980921</v>
       </c>
       <c r="B113" t="n">
-        <v>10.5757860219806</v>
+        <v>10.1232577523704</v>
       </c>
       <c r="C113" t="n">
-        <v>13.1745127020784</v>
+        <v>12.1538688525398</v>
       </c>
       <c r="D113" t="n">
-        <v>4.14120839117281</v>
+        <v>12.6786754376041</v>
       </c>
       <c r="E113" t="n">
-        <v>4.93653833352451</v>
+        <v>14.4036185075666</v>
       </c>
       <c r="F113" t="n">
-        <v>4.6133360560229</v>
+        <v>15.4694381312263</v>
       </c>
       <c r="G113" t="n">
-        <v>6.65015286563116</v>
+        <v>15.7559194127974</v>
       </c>
       <c r="H113" t="n">
-        <v>6.27167123773248</v>
+        <v>16.4897665260918</v>
       </c>
       <c r="I113" t="n">
-        <v>6.68774443831294</v>
+        <v>18.2334780692234</v>
       </c>
       <c r="J113" t="n">
-        <v>7.06823545679439</v>
+        <v>19.1934688520451</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.93442451303067</v>
+        <v>-5.21470447128772</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.53751596415278</v>
+        <v>-5.54800589523112</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.08514982688669</v>
+        <v>-5.95577901605417</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.53452061541493</v>
+        <v>-6.67073463202182</v>
       </c>
       <c r="E114" t="n">
-        <v>-6.85279300089639</v>
+        <v>-7.44227216770336</v>
       </c>
       <c r="F114" t="n">
-        <v>-7.08487599243128</v>
+        <v>-7.37158554901226</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.54413903940566</v>
+        <v>-8.26639314666242</v>
       </c>
       <c r="H114" t="n">
-        <v>6.54435466078026</v>
+        <v>16.8366470453572</v>
       </c>
       <c r="I114" t="n">
-        <v>7.44433810679292</v>
+        <v>18.9579126637261</v>
       </c>
       <c r="J114" t="n">
-        <v>7.17922975341005</v>
+        <v>18.0473889457346</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.53836879506046</v>
+        <v>8.3258015039124</v>
       </c>
       <c r="B115" t="n">
-        <v>10.8908377990229</v>
+        <v>10.8889110825417</v>
       </c>
       <c r="C115" t="n">
-        <v>12.7891851940704</v>
+        <v>12.4729759166074</v>
       </c>
       <c r="D115" t="n">
-        <v>4.36271218595663</v>
+        <v>13.6954411255128</v>
       </c>
       <c r="E115" t="n">
-        <v>4.42857671554999</v>
+        <v>13.9143896741497</v>
       </c>
       <c r="F115" t="n">
-        <v>5.71342179131207</v>
+        <v>13.751814002605</v>
       </c>
       <c r="G115" t="n">
-        <v>5.47754824942012</v>
+        <v>16.0061226712674</v>
       </c>
       <c r="H115" t="n">
-        <v>6.18004249758345</v>
+        <v>16.8752783255013</v>
       </c>
       <c r="I115" t="n">
-        <v>7.0298347117537</v>
+        <v>-9.24999104156569</v>
       </c>
       <c r="J115" t="n">
-        <v>6.66499168331275</v>
+        <v>-9.63148473177835</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.6586277234316</v>
+        <v>9.93116082776988</v>
       </c>
       <c r="B116" t="n">
-        <v>10.6974135357623</v>
+        <v>11.7695902822679</v>
       </c>
       <c r="C116" t="n">
-        <v>11.8119219973998</v>
+        <v>12.4014623507678</v>
       </c>
       <c r="D116" t="n">
-        <v>11.4688833346248</v>
+        <v>12.5219818890828</v>
       </c>
       <c r="E116" t="n">
-        <v>14.9150339330549</v>
+        <v>13.8115969290535</v>
       </c>
       <c r="F116" t="n">
-        <v>15.3874502658355</v>
+        <v>14.5441935208939</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.68433553605742</v>
+        <v>15.7687572312134</v>
       </c>
       <c r="H116" t="n">
-        <v>-8.21353702058499</v>
+        <v>17.357939285031</v>
       </c>
       <c r="I116" t="n">
-        <v>-9.18454494096947</v>
+        <v>18.4248063815149</v>
       </c>
       <c r="J116" t="n">
-        <v>-9.97256083554653</v>
+        <v>18.1054167251942</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.86767770141</v>
+        <v>2.5962861956381</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.01930366471976</v>
+        <v>3.72235791471711</v>
       </c>
       <c r="C117" t="n">
-        <v>11.929742694733</v>
+        <v>2.70480715802276</v>
       </c>
       <c r="D117" t="n">
-        <v>12.7041173205054</v>
+        <v>4.49839489252979</v>
       </c>
       <c r="E117" t="n">
-        <v>13.7849319617512</v>
+        <v>4.69351330791168</v>
       </c>
       <c r="F117" t="n">
-        <v>14.7960103449071</v>
+        <v>3.96763364243605</v>
       </c>
       <c r="G117" t="n">
-        <v>15.2440625248546</v>
+        <v>5.90588493621158</v>
       </c>
       <c r="H117" t="n">
-        <v>17.0406810100297</v>
+        <v>6.42509619096224</v>
       </c>
       <c r="I117" t="n">
-        <v>17.0566753620491</v>
+        <v>6.0821110541891</v>
       </c>
       <c r="J117" t="n">
-        <v>18.341273612774</v>
+        <v>7.47869477828324</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.2310707026727</v>
+        <v>10.8447421359976</v>
       </c>
       <c r="B118" t="n">
-        <v>11.3990015736467</v>
+        <v>10.6476954533106</v>
       </c>
       <c r="C118" t="n">
-        <v>12.3714703538838</v>
+        <v>13.1157295266292</v>
       </c>
       <c r="D118" t="n">
-        <v>13.5565015931281</v>
+        <v>12.4777639971938</v>
       </c>
       <c r="E118" t="n">
-        <v>16.4036491941856</v>
+        <v>14.2459135855158</v>
       </c>
       <c r="F118" t="n">
-        <v>13.5200108790615</v>
+        <v>13.810697862462</v>
       </c>
       <c r="G118" t="n">
-        <v>16.8287880366871</v>
+        <v>16.6161433388903</v>
       </c>
       <c r="H118" t="n">
-        <v>17.5030529879972</v>
+        <v>17.5362620292159</v>
       </c>
       <c r="I118" t="n">
-        <v>17.5201345939607</v>
+        <v>17.4174510622192</v>
       </c>
       <c r="J118" t="n">
-        <v>19.8976120570687</v>
+        <v>19.2078563639732</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10.3283541066143</v>
+        <v>1.96505857389815</v>
       </c>
       <c r="B119" t="n">
-        <v>9.78973839555764</v>
+        <v>2.77925124184132</v>
       </c>
       <c r="C119" t="n">
-        <v>12.456304474337</v>
+        <v>4.80656418707682</v>
       </c>
       <c r="D119" t="n">
-        <v>13.8280684350762</v>
+        <v>3.59223442733688</v>
       </c>
       <c r="E119" t="n">
-        <v>13.3434389300021</v>
+        <v>5.09153212362879</v>
       </c>
       <c r="F119" t="n">
-        <v>12.98852911305</v>
+        <v>5.01587874632355</v>
       </c>
       <c r="G119" t="n">
-        <v>5.89783563316134</v>
+        <v>6.41651606479812</v>
       </c>
       <c r="H119" t="n">
-        <v>5.84899451310386</v>
+        <v>6.28185538351616</v>
       </c>
       <c r="I119" t="n">
-        <v>5.89522433870828</v>
+        <v>17.7424074744997</v>
       </c>
       <c r="J119" t="n">
-        <v>6.77734784368737</v>
+        <v>18.2347368257118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.04065736890684</v>
+        <v>-4.89130448564592</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.08289426375551</v>
+        <v>-5.59138912356687</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.21417551617206</v>
+        <v>-5.80294646718265</v>
       </c>
       <c r="D120" t="n">
-        <v>-6.92050723534476</v>
+        <v>-6.60853469062133</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.06151471389869</v>
+        <v>-6.86177087214678</v>
       </c>
       <c r="F120" t="n">
-        <v>-7.88437372464262</v>
+        <v>-7.34831154722738</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.90480418177952</v>
+        <v>15.3369064848426</v>
       </c>
       <c r="H120" t="n">
-        <v>-8.23333531425345</v>
+        <v>17.2394222119405</v>
       </c>
       <c r="I120" t="n">
-        <v>-8.62647108550644</v>
+        <v>19.469410572896</v>
       </c>
       <c r="J120" t="n">
-        <v>-9.40782573749946</v>
+        <v>19.8344414845975</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10.7384084683962</v>
+        <v>9.77689658431059</v>
       </c>
       <c r="B121" t="n">
-        <v>10.6604320525074</v>
+        <v>10.6242545487116</v>
       </c>
       <c r="C121" t="n">
-        <v>11.2746741147936</v>
+        <v>11.9473442314485</v>
       </c>
       <c r="D121" t="n">
-        <v>13.6014256126138</v>
+        <v>14.6177376032</v>
       </c>
       <c r="E121" t="n">
-        <v>13.5549155280227</v>
+        <v>14.702476268173</v>
       </c>
       <c r="F121" t="n">
-        <v>15.0023797671119</v>
+        <v>13.4150539437414</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.56949945260591</v>
+        <v>16.6252007790537</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.46025051800228</v>
+        <v>16.8130367906024</v>
       </c>
       <c r="I121" t="n">
-        <v>-9.06734515807734</v>
+        <v>18.4915502446675</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.38407302952217</v>
+        <v>19.027273768251</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.74550661068085</v>
+        <v>2.14325009810972</v>
       </c>
       <c r="B122" t="n">
-        <v>2.08691892780187</v>
+        <v>3.44722181496591</v>
       </c>
       <c r="C122" t="n">
-        <v>2.85625919884026</v>
+        <v>3.07872419596541</v>
       </c>
       <c r="D122" t="n">
-        <v>2.76715794215022</v>
+        <v>3.4144846732954</v>
       </c>
       <c r="E122" t="n">
-        <v>4.91556573332087</v>
+        <v>4.73114975266558</v>
       </c>
       <c r="F122" t="n">
-        <v>4.16915520607427</v>
+        <v>5.50341441588032</v>
       </c>
       <c r="G122" t="n">
-        <v>5.97859579426869</v>
+        <v>5.49454479712773</v>
       </c>
       <c r="H122" t="n">
-        <v>5.64163039314432</v>
+        <v>5.93691210349147</v>
       </c>
       <c r="I122" t="n">
-        <v>7.20061661495446</v>
+        <v>7.1792744354802</v>
       </c>
       <c r="J122" t="n">
-        <v>7.44514375673029</v>
+        <v>7.32955349823351</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-5.17110953467596</v>
+        <v>9.79099144003101</v>
       </c>
       <c r="B123" t="n">
-        <v>-5.78159746671146</v>
+        <v>11.9739049131034</v>
       </c>
       <c r="C123" t="n">
-        <v>-6.23709365517373</v>
+        <v>11.7027392133079</v>
       </c>
       <c r="D123" t="n">
-        <v>-6.55365931753622</v>
+        <v>13.8614787743434</v>
       </c>
       <c r="E123" t="n">
-        <v>-6.92841951672378</v>
+        <v>14.3470371556613</v>
       </c>
       <c r="F123" t="n">
-        <v>-7.59289131915165</v>
+        <v>14.2625480309407</v>
       </c>
       <c r="G123" t="n">
-        <v>-8.13945158793806</v>
+        <v>5.42682035691663</v>
       </c>
       <c r="H123" t="n">
-        <v>-8.40427094906648</v>
+        <v>6.36610049207025</v>
       </c>
       <c r="I123" t="n">
-        <v>-8.99579953930983</v>
+        <v>6.07677539131389</v>
       </c>
       <c r="J123" t="n">
-        <v>-9.6020711183314</v>
+        <v>6.26716462743278</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-4.85917766031976</v>
+        <v>-4.80121185518096</v>
       </c>
       <c r="B124" t="n">
-        <v>-5.56927994540509</v>
+        <v>-5.81212686339809</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.95707586326579</v>
+        <v>-5.97095148133819</v>
       </c>
       <c r="D124" t="n">
-        <v>12.874625650606</v>
+        <v>-6.96156451777381</v>
       </c>
       <c r="E124" t="n">
-        <v>14.1165393019482</v>
+        <v>-7.34490115691437</v>
       </c>
       <c r="F124" t="n">
-        <v>14.1500643624157</v>
+        <v>-7.61380956349002</v>
       </c>
       <c r="G124" t="n">
-        <v>16.8668633365348</v>
+        <v>-8.39251244679321</v>
       </c>
       <c r="H124" t="n">
-        <v>16.8946700401548</v>
+        <v>-8.54222429515061</v>
       </c>
       <c r="I124" t="n">
-        <v>17.338568709652</v>
+        <v>-8.50612510898083</v>
       </c>
       <c r="J124" t="n">
-        <v>19.6484156926431</v>
+        <v>-9.16802641334617</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.82312671844335</v>
+        <v>9.77869950247777</v>
       </c>
       <c r="B125" t="n">
-        <v>11.2471817055602</v>
+        <v>12.0223467116537</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.86991812716561</v>
+        <v>12.8803153261933</v>
       </c>
       <c r="D125" t="n">
-        <v>-6.62735959980398</v>
+        <v>13.8360634912577</v>
       </c>
       <c r="E125" t="n">
-        <v>-6.95935252809297</v>
+        <v>13.0832181254873</v>
       </c>
       <c r="F125" t="n">
-        <v>-7.65396903746155</v>
+        <v>14.5683426182976</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.81456020180873</v>
+        <v>15.1670862719257</v>
       </c>
       <c r="H125" t="n">
-        <v>-9.16114326094787</v>
+        <v>16.148500085335</v>
       </c>
       <c r="I125" t="n">
-        <v>16.6564396011847</v>
+        <v>18.4086396528524</v>
       </c>
       <c r="J125" t="n">
-        <v>19.2559900415098</v>
+        <v>-9.37006469028207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.0003887405262</v>
+        <v>-5.40037956027632</v>
       </c>
       <c r="B126" t="n">
-        <v>11.3306559533229</v>
+        <v>-5.19315907410838</v>
       </c>
       <c r="C126" t="n">
-        <v>12.1419569536016</v>
+        <v>-5.81626258843215</v>
       </c>
       <c r="D126" t="n">
-        <v>13.0163661246328</v>
+        <v>-6.48161339827539</v>
       </c>
       <c r="E126" t="n">
-        <v>13.341432360734</v>
+        <v>-6.98214503128698</v>
       </c>
       <c r="F126" t="n">
-        <v>16.0377504272661</v>
+        <v>-7.34727370421267</v>
       </c>
       <c r="G126" t="n">
-        <v>16.5111334713817</v>
+        <v>-8.22602469979894</v>
       </c>
       <c r="H126" t="n">
-        <v>15.5472384271171</v>
+        <v>-8.90236035721291</v>
       </c>
       <c r="I126" t="n">
-        <v>18.6201431211319</v>
+        <v>-8.7338531659033</v>
       </c>
       <c r="J126" t="n">
-        <v>19.6574043090276</v>
+        <v>-9.32219915852633</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.51750117073752</v>
+        <v>10.5891350062594</v>
       </c>
       <c r="B127" t="n">
-        <v>2.34905980210493</v>
+        <v>10.886797549983</v>
       </c>
       <c r="C127" t="n">
-        <v>3.44082299254265</v>
+        <v>10.7932091473866</v>
       </c>
       <c r="D127" t="n">
-        <v>4.19975727417578</v>
+        <v>13.4702144526705</v>
       </c>
       <c r="E127" t="n">
-        <v>4.0872091639451</v>
+        <v>13.508992187774</v>
       </c>
       <c r="F127" t="n">
-        <v>4.27451701266406</v>
+        <v>14.3388390446437</v>
       </c>
       <c r="G127" t="n">
-        <v>5.09776444339745</v>
+        <v>16.0709066643912</v>
       </c>
       <c r="H127" t="n">
-        <v>5.87696818968231</v>
+        <v>18.0500766575722</v>
       </c>
       <c r="I127" t="n">
-        <v>6.23536922457672</v>
+        <v>17.2827991336207</v>
       </c>
       <c r="J127" t="n">
-        <v>7.12606813014124</v>
+        <v>18.6991849719008</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.72894067565615</v>
+        <v>-4.6765474753252</v>
       </c>
       <c r="B128" t="n">
-        <v>-5.23880411165041</v>
+        <v>-5.51368701638519</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.30351852770365</v>
+        <v>-6.47815350341732</v>
       </c>
       <c r="D128" t="n">
-        <v>-6.42565807849708</v>
+        <v>-6.46645830701447</v>
       </c>
       <c r="E128" t="n">
-        <v>-6.9748346417519</v>
+        <v>-7.28032869393987</v>
       </c>
       <c r="F128" t="n">
-        <v>-7.02177250489554</v>
+        <v>-7.28470306595377</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.88047873161368</v>
+        <v>-7.96957584961175</v>
       </c>
       <c r="H128" t="n">
-        <v>-8.85284317111629</v>
+        <v>-8.77268350434511</v>
       </c>
       <c r="I128" t="n">
-        <v>-8.79896791716559</v>
+        <v>-8.84494619263846</v>
       </c>
       <c r="J128" t="n">
-        <v>-9.65252056066617</v>
+        <v>-9.31507767364448</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.0829648815999</v>
+        <v>9.69219581270064</v>
       </c>
       <c r="B129" t="n">
-        <v>11.065295206457</v>
+        <v>11.627671171918</v>
       </c>
       <c r="C129" t="n">
-        <v>-6.0991455522791</v>
+        <v>12.1219415567085</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.15397794161221</v>
+        <v>13.4580452878463</v>
       </c>
       <c r="E129" t="n">
-        <v>-6.70482434376293</v>
+        <v>12.414535570168</v>
       </c>
       <c r="F129" t="n">
-        <v>-7.34913294628603</v>
+        <v>14.8168320291111</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.88146528419626</v>
+        <v>15.0528469499127</v>
       </c>
       <c r="H129" t="n">
-        <v>-8.62001720072018</v>
+        <v>-8.39712491960392</v>
       </c>
       <c r="I129" t="n">
-        <v>-9.39544668223549</v>
+        <v>-8.73743736172367</v>
       </c>
       <c r="J129" t="n">
-        <v>-9.57437941060953</v>
+        <v>-9.55356035996105</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.76191938773827</v>
+        <v>9.97331894973867</v>
       </c>
       <c r="B130" t="n">
-        <v>2.11535223583857</v>
+        <v>10.8768455019023</v>
       </c>
       <c r="C130" t="n">
-        <v>3.05081755950252</v>
+        <v>11.9077341637569</v>
       </c>
       <c r="D130" t="n">
-        <v>4.01397963757924</v>
+        <v>11.9547178654075</v>
       </c>
       <c r="E130" t="n">
-        <v>4.42438482284809</v>
+        <v>12.5257158488033</v>
       </c>
       <c r="F130" t="n">
-        <v>5.02765287297923</v>
+        <v>14.5038324532903</v>
       </c>
       <c r="G130" t="n">
-        <v>5.86834955376731</v>
+        <v>15.8356162808948</v>
       </c>
       <c r="H130" t="n">
-        <v>6.29576571696325</v>
+        <v>16.2339876993325</v>
       </c>
       <c r="I130" t="n">
-        <v>6.11780242278163</v>
+        <v>6.14399619913462</v>
       </c>
       <c r="J130" t="n">
-        <v>7.56390054548744</v>
+        <v>6.6321335530378</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-4.66067645972632</v>
+        <v>10.5140898456994</v>
       </c>
       <c r="B131" t="n">
-        <v>-5.45478128658349</v>
+        <v>11.0831542265083</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.76043324495969</v>
+        <v>-6.08288314414149</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.98146758050181</v>
+        <v>-6.21990976556749</v>
       </c>
       <c r="E131" t="n">
-        <v>-6.58993648538975</v>
+        <v>-7.08151712852091</v>
       </c>
       <c r="F131" t="n">
-        <v>-7.77940685081578</v>
+        <v>-7.57024933992825</v>
       </c>
       <c r="G131" t="n">
-        <v>-8.09780512610311</v>
+        <v>-8.05501844946632</v>
       </c>
       <c r="H131" t="n">
-        <v>-8.55355863666668</v>
+        <v>-8.57716090813137</v>
       </c>
       <c r="I131" t="n">
-        <v>-9.140116246473</v>
+        <v>-8.86433234614567</v>
       </c>
       <c r="J131" t="n">
-        <v>18.7006259330845</v>
+        <v>-9.0503815383593</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.31955343455486</v>
+        <v>-5.55349624784364</v>
       </c>
       <c r="B132" t="n">
-        <v>3.2774969576104</v>
+        <v>-5.59927763709976</v>
       </c>
       <c r="C132" t="n">
-        <v>3.64620017485592</v>
+        <v>-6.11648742594148</v>
       </c>
       <c r="D132" t="n">
-        <v>3.97434887731852</v>
+        <v>-6.17874383102847</v>
       </c>
       <c r="E132" t="n">
-        <v>4.58681171903725</v>
+        <v>-6.79640924594128</v>
       </c>
       <c r="F132" t="n">
-        <v>5.54133588314034</v>
+        <v>14.2498834227521</v>
       </c>
       <c r="G132" t="n">
-        <v>4.47805950710233</v>
+        <v>15.7323736506016</v>
       </c>
       <c r="H132" t="n">
-        <v>5.80711894889857</v>
+        <v>17.1953204920843</v>
       </c>
       <c r="I132" t="n">
-        <v>7.49682847569639</v>
+        <v>18.9053092948593</v>
       </c>
       <c r="J132" t="n">
-        <v>6.31003570796527</v>
+        <v>19.3498012077453</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.90576733352817</v>
+        <v>8.68734755744239</v>
       </c>
       <c r="B133" t="n">
-        <v>11.1105654613753</v>
+        <v>10.0239031855549</v>
       </c>
       <c r="C133" t="n">
-        <v>11.3873101179836</v>
+        <v>11.62732225229</v>
       </c>
       <c r="D133" t="n">
-        <v>12.4917405562479</v>
+        <v>13.489718831042</v>
       </c>
       <c r="E133" t="n">
-        <v>14.1244361029517</v>
+        <v>13.8191524096583</v>
       </c>
       <c r="F133" t="n">
-        <v>15.3420141703537</v>
+        <v>14.9058066948379</v>
       </c>
       <c r="G133" t="n">
-        <v>16.1937760152118</v>
+        <v>15.6624291228929</v>
       </c>
       <c r="H133" t="n">
-        <v>17.5181520734942</v>
+        <v>17.4284012106127</v>
       </c>
       <c r="I133" t="n">
-        <v>17.6991847713317</v>
+        <v>18.0566940976002</v>
       </c>
       <c r="J133" t="n">
-        <v>18.5016674929779</v>
+        <v>19.4171486850387</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.29699673634076</v>
+        <v>8.80001819923064</v>
       </c>
       <c r="B134" t="n">
-        <v>12.9025547141314</v>
+        <v>10.4203578724331</v>
       </c>
       <c r="C134" t="n">
-        <v>12.5440979139185</v>
+        <v>13.0614650151772</v>
       </c>
       <c r="D134" t="n">
-        <v>13.1052912684263</v>
+        <v>12.8062271181903</v>
       </c>
       <c r="E134" t="n">
-        <v>14.4532502029793</v>
+        <v>13.523294135724</v>
       </c>
       <c r="F134" t="n">
-        <v>14.5735101468036</v>
+        <v>15.6254935691487</v>
       </c>
       <c r="G134" t="n">
-        <v>16.0828415547688</v>
+        <v>16.2488095886779</v>
       </c>
       <c r="H134" t="n">
-        <v>16.5226409941589</v>
+        <v>16.8969593120433</v>
       </c>
       <c r="I134" t="n">
-        <v>18.0780271970671</v>
+        <v>18.666156125516</v>
       </c>
       <c r="J134" t="n">
-        <v>-9.37637307142953</v>
+        <v>19.8951670046448</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.12848287559346</v>
+        <v>10.844675704692</v>
       </c>
       <c r="B135" t="n">
-        <v>2.98049631156573</v>
+        <v>10.360980990195</v>
       </c>
       <c r="C135" t="n">
-        <v>3.70638927099053</v>
+        <v>12.9017034421597</v>
       </c>
       <c r="D135" t="n">
-        <v>3.57581383366472</v>
+        <v>12.6956910101169</v>
       </c>
       <c r="E135" t="n">
-        <v>4.72409247621629</v>
+        <v>14.9660235105296</v>
       </c>
       <c r="F135" t="n">
-        <v>5.43074341629632</v>
+        <v>14.6380297329037</v>
       </c>
       <c r="G135" t="n">
-        <v>4.6184686740076</v>
+        <v>15.7837542772378</v>
       </c>
       <c r="H135" t="n">
-        <v>5.98557637158713</v>
+        <v>16.2522240840931</v>
       </c>
       <c r="I135" t="n">
-        <v>5.96703998726151</v>
+        <v>17.2954616656918</v>
       </c>
       <c r="J135" t="n">
-        <v>7.66173793351752</v>
+        <v>19.118106019292</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.4938875912145</v>
+        <v>2.9151861034247</v>
       </c>
       <c r="B136" t="n">
-        <v>10.3229881202544</v>
+        <v>3.96543160101988</v>
       </c>
       <c r="C136" t="n">
-        <v>11.9791675451399</v>
+        <v>3.44605016517181</v>
       </c>
       <c r="D136" t="n">
-        <v>12.4842943947998</v>
+        <v>3.39104299266437</v>
       </c>
       <c r="E136" t="n">
-        <v>13.419253606614</v>
+        <v>4.07694062446867</v>
       </c>
       <c r="F136" t="n">
-        <v>14.0547111699364</v>
+        <v>4.94399589423056</v>
       </c>
       <c r="G136" t="n">
-        <v>16.1289652351841</v>
+        <v>5.02476634413963</v>
       </c>
       <c r="H136" t="n">
-        <v>16.4866059698255</v>
+        <v>5.35175844406746</v>
       </c>
       <c r="I136" t="n">
-        <v>7.77956859955183</v>
+        <v>7.12093950199649</v>
       </c>
       <c r="J136" t="n">
-        <v>7.05715519887893</v>
+        <v>6.06160338514076</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10.1835172564802</v>
+        <v>10.6861004674191</v>
       </c>
       <c r="B137" t="n">
-        <v>11.3607332898608</v>
+        <v>10.795366881749</v>
       </c>
       <c r="C137" t="n">
-        <v>11.8722635454238</v>
+        <v>11.7184966576578</v>
       </c>
       <c r="D137" t="n">
-        <v>12.0537329004072</v>
+        <v>13.4775736375281</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.60466232606092</v>
+        <v>12.7959079596924</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.35064694210086</v>
+        <v>14.7339281903738</v>
       </c>
       <c r="G137" t="n">
-        <v>-7.93911873393782</v>
+        <v>15.6584988364703</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.49457408337521</v>
+        <v>17.6057864621163</v>
       </c>
       <c r="I137" t="n">
-        <v>-9.28078281090516</v>
+        <v>18.9443715190583</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.37157860655025</v>
+        <v>19.9879356351752</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.31658451971329</v>
+        <v>10.6357230471414</v>
       </c>
       <c r="B138" t="n">
-        <v>9.74205841286675</v>
+        <v>11.785578403953</v>
       </c>
       <c r="C138" t="n">
-        <v>-6.24661161877165</v>
+        <v>12.9159173196237</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.49711730509513</v>
+        <v>13.0257759070232</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.84720352562666</v>
+        <v>13.369862441071</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.37587668597078</v>
+        <v>14.5372224207762</v>
       </c>
       <c r="G138" t="n">
-        <v>-8.09612076523404</v>
+        <v>5.92768994060885</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.71747844140983</v>
+        <v>6.96266668210468</v>
       </c>
       <c r="I138" t="n">
-        <v>-8.75610699392934</v>
+        <v>7.00907885932366</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.91488943009976</v>
+        <v>6.54228901077045</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-5.33203776462517</v>
+        <v>10.2616921159532</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.50938477332856</v>
+        <v>11.0960269862534</v>
       </c>
       <c r="C139" t="n">
-        <v>-6.30072596767114</v>
+        <v>11.3722871301089</v>
       </c>
       <c r="D139" t="n">
-        <v>-6.6364341727072</v>
+        <v>11.702238442051</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.05589648656061</v>
+        <v>14.5728847813715</v>
       </c>
       <c r="F139" t="n">
-        <v>15.3895846796033</v>
+        <v>14.6025893018905</v>
       </c>
       <c r="G139" t="n">
-        <v>16.0972205854355</v>
+        <v>15.5523393677535</v>
       </c>
       <c r="H139" t="n">
-        <v>-8.2141234849845</v>
+        <v>16.7141590326037</v>
       </c>
       <c r="I139" t="n">
-        <v>-8.81905374558413</v>
+        <v>20.0500066145967</v>
       </c>
       <c r="J139" t="n">
-        <v>-9.55048730913797</v>
+        <v>20.4848272211676</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8.80291656113015</v>
+        <v>11.0492793733199</v>
       </c>
       <c r="B140" t="n">
-        <v>2.46734281530778</v>
+        <v>10.9162965563468</v>
       </c>
       <c r="C140" t="n">
-        <v>3.22923875662278</v>
+        <v>12.5631368250677</v>
       </c>
       <c r="D140" t="n">
-        <v>4.17556364920503</v>
+        <v>13.2537183619824</v>
       </c>
       <c r="E140" t="n">
-        <v>4.07562627836013</v>
+        <v>14.0326513819124</v>
       </c>
       <c r="F140" t="n">
-        <v>5.61533940815688</v>
+        <v>15.2881667138074</v>
       </c>
       <c r="G140" t="n">
-        <v>5.73798597998334</v>
+        <v>15.9501557120512</v>
       </c>
       <c r="H140" t="n">
-        <v>6.00146984115073</v>
+        <v>16.989295336178</v>
       </c>
       <c r="I140" t="n">
-        <v>6.32071355692028</v>
+        <v>18.5988933152183</v>
       </c>
       <c r="J140" t="n">
-        <v>6.83602147213397</v>
+        <v>18.4241825641104</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.83661498967827</v>
+        <v>10.3249609772789</v>
       </c>
       <c r="B141" t="n">
-        <v>11.9523430619884</v>
+        <v>11.6084184756477</v>
       </c>
       <c r="C141" t="n">
-        <v>10.9034937177595</v>
+        <v>11.2148323943351</v>
       </c>
       <c r="D141" t="n">
-        <v>12.4084243130349</v>
+        <v>12.8908459102279</v>
       </c>
       <c r="E141" t="n">
-        <v>12.4204330490947</v>
+        <v>15.0265797646865</v>
       </c>
       <c r="F141" t="n">
-        <v>14.6909913228888</v>
+        <v>15.416931297847</v>
       </c>
       <c r="G141" t="n">
-        <v>14.5010440998648</v>
+        <v>16.1519517817879</v>
       </c>
       <c r="H141" t="n">
-        <v>17.8336367321087</v>
+        <v>16.6426207551589</v>
       </c>
       <c r="I141" t="n">
-        <v>16.9678620869349</v>
+        <v>20.0805370740428</v>
       </c>
       <c r="J141" t="n">
-        <v>19.5582800092524</v>
+        <v>18.523555661909</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.0789331542027</v>
+        <v>10.1977804017654</v>
       </c>
       <c r="B142" t="n">
-        <v>10.4378904499095</v>
+        <v>10.5509383561522</v>
       </c>
       <c r="C142" t="n">
-        <v>12.4004590034891</v>
+        <v>11.5503101749505</v>
       </c>
       <c r="D142" t="n">
-        <v>13.9343543060933</v>
+        <v>13.3205745627626</v>
       </c>
       <c r="E142" t="n">
-        <v>13.7915644460865</v>
+        <v>14.4359721961395</v>
       </c>
       <c r="F142" t="n">
-        <v>14.6204923474544</v>
+        <v>-6.90129250100484</v>
       </c>
       <c r="G142" t="n">
-        <v>17.3624411108114</v>
+        <v>-7.90061114588354</v>
       </c>
       <c r="H142" t="n">
-        <v>15.5166787835671</v>
+        <v>-8.85341262304491</v>
       </c>
       <c r="I142" t="n">
-        <v>16.9018999976295</v>
+        <v>-9.30641384267845</v>
       </c>
       <c r="J142" t="n">
-        <v>18.7020248235612</v>
+        <v>-9.52033567745214</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-5.18884791515024</v>
+        <v>-5.21040510674105</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.24541536860794</v>
+        <v>-5.56535467920689</v>
       </c>
       <c r="C143" t="n">
-        <v>-6.18962383687776</v>
+        <v>-5.8159710473715</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.20328652895524</v>
+        <v>-6.4742143111032</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.03573196657439</v>
+        <v>-7.17327689878583</v>
       </c>
       <c r="F143" t="n">
-        <v>4.53346942539044</v>
+        <v>-7.48719562240621</v>
       </c>
       <c r="G143" t="n">
-        <v>5.58572284995056</v>
+        <v>-7.69242919487047</v>
       </c>
       <c r="H143" t="n">
-        <v>6.51475588226959</v>
+        <v>-8.54149690769306</v>
       </c>
       <c r="I143" t="n">
-        <v>5.75871542821815</v>
+        <v>-8.91136621953171</v>
       </c>
       <c r="J143" t="n">
-        <v>7.27766507483391</v>
+        <v>-8.93166806664703</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.77985422470522</v>
+        <v>10.8294767303476</v>
       </c>
       <c r="B144" t="n">
-        <v>10.5028020815144</v>
+        <v>9.69168610481286</v>
       </c>
       <c r="C144" t="n">
-        <v>12.1891440289587</v>
+        <v>12.4344629710799</v>
       </c>
       <c r="D144" t="n">
-        <v>13.2631846694754</v>
+        <v>13.2480379667351</v>
       </c>
       <c r="E144" t="n">
-        <v>13.8791362781555</v>
+        <v>14.4415183548074</v>
       </c>
       <c r="F144" t="n">
-        <v>15.9186867415761</v>
+        <v>15.1118797626406</v>
       </c>
       <c r="G144" t="n">
-        <v>15.1826722539468</v>
+        <v>15.932969772033</v>
       </c>
       <c r="H144" t="n">
-        <v>16.9864423785133</v>
+        <v>18.102500027247</v>
       </c>
       <c r="I144" t="n">
-        <v>19.150391581753</v>
+        <v>-9.08931594218265</v>
       </c>
       <c r="J144" t="n">
-        <v>19.3195082235395</v>
+        <v>-9.758703278285</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.6553508680981</v>
+        <v>10.1913403010744</v>
       </c>
       <c r="B145" t="n">
-        <v>2.74882349839829</v>
+        <v>10.8774676889356</v>
       </c>
       <c r="C145" t="n">
-        <v>4.22137831290528</v>
+        <v>12.7431360101693</v>
       </c>
       <c r="D145" t="n">
-        <v>3.93071498415444</v>
+        <v>12.4036303366554</v>
       </c>
       <c r="E145" t="n">
-        <v>4.81337817972294</v>
+        <v>13.8583942615878</v>
       </c>
       <c r="F145" t="n">
-        <v>5.31139000480743</v>
+        <v>16.0029057846284</v>
       </c>
       <c r="G145" t="n">
-        <v>5.82389671418456</v>
+        <v>15.4131120512489</v>
       </c>
       <c r="H145" t="n">
-        <v>6.44990098850491</v>
+        <v>16.839119299005</v>
       </c>
       <c r="I145" t="n">
-        <v>6.40888110384774</v>
+        <v>17.6037456529987</v>
       </c>
       <c r="J145" t="n">
-        <v>7.06717798041945</v>
+        <v>18.2780088308057</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-4.96173533917265</v>
+        <v>9.36401961487076</v>
       </c>
       <c r="B146" t="n">
-        <v>-4.9754375218989</v>
+        <v>10.1954686951784</v>
       </c>
       <c r="C146" t="n">
-        <v>-6.33577965072642</v>
+        <v>11.128604465177</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.1982437504606</v>
+        <v>-6.2663500903244</v>
       </c>
       <c r="E146" t="n">
-        <v>-6.6847746291806</v>
+        <v>-6.88237660545405</v>
       </c>
       <c r="F146" t="n">
-        <v>-7.49412925709101</v>
+        <v>-7.50760176736137</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.70721359464496</v>
+        <v>-7.80155998919369</v>
       </c>
       <c r="H146" t="n">
-        <v>-8.76325949599987</v>
+        <v>-8.27572925214256</v>
       </c>
       <c r="I146" t="n">
-        <v>-9.58546010067445</v>
+        <v>-8.88184626351455</v>
       </c>
       <c r="J146" t="n">
-        <v>19.2128979104041</v>
+        <v>-9.15661781363124</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11.0003591644777</v>
+        <v>-4.69444254746983</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.61978405854567</v>
+        <v>-5.58916379487122</v>
       </c>
       <c r="C147" t="n">
-        <v>3.81255282019393</v>
+        <v>-6.10415650335293</v>
       </c>
       <c r="D147" t="n">
-        <v>3.60328613447936</v>
+        <v>-6.70056488643502</v>
       </c>
       <c r="E147" t="n">
-        <v>5.16489139760807</v>
+        <v>-6.99079366189919</v>
       </c>
       <c r="F147" t="n">
-        <v>4.77989911842917</v>
+        <v>-7.70995958366777</v>
       </c>
       <c r="G147" t="n">
-        <v>5.97755688449247</v>
+        <v>-7.92203435391532</v>
       </c>
       <c r="H147" t="n">
-        <v>5.24196851698899</v>
+        <v>-8.73944728142479</v>
       </c>
       <c r="I147" t="n">
-        <v>6.69667182635204</v>
+        <v>-9.39006962356343</v>
       </c>
       <c r="J147" t="n">
-        <v>7.17911544461154</v>
+        <v>-9.32031366177096</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.3316109515488</v>
+        <v>10.5556362975751</v>
       </c>
       <c r="B148" t="n">
-        <v>10.4227639764011</v>
+        <v>10.2698898946214</v>
       </c>
       <c r="C148" t="n">
-        <v>12.9364922819546</v>
+        <v>11.7224706017977</v>
       </c>
       <c r="D148" t="n">
-        <v>4.3242844817378</v>
+        <v>13.3830895990086</v>
       </c>
       <c r="E148" t="n">
-        <v>3.86988154818751</v>
+        <v>12.8360892929227</v>
       </c>
       <c r="F148" t="n">
-        <v>5.78514036806189</v>
+        <v>14.3455377997034</v>
       </c>
       <c r="G148" t="n">
-        <v>5.78706839303622</v>
+        <v>16.4679218756114</v>
       </c>
       <c r="H148" t="n">
-        <v>5.94410485228211</v>
+        <v>16.2895211815303</v>
       </c>
       <c r="I148" t="n">
-        <v>5.7896069285704</v>
+        <v>17.8032105779589</v>
       </c>
       <c r="J148" t="n">
-        <v>6.90782234317686</v>
+        <v>17.6736138577331</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-4.69213223526848</v>
+        <v>9.3900696431162</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.77915935791756</v>
+        <v>11.4574427964211</v>
       </c>
       <c r="C149" t="n">
-        <v>-6.02476975545374</v>
+        <v>9.57029645384096</v>
       </c>
       <c r="D149" t="n">
-        <v>-5.93076668204852</v>
+        <v>12.4672410117754</v>
       </c>
       <c r="E149" t="n">
-        <v>-6.6087242287123</v>
+        <v>13.7995178833667</v>
       </c>
       <c r="F149" t="n">
-        <v>-7.87112833228858</v>
+        <v>13.837086343669</v>
       </c>
       <c r="G149" t="n">
-        <v>-8.22558452563259</v>
+        <v>16.3541079336277</v>
       </c>
       <c r="H149" t="n">
-        <v>-8.39796374813733</v>
+        <v>16.6168627847088</v>
       </c>
       <c r="I149" t="n">
-        <v>-8.95492326887834</v>
+        <v>17.856104238629</v>
       </c>
       <c r="J149" t="n">
-        <v>-9.76761106402839</v>
+        <v>19.6231118503551</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.61546099819761</v>
+        <v>8.73982322214822</v>
       </c>
       <c r="B150" t="n">
-        <v>10.3078584504423</v>
+        <v>9.98362531600872</v>
       </c>
       <c r="C150" t="n">
-        <v>-6.03201174130117</v>
+        <v>12.2387099215964</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.00741458388742</v>
+        <v>13.9982156940915</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.09543952351416</v>
+        <v>14.3687907401639</v>
       </c>
       <c r="F150" t="n">
-        <v>-7.44200225003797</v>
+        <v>14.7365955318077</v>
       </c>
       <c r="G150" t="n">
-        <v>-8.14896882268993</v>
+        <v>15.5351001440231</v>
       </c>
       <c r="H150" t="n">
-        <v>-8.21929612144168</v>
+        <v>6.9687906349348</v>
       </c>
       <c r="I150" t="n">
-        <v>-9.30635186630198</v>
+        <v>6.88945678100032</v>
       </c>
       <c r="J150" t="n">
-        <v>-9.20739779501284</v>
+        <v>6.49611188890639</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-5.06008132601281</v>
+        <v>8.5177265247782</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.38173181628692</v>
+        <v>10.8144819738342</v>
       </c>
       <c r="C151" t="n">
-        <v>-6.2300408238707</v>
+        <v>13.0640083066532</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.51132187185535</v>
+        <v>12.9899704358476</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.29964885619154</v>
+        <v>13.2511705672167</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.41550223161298</v>
+        <v>14.2247963160439</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.9026622392776</v>
+        <v>15.2760813696735</v>
       </c>
       <c r="H151" t="n">
-        <v>-8.46789978607521</v>
+        <v>16.2602158451348</v>
       </c>
       <c r="I151" t="n">
-        <v>18.0928131828486</v>
+        <v>18.6498763743705</v>
       </c>
       <c r="J151" t="n">
-        <v>19.0697213870305</v>
+        <v>17.9272220063649</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.64189983958354</v>
+        <v>11.0050838666337</v>
       </c>
       <c r="B152" t="n">
-        <v>3.25574330933028</v>
+        <v>9.29807924852238</v>
       </c>
       <c r="C152" t="n">
-        <v>3.1570196155349</v>
+        <v>12.5068082465065</v>
       </c>
       <c r="D152" t="n">
-        <v>3.06123624285414</v>
+        <v>12.8671533195327</v>
       </c>
       <c r="E152" t="n">
-        <v>3.92158083704113</v>
+        <v>13.6956033205929</v>
       </c>
       <c r="F152" t="n">
-        <v>5.50445371540709</v>
+        <v>14.8708460255987</v>
       </c>
       <c r="G152" t="n">
-        <v>5.6768998737635</v>
+        <v>17.0409783537848</v>
       </c>
       <c r="H152" t="n">
-        <v>6.12535134132902</v>
+        <v>17.4129741877224</v>
       </c>
       <c r="I152" t="n">
-        <v>6.94496974118765</v>
+        <v>18.5480397999197</v>
       </c>
       <c r="J152" t="n">
-        <v>6.6641013905598</v>
+        <v>18.5438143233104</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.806362447498</v>
+        <v>9.76803283710976</v>
       </c>
       <c r="B153" t="n">
-        <v>10.065258106078</v>
+        <v>3.52220173538535</v>
       </c>
       <c r="C153" t="n">
-        <v>12.3788982133187</v>
+        <v>3.10632540546322</v>
       </c>
       <c r="D153" t="n">
-        <v>12.0238990053943</v>
+        <v>4.6477024082904</v>
       </c>
       <c r="E153" t="n">
-        <v>14.139387680932</v>
+        <v>5.00833245268692</v>
       </c>
       <c r="F153" t="n">
-        <v>4.59560539579821</v>
+        <v>6.03277665633337</v>
       </c>
       <c r="G153" t="n">
-        <v>4.47477714569882</v>
+        <v>5.82495115021096</v>
       </c>
       <c r="H153" t="n">
-        <v>5.81983364737189</v>
+        <v>6.76105130564765</v>
       </c>
       <c r="I153" t="n">
-        <v>6.55072158672902</v>
+        <v>6.66441097631804</v>
       </c>
       <c r="J153" t="n">
-        <v>6.62795744179013</v>
+        <v>6.70685149030066</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.72502708858851</v>
+        <v>2.55659984695079</v>
       </c>
       <c r="B154" t="n">
-        <v>11.1158435215549</v>
+        <v>3.97999756218189</v>
       </c>
       <c r="C154" t="n">
-        <v>13.1650136752552</v>
+        <v>4.03236046458541</v>
       </c>
       <c r="D154" t="n">
-        <v>12.4397082404588</v>
+        <v>4.69958384441851</v>
       </c>
       <c r="E154" t="n">
-        <v>14.5025801904605</v>
+        <v>4.90208057949633</v>
       </c>
       <c r="F154" t="n">
-        <v>13.5743627529438</v>
+        <v>5.07832608793023</v>
       </c>
       <c r="G154" t="n">
-        <v>16.0920065120189</v>
+        <v>5.64562974186496</v>
       </c>
       <c r="H154" t="n">
-        <v>5.79411770197034</v>
+        <v>5.93034850332591</v>
       </c>
       <c r="I154" t="n">
-        <v>6.45795021768036</v>
+        <v>6.05294473396658</v>
       </c>
       <c r="J154" t="n">
-        <v>6.37972359526986</v>
+        <v>7.09199531084459</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.52925390177459</v>
+        <v>9.19527880339618</v>
       </c>
       <c r="B155" t="n">
-        <v>2.94799405471068</v>
+        <v>9.66123838879122</v>
       </c>
       <c r="C155" t="n">
-        <v>3.55797992676599</v>
+        <v>13.205094427965</v>
       </c>
       <c r="D155" t="n">
-        <v>3.95378000610059</v>
+        <v>14.3019154756246</v>
       </c>
       <c r="E155" t="n">
-        <v>4.84893768130218</v>
+        <v>15.6183533537286</v>
       </c>
       <c r="F155" t="n">
-        <v>4.70578997389434</v>
+        <v>15.4547849932264</v>
       </c>
       <c r="G155" t="n">
-        <v>4.38711322068258</v>
+        <v>15.8220459157674</v>
       </c>
       <c r="H155" t="n">
-        <v>5.09206782749195</v>
+        <v>17.8065550160777</v>
       </c>
       <c r="I155" t="n">
-        <v>6.05694005105398</v>
+        <v>18.1008203061265</v>
       </c>
       <c r="J155" t="n">
-        <v>6.66453872790734</v>
+        <v>19.2787071262285</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.4508360193261</v>
+        <v>11.3564187212745</v>
       </c>
       <c r="B156" t="n">
-        <v>11.0800336564663</v>
+        <v>9.47153152214718</v>
       </c>
       <c r="C156" t="n">
-        <v>11.2533273837983</v>
+        <v>12.3762702783169</v>
       </c>
       <c r="D156" t="n">
-        <v>12.6409454269052</v>
+        <v>12.504868696406</v>
       </c>
       <c r="E156" t="n">
-        <v>14.921385379695</v>
+        <v>13.4857581860944</v>
       </c>
       <c r="F156" t="n">
-        <v>4.69596508701427</v>
+        <v>15.7443122789347</v>
       </c>
       <c r="G156" t="n">
-        <v>5.77850656051638</v>
+        <v>15.7409911344286</v>
       </c>
       <c r="H156" t="n">
-        <v>6.52634640258293</v>
+        <v>16.4544123636557</v>
       </c>
       <c r="I156" t="n">
-        <v>5.37911495893026</v>
+        <v>17.7023841986204</v>
       </c>
       <c r="J156" t="n">
-        <v>6.34840221877946</v>
+        <v>20.4795762496028</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.25582724243075</v>
+        <v>10.3054623299828</v>
       </c>
       <c r="B157" t="n">
-        <v>3.55577771976522</v>
+        <v>11.6912398677963</v>
       </c>
       <c r="C157" t="n">
-        <v>3.58603647850441</v>
+        <v>11.7257480960521</v>
       </c>
       <c r="D157" t="n">
-        <v>4.62670597110033</v>
+        <v>13.7169593901481</v>
       </c>
       <c r="E157" t="n">
-        <v>4.98836764410252</v>
+        <v>15.4663996632574</v>
       </c>
       <c r="F157" t="n">
-        <v>5.46930312724752</v>
+        <v>14.8816649919341</v>
       </c>
       <c r="G157" t="n">
-        <v>5.93605471842805</v>
+        <v>15.5756538200958</v>
       </c>
       <c r="H157" t="n">
-        <v>5.96876490092538</v>
+        <v>16.6147178346392</v>
       </c>
       <c r="I157" t="n">
-        <v>6.09950451849967</v>
+        <v>17.7265527565329</v>
       </c>
       <c r="J157" t="n">
-        <v>7.79344438990796</v>
+        <v>18.8674557744472</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-5.24579046562433</v>
+        <v>8.67887390938418</v>
       </c>
       <c r="B158" t="n">
-        <v>-5.48735664772634</v>
+        <v>11.1231962636641</v>
       </c>
       <c r="C158" t="n">
-        <v>-5.82940666609276</v>
+        <v>11.5272088029597</v>
       </c>
       <c r="D158" t="n">
-        <v>-6.61525056026334</v>
+        <v>12.8353120998868</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.96583117376838</v>
+        <v>13.1926580656885</v>
       </c>
       <c r="F158" t="n">
-        <v>-7.35832449679686</v>
+        <v>15.9783293663135</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.99763512974589</v>
+        <v>16.2526332897864</v>
       </c>
       <c r="H158" t="n">
-        <v>6.65514802543426</v>
+        <v>17.4112246164746</v>
       </c>
       <c r="I158" t="n">
-        <v>6.59652024248089</v>
+        <v>18.8492589481493</v>
       </c>
       <c r="J158" t="n">
-        <v>7.04955065173296</v>
+        <v>17.5939876016812</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8.97688771136944</v>
+        <v>9.91178562089513</v>
       </c>
       <c r="B159" t="n">
-        <v>10.4644398543528</v>
+        <v>11.4525920113879</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.04737256858956</v>
+        <v>12.5765734992332</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.59447947344005</v>
+        <v>14.9962566035792</v>
       </c>
       <c r="E159" t="n">
-        <v>-7.00565255912819</v>
+        <v>15.1054600396872</v>
       </c>
       <c r="F159" t="n">
-        <v>-7.22089523202557</v>
+        <v>13.6761443591299</v>
       </c>
       <c r="G159" t="n">
-        <v>-8.17681671800653</v>
+        <v>15.3233544822053</v>
       </c>
       <c r="H159" t="n">
-        <v>-8.2920815505227</v>
+        <v>15.809914275717</v>
       </c>
       <c r="I159" t="n">
-        <v>-9.27781500254786</v>
+        <v>16.9946231038153</v>
       </c>
       <c r="J159" t="n">
-        <v>-9.72518802058255</v>
+        <v>18.833636279397</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.3521706584035</v>
+        <v>2.25659817855551</v>
       </c>
       <c r="B160" t="n">
-        <v>11.2275217476169</v>
+        <v>2.43480508053655</v>
       </c>
       <c r="C160" t="n">
-        <v>12.7918400526022</v>
+        <v>3.82111075938597</v>
       </c>
       <c r="D160" t="n">
-        <v>-6.27380107963167</v>
+        <v>4.85258561271134</v>
       </c>
       <c r="E160" t="n">
-        <v>-6.93429007233387</v>
+        <v>4.82962923429792</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.65227686131958</v>
+        <v>4.48953405304188</v>
       </c>
       <c r="G160" t="n">
-        <v>-7.71818003043942</v>
+        <v>5.63503111854009</v>
       </c>
       <c r="H160" t="n">
-        <v>-8.5601389367389</v>
+        <v>6.21839617816614</v>
       </c>
       <c r="I160" t="n">
-        <v>-8.79810567932761</v>
+        <v>6.03988632148142</v>
       </c>
       <c r="J160" t="n">
-        <v>-9.47347456661735</v>
+        <v>7.5313224341201</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.78350836963996</v>
+        <v>2.44067989357091</v>
       </c>
       <c r="B161" t="n">
-        <v>11.6147540470938</v>
+        <v>3.64767668789767</v>
       </c>
       <c r="C161" t="n">
-        <v>11.807517020469</v>
+        <v>3.46237776363973</v>
       </c>
       <c r="D161" t="n">
-        <v>12.7230310010797</v>
+        <v>3.85580898371581</v>
       </c>
       <c r="E161" t="n">
-        <v>14.6128956235661</v>
+        <v>4.0764623529067</v>
       </c>
       <c r="F161" t="n">
-        <v>14.7660909853085</v>
+        <v>5.14889600689454</v>
       </c>
       <c r="G161" t="n">
-        <v>14.5392207697363</v>
+        <v>5.23498322980609</v>
       </c>
       <c r="H161" t="n">
-        <v>18.3189030903581</v>
+        <v>6.48854004422379</v>
       </c>
       <c r="I161" t="n">
-        <v>17.843149532477</v>
+        <v>6.93543743478473</v>
       </c>
       <c r="J161" t="n">
-        <v>18.7327292527699</v>
+        <v>7.34775416993748</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-5.09711866769664</v>
+        <v>10.1763224280585</v>
       </c>
       <c r="B162" t="n">
-        <v>-6.00556861641689</v>
+        <v>10.761502967652</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.99986418718697</v>
+        <v>11.9677001840855</v>
       </c>
       <c r="D162" t="n">
-        <v>-6.49196741712813</v>
+        <v>-6.64992899261096</v>
       </c>
       <c r="E162" t="n">
-        <v>4.15700210194734</v>
+        <v>-7.04316327096875</v>
       </c>
       <c r="F162" t="n">
-        <v>4.87698813828495</v>
+        <v>-7.58036229730631</v>
       </c>
       <c r="G162" t="n">
-        <v>5.64068946647514</v>
+        <v>-8.27692148462313</v>
       </c>
       <c r="H162" t="n">
-        <v>5.46118767746119</v>
+        <v>-8.85209620306661</v>
       </c>
       <c r="I162" t="n">
-        <v>5.89104590123606</v>
+        <v>-9.55268624904616</v>
       </c>
       <c r="J162" t="n">
-        <v>7.05681833616589</v>
+        <v>-9.81828033129508</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.9151447972686</v>
+        <v>8.0678894379831</v>
       </c>
       <c r="B163" t="n">
-        <v>10.4171499332392</v>
+        <v>10.6595800721549</v>
       </c>
       <c r="C163" t="n">
-        <v>12.6660023904342</v>
+        <v>12.1421403144762</v>
       </c>
       <c r="D163" t="n">
-        <v>15.3617219748855</v>
+        <v>13.5322677902334</v>
       </c>
       <c r="E163" t="n">
-        <v>4.03518299603427</v>
+        <v>4.54351170775729</v>
       </c>
       <c r="F163" t="n">
-        <v>5.14024198243059</v>
+        <v>5.83920831004969</v>
       </c>
       <c r="G163" t="n">
-        <v>5.40961454639087</v>
+        <v>5.79898539209349</v>
       </c>
       <c r="H163" t="n">
-        <v>5.90072392342309</v>
+        <v>6.43638459583638</v>
       </c>
       <c r="I163" t="n">
-        <v>6.48648712255145</v>
+        <v>6.37529645490616</v>
       </c>
       <c r="J163" t="n">
-        <v>6.58226721440354</v>
+        <v>7.14766726479586</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.28220847682335</v>
+        <v>10.3110532215756</v>
       </c>
       <c r="B164" t="n">
-        <v>3.04933541998972</v>
+        <v>10.9973901191008</v>
       </c>
       <c r="C164" t="n">
-        <v>3.06367181538085</v>
+        <v>3.29440710500848</v>
       </c>
       <c r="D164" t="n">
-        <v>4.58179979256738</v>
+        <v>3.96177671540481</v>
       </c>
       <c r="E164" t="n">
-        <v>4.49071853038042</v>
+        <v>5.33975361342256</v>
       </c>
       <c r="F164" t="n">
-        <v>4.20689777258164</v>
+        <v>4.89781154714723</v>
       </c>
       <c r="G164" t="n">
-        <v>5.20588356486561</v>
+        <v>5.32049917213065</v>
       </c>
       <c r="H164" t="n">
-        <v>6.20089289567176</v>
+        <v>5.29552813233406</v>
       </c>
       <c r="I164" t="n">
-        <v>6.55223510376132</v>
+        <v>7.40973669257193</v>
       </c>
       <c r="J164" t="n">
-        <v>6.93243530131964</v>
+        <v>6.82171056142776</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>11.480380204229</v>
+        <v>9.73147158565517</v>
       </c>
       <c r="B165" t="n">
-        <v>10.5889311719004</v>
+        <v>11.8680789661059</v>
       </c>
       <c r="C165" t="n">
-        <v>12.650369655623</v>
+        <v>11.6196832408032</v>
       </c>
       <c r="D165" t="n">
-        <v>12.2021008663068</v>
+        <v>14.0894658869508</v>
       </c>
       <c r="E165" t="n">
-        <v>14.5524914277722</v>
+        <v>13.5115273337151</v>
       </c>
       <c r="F165" t="n">
-        <v>15.5877044127454</v>
+        <v>15.0471402722705</v>
       </c>
       <c r="G165" t="n">
-        <v>5.35869208495491</v>
+        <v>15.7342981794384</v>
       </c>
       <c r="H165" t="n">
-        <v>6.22086048109295</v>
+        <v>16.205005997115</v>
       </c>
       <c r="I165" t="n">
-        <v>6.68513190564146</v>
+        <v>16.6874330653532</v>
       </c>
       <c r="J165" t="n">
-        <v>6.69909205538526</v>
+        <v>19.2417068504731</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.74460877642931</v>
+        <v>9.84418487082963</v>
       </c>
       <c r="B166" t="n">
-        <v>11.7052898625126</v>
+        <v>11.1466395997457</v>
       </c>
       <c r="C166" t="n">
-        <v>4.23747046867526</v>
+        <v>12.0965879285174</v>
       </c>
       <c r="D166" t="n">
-        <v>4.48301344205713</v>
+        <v>12.2328087939819</v>
       </c>
       <c r="E166" t="n">
-        <v>4.93315413095689</v>
+        <v>13.5989697189299</v>
       </c>
       <c r="F166" t="n">
-        <v>5.45986245975753</v>
+        <v>15.1592513079688</v>
       </c>
       <c r="G166" t="n">
-        <v>6.32575161585262</v>
+        <v>16.0761226590692</v>
       </c>
       <c r="H166" t="n">
-        <v>5.40221509292818</v>
+        <v>16.9685796098012</v>
       </c>
       <c r="I166" t="n">
-        <v>6.01092079345087</v>
+        <v>18.0047420873287</v>
       </c>
       <c r="J166" t="n">
-        <v>7.69779690339611</v>
+        <v>18.4688097311338</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.2127748398063</v>
+        <v>10.4276031471965</v>
       </c>
       <c r="B167" t="n">
-        <v>10.9108291572002</v>
+        <v>11.3194865140192</v>
       </c>
       <c r="C167" t="n">
-        <v>12.4734742367593</v>
+        <v>12.5115488431232</v>
       </c>
       <c r="D167" t="n">
-        <v>13.6782802088463</v>
+        <v>12.4481239461812</v>
       </c>
       <c r="E167" t="n">
-        <v>3.89649336036356</v>
+        <v>14.4561281038206</v>
       </c>
       <c r="F167" t="n">
-        <v>5.01702359492463</v>
+        <v>12.5633410337785</v>
       </c>
       <c r="G167" t="n">
-        <v>5.05787902375593</v>
+        <v>4.50070604097209</v>
       </c>
       <c r="H167" t="n">
-        <v>5.18433215622205</v>
+        <v>5.57473323285481</v>
       </c>
       <c r="I167" t="n">
-        <v>6.78869648633926</v>
+        <v>6.81159130137959</v>
       </c>
       <c r="J167" t="n">
-        <v>7.02600417898933</v>
+        <v>6.83802019301586</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.13445124054357</v>
+        <v>9.67902754760683</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.71753164089123</v>
+        <v>12.1183812829853</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.13286156990518</v>
+        <v>3.58091854149261</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.46068473986031</v>
+        <v>4.43438059754969</v>
       </c>
       <c r="E168" t="n">
-        <v>-7.04859445336965</v>
+        <v>4.46873669365684</v>
       </c>
       <c r="F168" t="n">
-        <v>-7.64666546185173</v>
+        <v>5.14496101098624</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.60382376506406</v>
+        <v>5.63231073931717</v>
       </c>
       <c r="H168" t="n">
-        <v>-8.99001950662526</v>
+        <v>6.7950570947664</v>
       </c>
       <c r="I168" t="n">
-        <v>-8.74554118652737</v>
+        <v>7.33177090807278</v>
       </c>
       <c r="J168" t="n">
-        <v>-9.3549439394355</v>
+        <v>7.15666708146148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.39733796582951</v>
+        <v>9.38295259352178</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.28853027866841</v>
+        <v>12.7403768856089</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.23690909305928</v>
+        <v>11.5374306936273</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.13706843858794</v>
+        <v>13.7073155063249</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.23649817259395</v>
+        <v>13.8728033818278</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.43521271003871</v>
+        <v>15.6882146484861</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.75899080056391</v>
+        <v>16.5234088225553</v>
       </c>
       <c r="H169" t="n">
-        <v>-8.77436505177541</v>
+        <v>17.1720594662133</v>
       </c>
       <c r="I169" t="n">
-        <v>-9.1985135064829</v>
+        <v>16.7248446040772</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.29755532192003</v>
+        <v>17.9007200602258</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.2917847934884</v>
+        <v>9.22335023102413</v>
       </c>
       <c r="B170" t="n">
-        <v>12.0967540896383</v>
+        <v>-5.26843510867643</v>
       </c>
       <c r="C170" t="n">
-        <v>13.2000059001439</v>
+        <v>-6.0256900116767</v>
       </c>
       <c r="D170" t="n">
-        <v>13.6495189356346</v>
+        <v>-6.5860535291798</v>
       </c>
       <c r="E170" t="n">
-        <v>13.6530618049355</v>
+        <v>-6.98045245914522</v>
       </c>
       <c r="F170" t="n">
-        <v>14.2439006746805</v>
+        <v>-7.15396747005569</v>
       </c>
       <c r="G170" t="n">
-        <v>16.1273237346312</v>
+        <v>-8.23824603140604</v>
       </c>
       <c r="H170" t="n">
-        <v>15.7444373452786</v>
+        <v>-8.17898292188958</v>
       </c>
       <c r="I170" t="n">
-        <v>16.8660456580519</v>
+        <v>-8.63992066169917</v>
       </c>
       <c r="J170" t="n">
-        <v>20.0517340808957</v>
+        <v>-9.31767880143783</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.61858601850678</v>
+        <v>10.4807396441641</v>
       </c>
       <c r="B171" t="n">
-        <v>10.8957646860628</v>
+        <v>11.2053808006848</v>
       </c>
       <c r="C171" t="n">
-        <v>12.298926427554</v>
+        <v>13.7893564724183</v>
       </c>
       <c r="D171" t="n">
-        <v>12.9380236679057</v>
+        <v>13.3618294834269</v>
       </c>
       <c r="E171" t="n">
-        <v>13.3039772099648</v>
+        <v>13.6959323424554</v>
       </c>
       <c r="F171" t="n">
-        <v>14.4865017716816</v>
+        <v>16.1122892891753</v>
       </c>
       <c r="G171" t="n">
-        <v>15.4748075030992</v>
+        <v>15.4469255991169</v>
       </c>
       <c r="H171" t="n">
-        <v>17.8502766652421</v>
+        <v>16.520361334328</v>
       </c>
       <c r="I171" t="n">
-        <v>19.1851138807097</v>
+        <v>18.5482599615832</v>
       </c>
       <c r="J171" t="n">
-        <v>17.7436248807193</v>
+        <v>17.9730607398799</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-5.10466679925537</v>
+        <v>10.2343630999052</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.76716935287001</v>
+        <v>10.8905642837899</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.14549961778398</v>
+        <v>11.9076024757149</v>
       </c>
       <c r="D172" t="n">
-        <v>-7.15307044088961</v>
+        <v>12.1317049570462</v>
       </c>
       <c r="E172" t="n">
-        <v>-7.02145464245279</v>
+        <v>15.1013676518965</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.42241801466815</v>
+        <v>14.4441863758333</v>
       </c>
       <c r="G172" t="n">
-        <v>-8.02676983544526</v>
+        <v>15.1836561071451</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.63949456971642</v>
+        <v>17.1512664179423</v>
       </c>
       <c r="I172" t="n">
-        <v>-8.88767303745045</v>
+        <v>17.6001398125741</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.13592366799313</v>
+        <v>18.2943496452835</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9.93706787633396</v>
+        <v>10.3650781666888</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.53864775546263</v>
+        <v>10.9697474532338</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.20500862120947</v>
+        <v>12.0388498669281</v>
       </c>
       <c r="D173" t="n">
-        <v>-7.18181461274882</v>
+        <v>12.2125992204222</v>
       </c>
       <c r="E173" t="n">
-        <v>-6.71754069013608</v>
+        <v>12.7516083338165</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.26971411235588</v>
+        <v>14.5650518140813</v>
       </c>
       <c r="G173" t="n">
-        <v>-8.02711848221639</v>
+        <v>14.8734112094456</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.61414516709928</v>
+        <v>15.4047869681929</v>
       </c>
       <c r="I173" t="n">
-        <v>-9.04659326123928</v>
+        <v>17.6522449962881</v>
       </c>
       <c r="J173" t="n">
-        <v>-9.55611682035166</v>
+        <v>6.29544910193905</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.32445817960068</v>
+        <v>10.1967364536602</v>
       </c>
       <c r="B174" t="n">
-        <v>2.14195455938121</v>
+        <v>10.6990543574103</v>
       </c>
       <c r="C174" t="n">
-        <v>3.4801537248833</v>
+        <v>11.5423776451905</v>
       </c>
       <c r="D174" t="n">
-        <v>3.28946131727579</v>
+        <v>12.5867421866568</v>
       </c>
       <c r="E174" t="n">
-        <v>4.59125083882588</v>
+        <v>13.8470569507966</v>
       </c>
       <c r="F174" t="n">
-        <v>5.22314926898718</v>
+        <v>14.8775190632569</v>
       </c>
       <c r="G174" t="n">
-        <v>5.04601449410265</v>
+        <v>16.3425578703258</v>
       </c>
       <c r="H174" t="n">
-        <v>4.67364173551552</v>
+        <v>17.1836524920436</v>
       </c>
       <c r="I174" t="n">
-        <v>6.62804869581766</v>
+        <v>5.64374151935455</v>
       </c>
       <c r="J174" t="n">
-        <v>19.3912966309703</v>
+        <v>6.79127717276238</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9.51918822515608</v>
+        <v>9.67473150691438</v>
       </c>
       <c r="B175" t="n">
-        <v>12.3927266746979</v>
+        <v>11.2596010853536</v>
       </c>
       <c r="C175" t="n">
-        <v>12.8271227589833</v>
+        <v>12.7725231392399</v>
       </c>
       <c r="D175" t="n">
-        <v>13.135702429762</v>
+        <v>12.8203185789493</v>
       </c>
       <c r="E175" t="n">
-        <v>14.5475745167194</v>
+        <v>13.6818184133588</v>
       </c>
       <c r="F175" t="n">
-        <v>14.5245598259102</v>
+        <v>15.8649408687473</v>
       </c>
       <c r="G175" t="n">
-        <v>15.9179858496292</v>
+        <v>16.360655578093</v>
       </c>
       <c r="H175" t="n">
-        <v>6.17460233933476</v>
+        <v>16.4164952621412</v>
       </c>
       <c r="I175" t="n">
-        <v>6.74820628706839</v>
+        <v>18.4378684358936</v>
       </c>
       <c r="J175" t="n">
-        <v>6.70217023033048</v>
+        <v>19.221137437183</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-5.17962313129008</v>
+        <v>2.09383862376816</v>
       </c>
       <c r="B176" t="n">
-        <v>-5.46645440872541</v>
+        <v>11.5501901722255</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.93470220945908</v>
+        <v>11.6134760587104</v>
       </c>
       <c r="D176" t="n">
-        <v>-6.37628712501777</v>
+        <v>12.290373912626</v>
       </c>
       <c r="E176" t="n">
-        <v>-6.81270868808736</v>
+        <v>15.340208347039</v>
       </c>
       <c r="F176" t="n">
-        <v>-7.28142866100218</v>
+        <v>13.0324272324167</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.81327879827675</v>
+        <v>16.1588391131908</v>
       </c>
       <c r="H176" t="n">
-        <v>-8.50257899143753</v>
+        <v>15.9873937190761</v>
       </c>
       <c r="I176" t="n">
-        <v>-8.98884914595641</v>
+        <v>17.5677682804218</v>
       </c>
       <c r="J176" t="n">
-        <v>-9.71516358761574</v>
+        <v>18.8689672417918</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10.2834189887798</v>
+        <v>2.55969523537329</v>
       </c>
       <c r="B177" t="n">
-        <v>10.7938622240749</v>
+        <v>2.7515871415418</v>
       </c>
       <c r="C177" t="n">
-        <v>11.9578555154118</v>
+        <v>3.08355796429994</v>
       </c>
       <c r="D177" t="n">
-        <v>13.3515765645849</v>
+        <v>3.40851460611769</v>
       </c>
       <c r="E177" t="n">
-        <v>13.9890491121317</v>
+        <v>4.09609352091606</v>
       </c>
       <c r="F177" t="n">
-        <v>15.4588864097012</v>
+        <v>4.68713299627912</v>
       </c>
       <c r="G177" t="n">
-        <v>15.6478577049075</v>
+        <v>5.63908126810834</v>
       </c>
       <c r="H177" t="n">
-        <v>17.7657647113562</v>
+        <v>5.62943233540496</v>
       </c>
       <c r="I177" t="n">
-        <v>17.818299465698</v>
+        <v>6.08556484894613</v>
       </c>
       <c r="J177" t="n">
-        <v>19.6408283888528</v>
+        <v>6.92963447398015</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.82229629230261</v>
+        <v>9.12152122808526</v>
       </c>
       <c r="B178" t="n">
-        <v>12.0906390147045</v>
+        <v>11.3999425222167</v>
       </c>
       <c r="C178" t="n">
-        <v>13.1226109140861</v>
+        <v>11.5575039172624</v>
       </c>
       <c r="D178" t="n">
-        <v>-6.73993206695872</v>
+        <v>13.2271276639315</v>
       </c>
       <c r="E178" t="n">
-        <v>-6.64309958069028</v>
+        <v>13.6158758219711</v>
       </c>
       <c r="F178" t="n">
-        <v>14.5020001705973</v>
+        <v>15.3440833117328</v>
       </c>
       <c r="G178" t="n">
-        <v>16.4861466486758</v>
+        <v>5.64258331732802</v>
       </c>
       <c r="H178" t="n">
-        <v>17.9692565010082</v>
+        <v>6.22909213558939</v>
       </c>
       <c r="I178" t="n">
-        <v>17.4576081253553</v>
+        <v>6.78712958088876</v>
       </c>
       <c r="J178" t="n">
-        <v>19.469297505481</v>
+        <v>6.12237037046142</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10.7325133795619</v>
+        <v>-4.77558891141267</v>
       </c>
       <c r="B179" t="n">
-        <v>11.8932277418484</v>
+        <v>-5.53235966286239</v>
       </c>
       <c r="C179" t="n">
-        <v>12.7158871417805</v>
+        <v>-5.77793910292823</v>
       </c>
       <c r="D179" t="n">
-        <v>12.9948937466129</v>
+        <v>-7.00039360824519</v>
       </c>
       <c r="E179" t="n">
-        <v>14.2035314368283</v>
+        <v>-7.20084000821167</v>
       </c>
       <c r="F179" t="n">
-        <v>14.852081774957</v>
+        <v>-8.06416762335323</v>
       </c>
       <c r="G179" t="n">
-        <v>15.6124983217032</v>
+        <v>-8.05335487841303</v>
       </c>
       <c r="H179" t="n">
-        <v>17.9201637608759</v>
+        <v>-8.591982518266</v>
       </c>
       <c r="I179" t="n">
-        <v>18.0165812336502</v>
+        <v>-8.73734613076498</v>
       </c>
       <c r="J179" t="n">
-        <v>18.5890264330426</v>
+        <v>-9.49115552656683</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10.4184576722655</v>
+        <v>1.70032087281449</v>
       </c>
       <c r="B180" t="n">
-        <v>11.1233746266151</v>
+        <v>2.58935881604796</v>
       </c>
       <c r="C180" t="n">
-        <v>10.8844136813363</v>
+        <v>3.90204318570655</v>
       </c>
       <c r="D180" t="n">
-        <v>4.11218541134694</v>
+        <v>3.87803303638466</v>
       </c>
       <c r="E180" t="n">
-        <v>4.09002937702097</v>
+        <v>4.23940745919029</v>
       </c>
       <c r="F180" t="n">
-        <v>5.46088250542201</v>
+        <v>5.29393456620159</v>
       </c>
       <c r="G180" t="n">
-        <v>5.25403834914609</v>
+        <v>5.0034731282795</v>
       </c>
       <c r="H180" t="n">
-        <v>5.55835676915153</v>
+        <v>5.30694098111795</v>
       </c>
       <c r="I180" t="n">
-        <v>7.25498882446688</v>
+        <v>6.07485441552938</v>
       </c>
       <c r="J180" t="n">
-        <v>6.3171042145805</v>
+        <v>6.71794531511029</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.86566697934875</v>
+        <v>10.1638799726875</v>
       </c>
       <c r="B181" t="n">
-        <v>3.1379895121791</v>
+        <v>4.09992345111479</v>
       </c>
       <c r="C181" t="n">
-        <v>3.26230703422842</v>
+        <v>3.38321523644411</v>
       </c>
       <c r="D181" t="n">
-        <v>3.53891955264561</v>
+        <v>3.9896830687593</v>
       </c>
       <c r="E181" t="n">
-        <v>4.2978387019961</v>
+        <v>5.09673067228724</v>
       </c>
       <c r="F181" t="n">
-        <v>4.82981438535237</v>
+        <v>4.83228087237144</v>
       </c>
       <c r="G181" t="n">
-        <v>5.7722964574982</v>
+        <v>5.67120802787168</v>
       </c>
       <c r="H181" t="n">
-        <v>5.56031604533181</v>
+        <v>4.75365474513519</v>
       </c>
       <c r="I181" t="n">
-        <v>7.01525192928538</v>
+        <v>-8.60491610748685</v>
       </c>
       <c r="J181" t="n">
-        <v>6.8477635227326</v>
+        <v>-9.59627870969911</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>12.1649946118616</v>
+        <v>-4.94859508905146</v>
       </c>
       <c r="B182" t="n">
-        <v>10.8519841243386</v>
+        <v>-5.42820909080215</v>
       </c>
       <c r="C182" t="n">
-        <v>11.9849377428474</v>
+        <v>-5.92218481529075</v>
       </c>
       <c r="D182" t="n">
-        <v>12.5935630405166</v>
+        <v>-6.35606718218905</v>
       </c>
       <c r="E182" t="n">
-        <v>13.3264255576625</v>
+        <v>-6.76064011625653</v>
       </c>
       <c r="F182" t="n">
-        <v>5.4721490225836</v>
+        <v>-7.80413122050252</v>
       </c>
       <c r="G182" t="n">
-        <v>5.80957634040315</v>
+        <v>15.8096438926269</v>
       </c>
       <c r="H182" t="n">
-        <v>5.66432728749797</v>
+        <v>18.2023128221581</v>
       </c>
       <c r="I182" t="n">
-        <v>6.55782413010088</v>
+        <v>18.4879322117957</v>
       </c>
       <c r="J182" t="n">
-        <v>6.62855725767761</v>
+        <v>18.0784150408015</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.18422193473253</v>
+        <v>1.65569701074262</v>
       </c>
       <c r="B183" t="n">
-        <v>3.6880473161849</v>
+        <v>3.39294320711747</v>
       </c>
       <c r="C183" t="n">
-        <v>2.91648556796952</v>
+        <v>3.28986389345256</v>
       </c>
       <c r="D183" t="n">
-        <v>3.90132360732783</v>
+        <v>4.17694135986232</v>
       </c>
       <c r="E183" t="n">
-        <v>4.07610317640626</v>
+        <v>4.28066874870229</v>
       </c>
       <c r="F183" t="n">
-        <v>15.6212007232682</v>
+        <v>6.15315896819986</v>
       </c>
       <c r="G183" t="n">
-        <v>16.9717466015969</v>
+        <v>5.80081122099461</v>
       </c>
       <c r="H183" t="n">
-        <v>6.06587059833534</v>
+        <v>6.89599587398426</v>
       </c>
       <c r="I183" t="n">
-        <v>6.53851512015911</v>
+        <v>6.32424538654986</v>
       </c>
       <c r="J183" t="n">
-        <v>7.39946423547707</v>
+        <v>6.18211809878969</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.6061828186019</v>
+        <v>8.46522996592239</v>
       </c>
       <c r="B184" t="n">
-        <v>2.50833381324132</v>
+        <v>9.62807756708744</v>
       </c>
       <c r="C184" t="n">
-        <v>3.3076663400251</v>
+        <v>13.4236204685429</v>
       </c>
       <c r="D184" t="n">
-        <v>4.27266443952081</v>
+        <v>13.2208723861635</v>
       </c>
       <c r="E184" t="n">
-        <v>4.62578739532089</v>
+        <v>13.9490414299993</v>
       </c>
       <c r="F184" t="n">
-        <v>4.97268611769348</v>
+        <v>16.160742928619</v>
       </c>
       <c r="G184" t="n">
-        <v>5.99765627287423</v>
+        <v>15.9508253654602</v>
       </c>
       <c r="H184" t="n">
-        <v>6.34743947671809</v>
+        <v>17.3661694304186</v>
       </c>
       <c r="I184" t="n">
-        <v>6.05221042319657</v>
+        <v>17.3028790092108</v>
       </c>
       <c r="J184" t="n">
-        <v>6.74579464866422</v>
+        <v>17.4679372662211</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.9840330964791</v>
+        <v>2.0101463949414</v>
       </c>
       <c r="B185" t="n">
-        <v>11.4802305206342</v>
+        <v>2.80523269413368</v>
       </c>
       <c r="C185" t="n">
-        <v>12.5142738904254</v>
+        <v>3.45685199935269</v>
       </c>
       <c r="D185" t="n">
-        <v>15.0959132929188</v>
+        <v>3.7797132393962</v>
       </c>
       <c r="E185" t="n">
-        <v>13.7180492752229</v>
+        <v>4.26417920965958</v>
       </c>
       <c r="F185" t="n">
-        <v>15.5848116278348</v>
+        <v>5.05837397674517</v>
       </c>
       <c r="G185" t="n">
-        <v>16.199362647535</v>
+        <v>6.06639623977247</v>
       </c>
       <c r="H185" t="n">
-        <v>6.53618835073677</v>
+        <v>5.74393931777576</v>
       </c>
       <c r="I185" t="n">
-        <v>6.58167830552409</v>
+        <v>6.21912924809287</v>
       </c>
       <c r="J185" t="n">
-        <v>6.85409926663072</v>
+        <v>6.65468250938051</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.72660207259094</v>
+        <v>-4.99038481268213</v>
       </c>
       <c r="B186" t="n">
-        <v>11.4300209357993</v>
+        <v>-5.43008012794157</v>
       </c>
       <c r="C186" t="n">
-        <v>11.6803771402145</v>
+        <v>-6.41030231140923</v>
       </c>
       <c r="D186" t="n">
-        <v>13.1773803102964</v>
+        <v>-7.07329033317686</v>
       </c>
       <c r="E186" t="n">
-        <v>13.9576403082384</v>
+        <v>-6.53006998217367</v>
       </c>
       <c r="F186" t="n">
-        <v>14.9702986499683</v>
+        <v>-7.39161298782406</v>
       </c>
       <c r="G186" t="n">
-        <v>16.6581954076621</v>
+        <v>-8.03564959147686</v>
       </c>
       <c r="H186" t="n">
-        <v>17.8049554639908</v>
+        <v>-8.45370839819794</v>
       </c>
       <c r="I186" t="n">
-        <v>19.6946620512566</v>
+        <v>6.73532046231885</v>
       </c>
       <c r="J186" t="n">
-        <v>19.185057704718</v>
+        <v>6.44668645077739</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-4.98673161843976</v>
+        <v>10.4071181189969</v>
       </c>
       <c r="B187" t="n">
-        <v>-5.31417854793933</v>
+        <v>10.301326789109</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.31318646793651</v>
+        <v>12.7291867118992</v>
       </c>
       <c r="D187" t="n">
-        <v>-6.20200021979221</v>
+        <v>12.6616426935097</v>
       </c>
       <c r="E187" t="n">
-        <v>-6.66290366858747</v>
+        <v>13.9203177782453</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.38910691408023</v>
+        <v>15.2465096541369</v>
       </c>
       <c r="G187" t="n">
-        <v>-8.08281211651154</v>
+        <v>15.19686674985</v>
       </c>
       <c r="H187" t="n">
-        <v>-8.42745335638953</v>
+        <v>17.7094017848517</v>
       </c>
       <c r="I187" t="n">
-        <v>18.425702667313</v>
+        <v>18.2426190008859</v>
       </c>
       <c r="J187" t="n">
-        <v>19.4648030956256</v>
+        <v>19.3607372027929</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.40100450468479</v>
+        <v>10.1414126125289</v>
       </c>
       <c r="B188" t="n">
-        <v>3.50961255876315</v>
+        <v>11.1742481484832</v>
       </c>
       <c r="C188" t="n">
-        <v>3.32644901982031</v>
+        <v>11.1952707156181</v>
       </c>
       <c r="D188" t="n">
-        <v>4.62960952303631</v>
+        <v>12.1923781816656</v>
       </c>
       <c r="E188" t="n">
-        <v>4.94253713601868</v>
+        <v>14.3498631437127</v>
       </c>
       <c r="F188" t="n">
-        <v>5.95865801579631</v>
+        <v>15.5199006040706</v>
       </c>
       <c r="G188" t="n">
-        <v>5.99054317967108</v>
+        <v>15.7429253481908</v>
       </c>
       <c r="H188" t="n">
-        <v>5.69942258512457</v>
+        <v>16.9113502965989</v>
       </c>
       <c r="I188" t="n">
-        <v>6.79950526484559</v>
+        <v>18.2199863214062</v>
       </c>
       <c r="J188" t="n">
-        <v>7.43706250143937</v>
+        <v>18.7918628959533</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.17090202044015</v>
+        <v>-5.33370894603996</v>
       </c>
       <c r="B189" t="n">
-        <v>3.39340373601014</v>
+        <v>-5.21395028414639</v>
       </c>
       <c r="C189" t="n">
-        <v>3.50899346065687</v>
+        <v>-5.74459307282495</v>
       </c>
       <c r="D189" t="n">
-        <v>3.87336319133846</v>
+        <v>13.4757045843791</v>
       </c>
       <c r="E189" t="n">
-        <v>3.71403130036044</v>
+        <v>13.1359668563664</v>
       </c>
       <c r="F189" t="n">
-        <v>4.83963700463701</v>
+        <v>14.2778605072226</v>
       </c>
       <c r="G189" t="n">
-        <v>5.57254284529723</v>
+        <v>14.5400946289257</v>
       </c>
       <c r="H189" t="n">
-        <v>5.28331136899713</v>
+        <v>17.0187475559743</v>
       </c>
       <c r="I189" t="n">
-        <v>6.32927991379366</v>
+        <v>15.7422015820045</v>
       </c>
       <c r="J189" t="n">
-        <v>6.50538361718447</v>
+        <v>19.2632098293004</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-4.64939732624202</v>
+        <v>-4.87141350942865</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.33968689187394</v>
+        <v>-4.91524880366923</v>
       </c>
       <c r="C190" t="n">
-        <v>-5.6834864294946</v>
+        <v>-5.71324351491332</v>
       </c>
       <c r="D190" t="n">
-        <v>-6.85517106436646</v>
+        <v>-6.70460764611099</v>
       </c>
       <c r="E190" t="n">
-        <v>-6.69043765101352</v>
+        <v>-6.5146872662903</v>
       </c>
       <c r="F190" t="n">
-        <v>-7.34977795873756</v>
+        <v>-7.62354631077293</v>
       </c>
       <c r="G190" t="n">
-        <v>-8.68007766663923</v>
+        <v>-7.86782789780174</v>
       </c>
       <c r="H190" t="n">
-        <v>-8.31017788750162</v>
+        <v>6.41375352312325</v>
       </c>
       <c r="I190" t="n">
-        <v>18.1235677818086</v>
+        <v>7.19637093005608</v>
       </c>
       <c r="J190" t="n">
-        <v>19.2610192538973</v>
+        <v>7.0748026809016</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9.78736836855235</v>
+        <v>-5.01339589010278</v>
       </c>
       <c r="B191" t="n">
-        <v>2.50766127494033</v>
+        <v>-5.49473146709197</v>
       </c>
       <c r="C191" t="n">
-        <v>3.72670597675562</v>
+        <v>-6.02164008915255</v>
       </c>
       <c r="D191" t="n">
-        <v>3.94428576264531</v>
+        <v>-6.49537594112694</v>
       </c>
       <c r="E191" t="n">
-        <v>4.67045407404278</v>
+        <v>-6.77945050041044</v>
       </c>
       <c r="F191" t="n">
-        <v>5.62024656619337</v>
+        <v>-7.30879118679456</v>
       </c>
       <c r="G191" t="n">
-        <v>5.88705342572938</v>
+        <v>-7.66656507831352</v>
       </c>
       <c r="H191" t="n">
-        <v>6.27111984185657</v>
+        <v>-8.50475565380003</v>
       </c>
       <c r="I191" t="n">
-        <v>6.32084393129377</v>
+        <v>-8.98289508829776</v>
       </c>
       <c r="J191" t="n">
-        <v>6.09454613978001</v>
+        <v>-9.46528878003793</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-5.16685995584016</v>
+        <v>1.83151466353885</v>
       </c>
       <c r="B192" t="n">
-        <v>-5.20595054663438</v>
+        <v>3.18484001663801</v>
       </c>
       <c r="C192" t="n">
-        <v>-5.99741679882197</v>
+        <v>4.06948430899616</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.76573392434991</v>
+        <v>3.81084242374128</v>
       </c>
       <c r="E192" t="n">
-        <v>-7.31168813721297</v>
+        <v>4.44434878903465</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.54309726834693</v>
+        <v>5.25068335850489</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.81196485430963</v>
+        <v>4.99557358796334</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.39274986935176</v>
+        <v>6.34595538708282</v>
       </c>
       <c r="I192" t="n">
-        <v>-8.62822837774372</v>
+        <v>6.17735598440147</v>
       </c>
       <c r="J192" t="n">
-        <v>-9.62528506822704</v>
+        <v>7.05174485960041</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.1554245283277</v>
+        <v>9.04957585381704</v>
       </c>
       <c r="B193" t="n">
-        <v>11.179734986749</v>
+        <v>10.6705870408611</v>
       </c>
       <c r="C193" t="n">
-        <v>12.4804378970462</v>
+        <v>11.3465552375131</v>
       </c>
       <c r="D193" t="n">
-        <v>12.8894516423268</v>
+        <v>13.0711430991523</v>
       </c>
       <c r="E193" t="n">
-        <v>13.7978710516307</v>
+        <v>12.851233484569</v>
       </c>
       <c r="F193" t="n">
-        <v>14.3067116779492</v>
+        <v>14.8183744612021</v>
       </c>
       <c r="G193" t="n">
-        <v>15.2077811261149</v>
+        <v>16.4804171623833</v>
       </c>
       <c r="H193" t="n">
-        <v>17.2124318330977</v>
+        <v>17.9820880162684</v>
       </c>
       <c r="I193" t="n">
-        <v>18.5045659521092</v>
+        <v>17.7253632566607</v>
       </c>
       <c r="J193" t="n">
-        <v>17.6648248364558</v>
+        <v>19.8424069120287</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-4.89157400044337</v>
+        <v>3.29052355230422</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.67204551058418</v>
+        <v>2.79378965955434</v>
       </c>
       <c r="C194" t="n">
-        <v>12.1313122566369</v>
+        <v>4.36647976976359</v>
       </c>
       <c r="D194" t="n">
-        <v>14.0159219700715</v>
+        <v>3.89018759730685</v>
       </c>
       <c r="E194" t="n">
-        <v>13.8338697085189</v>
+        <v>4.5772171054296</v>
       </c>
       <c r="F194" t="n">
-        <v>14.4064324147721</v>
+        <v>5.49765213039204</v>
       </c>
       <c r="G194" t="n">
-        <v>15.969259243891</v>
+        <v>5.25672179461321</v>
       </c>
       <c r="H194" t="n">
-        <v>16.2615609152463</v>
+        <v>5.61932697828995</v>
       </c>
       <c r="I194" t="n">
-        <v>17.2590790093344</v>
+        <v>6.78740119713501</v>
       </c>
       <c r="J194" t="n">
-        <v>7.41942185289167</v>
+        <v>-9.50646727491582</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-5.26376879846239</v>
+        <v>-5.22520431821403</v>
       </c>
       <c r="B195" t="n">
-        <v>-5.50136605314264</v>
+        <v>-5.17697722791983</v>
       </c>
       <c r="C195" t="n">
-        <v>-6.1115706183318</v>
+        <v>-5.84611432735328</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.55579701628696</v>
+        <v>-6.35111848946357</v>
       </c>
       <c r="E195" t="n">
-        <v>-7.18997713780757</v>
+        <v>-7.07491971054291</v>
       </c>
       <c r="F195" t="n">
-        <v>-7.76461460366046</v>
+        <v>-7.49367975942489</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.93057302768324</v>
+        <v>-8.38871040745019</v>
       </c>
       <c r="H195" t="n">
-        <v>-8.40966040402443</v>
+        <v>-8.22271088507313</v>
       </c>
       <c r="I195" t="n">
-        <v>-8.9515773640569</v>
+        <v>-9.1406316149294</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.34967947488101</v>
+        <v>-9.63542302763768</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.3618688459508</v>
+        <v>9.23578941379119</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.69282923738021</v>
+        <v>10.6575849252261</v>
       </c>
       <c r="C196" t="n">
-        <v>-5.67287668193362</v>
+        <v>13.2303642305316</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.37241988070027</v>
+        <v>13.0661906982474</v>
       </c>
       <c r="E196" t="n">
-        <v>-6.9408306187635</v>
+        <v>13.3829902299188</v>
       </c>
       <c r="F196" t="n">
-        <v>-7.49138389267392</v>
+        <v>13.8745101922893</v>
       </c>
       <c r="G196" t="n">
-        <v>-7.9356246710467</v>
+        <v>15.9339479214685</v>
       </c>
       <c r="H196" t="n">
-        <v>-8.62314449790073</v>
+        <v>16.5848344712459</v>
       </c>
       <c r="I196" t="n">
-        <v>17.6223773876953</v>
+        <v>17.7390869398759</v>
       </c>
       <c r="J196" t="n">
-        <v>18.5101190500404</v>
+        <v>19.9522171165524</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3.20466126495726</v>
+        <v>-4.45108840456157</v>
       </c>
       <c r="B197" t="n">
-        <v>3.32708349046921</v>
+        <v>-5.59067729295793</v>
       </c>
       <c r="C197" t="n">
-        <v>4.43002551851137</v>
+        <v>-6.02008286431869</v>
       </c>
       <c r="D197" t="n">
-        <v>4.43190883315119</v>
+        <v>-6.36198075739739</v>
       </c>
       <c r="E197" t="n">
-        <v>4.97593470676927</v>
+        <v>-6.8466803830641</v>
       </c>
       <c r="F197" t="n">
-        <v>4.95207179608266</v>
+        <v>-7.61944771502048</v>
       </c>
       <c r="G197" t="n">
-        <v>5.68290173795101</v>
+        <v>-7.91088354635174</v>
       </c>
       <c r="H197" t="n">
-        <v>6.88185514741263</v>
+        <v>-8.32808805103769</v>
       </c>
       <c r="I197" t="n">
-        <v>6.13927556785716</v>
+        <v>-8.64200063804764</v>
       </c>
       <c r="J197" t="n">
-        <v>6.31426425769855</v>
+        <v>-9.80721221459762</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-4.98931666668285</v>
+        <v>10.4400603043025</v>
       </c>
       <c r="B198" t="n">
-        <v>-5.6066110380744</v>
+        <v>10.2863206414592</v>
       </c>
       <c r="C198" t="n">
-        <v>-6.17343839537461</v>
+        <v>12.2498500893476</v>
       </c>
       <c r="D198" t="n">
-        <v>-6.22177561865954</v>
+        <v>11.7301647050958</v>
       </c>
       <c r="E198" t="n">
-        <v>-7.21486762522207</v>
+        <v>13.7912489047726</v>
       </c>
       <c r="F198" t="n">
-        <v>-7.51010027567944</v>
+        <v>16.0772399002474</v>
       </c>
       <c r="G198" t="n">
-        <v>-8.22090295644424</v>
+        <v>16.1474628470237</v>
       </c>
       <c r="H198" t="n">
-        <v>-8.44894814331192</v>
+        <v>16.6347808581225</v>
       </c>
       <c r="I198" t="n">
-        <v>-9.10488296000989</v>
+        <v>20.2370575097289</v>
       </c>
       <c r="J198" t="n">
-        <v>-9.25305098604388</v>
+        <v>18.550105092403</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.64808269824887</v>
+        <v>10.0055140224862</v>
       </c>
       <c r="B199" t="n">
-        <v>2.61951807410016</v>
+        <v>11.125925117849</v>
       </c>
       <c r="C199" t="n">
-        <v>3.62473179782704</v>
+        <v>12.2072204137473</v>
       </c>
       <c r="D199" t="n">
-        <v>5.26040225906085</v>
+        <v>12.791893844371</v>
       </c>
       <c r="E199" t="n">
-        <v>4.93165155380477</v>
+        <v>13.5207059524452</v>
       </c>
       <c r="F199" t="n">
-        <v>4.60511251346135</v>
+        <v>16.1751818190685</v>
       </c>
       <c r="G199" t="n">
-        <v>5.24750643912081</v>
+        <v>15.2029026999457</v>
       </c>
       <c r="H199" t="n">
-        <v>5.63942384540553</v>
+        <v>16.7430512746441</v>
       </c>
       <c r="I199" t="n">
-        <v>5.92363419002595</v>
+        <v>17.9309006068917</v>
       </c>
       <c r="J199" t="n">
-        <v>6.5306371808281</v>
+        <v>20.0998069456858</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.73699436170093</v>
+        <v>-5.09645546484013</v>
       </c>
       <c r="B200" t="n">
-        <v>3.30357757228234</v>
+        <v>-5.75818210153442</v>
       </c>
       <c r="C200" t="n">
-        <v>3.33385250006631</v>
+        <v>-5.83751012804592</v>
       </c>
       <c r="D200" t="n">
-        <v>4.84236533516514</v>
+        <v>-6.21488319935928</v>
       </c>
       <c r="E200" t="n">
-        <v>3.62123886985222</v>
+        <v>-7.09546759590611</v>
       </c>
       <c r="F200" t="n">
-        <v>4.80942889759995</v>
+        <v>-7.39620440569157</v>
       </c>
       <c r="G200" t="n">
-        <v>5.46164205903121</v>
+        <v>-8.41828219453303</v>
       </c>
       <c r="H200" t="n">
-        <v>6.1592249964672</v>
+        <v>-8.49604126774503</v>
       </c>
       <c r="I200" t="n">
-        <v>6.24425127628122</v>
+        <v>-9.2045873108002</v>
       </c>
       <c r="J200" t="n">
-        <v>7.19262114172026</v>
+        <v>-9.10388090752535</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-4.77640107769815</v>
+        <v>9.49127379520759</v>
       </c>
       <c r="B201" t="n">
-        <v>-5.43186612093701</v>
+        <v>11.6074006561093</v>
       </c>
       <c r="C201" t="n">
-        <v>-6.36645872029384</v>
+        <v>12.23195662117</v>
       </c>
       <c r="D201" t="n">
-        <v>-6.34004803201585</v>
+        <v>12.7448650426671</v>
       </c>
       <c r="E201" t="n">
-        <v>-7.16688076523104</v>
+        <v>13.2269667374175</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.73887303661352</v>
+        <v>-7.52842477025804</v>
       </c>
       <c r="G201" t="n">
-        <v>-8.3145435256532</v>
+        <v>-8.25560682601177</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.77672564423708</v>
+        <v>-9.02557106850661</v>
       </c>
       <c r="I201" t="n">
-        <v>-8.86690091974181</v>
+        <v>-9.28682072769994</v>
       </c>
       <c r="J201" t="n">
-        <v>18.4424940570381</v>
+        <v>-9.50406665348532</v>
       </c>
     </row>
   </sheetData>
